--- a/PSP/uploads/resources/PSP_August__2023.xlsx
+++ b/PSP/uploads/resources/PSP_August__2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell Latitude E5285\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell Latitude E5285\PycharmProjects\PluckingSchemePrograme\PSP\uploads\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D1E689-2975-46A5-8ACD-CD07C6B06EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BBC54-4EAA-4374-A949-176A72A8A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kaboswa" sheetId="11" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="56">
   <si>
     <t xml:space="preserve">PROGRAM SCHEME  PLUCKING . </t>
   </si>
@@ -178,6 +178,33 @@
   </si>
   <si>
     <t>MONTH: AUGUST 2022</t>
+  </si>
+  <si>
+    <t>Growing_Days_CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf_Type </t>
+  </si>
+  <si>
+    <t>Days_to_Plk</t>
+  </si>
+  <si>
+    <t>Prune_Age</t>
+  </si>
+  <si>
+    <t>Number_of_Schemes</t>
+  </si>
+  <si>
+    <t>Ha_Day_Tgt</t>
+  </si>
+  <si>
+    <t>Pluckers_req</t>
+  </si>
+  <si>
+    <t>Daily_Actual</t>
+  </si>
+  <si>
+    <t>Fields</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="530">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2342,18 +2369,168 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2372,154 +2549,157 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2534,158 +2714,53 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2708,12 +2783,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2726,46 +2795,118 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2774,119 +2915,10 @@
     <xf numFmtId="3" fontId="14" fillId="6" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3269,32 +3301,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="398" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="398"/>
+      <c r="I1" s="398"/>
+      <c r="J1" s="398"/>
     </row>
     <row r="2" spans="1:44" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
+      <c r="B2" s="399"/>
+      <c r="C2" s="399"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
+      <c r="F2" s="399"/>
+      <c r="G2" s="399"/>
+      <c r="H2" s="399"/>
+      <c r="I2" s="399"/>
+      <c r="J2" s="399"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -3326,20 +3358,20 @@
         <v>ZONE A</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="352" t="str">
+      <c r="X3" s="402" t="str">
         <f>A24</f>
         <v>ZONE B</v>
       </c>
-      <c r="Y3" s="353"/>
-      <c r="Z3" s="354" t="str">
+      <c r="Y3" s="403"/>
+      <c r="Z3" s="404" t="str">
         <f>A37</f>
         <v>ZONE C</v>
       </c>
-      <c r="AA3" s="355"/>
-      <c r="AB3" s="350" t="s">
+      <c r="AA3" s="405"/>
+      <c r="AB3" s="400" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="351"/>
+      <c r="AC3" s="401"/>
     </row>
     <row r="4" spans="1:44" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -3363,31 +3395,31 @@
       <c r="K4" s="107">
         <v>26</v>
       </c>
-      <c r="Q4" s="381" t="s">
+      <c r="Q4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
-      <c r="V4" s="403">
+      <c r="R4" s="349"/>
+      <c r="S4" s="349"/>
+      <c r="T4" s="349"/>
+      <c r="V4" s="355">
         <v>1292312</v>
       </c>
-      <c r="W4" s="404"/>
-      <c r="X4" s="404">
+      <c r="W4" s="356"/>
+      <c r="X4" s="356">
         <v>1136888</v>
       </c>
-      <c r="Y4" s="404"/>
-      <c r="Z4" s="404">
+      <c r="Y4" s="356"/>
+      <c r="Z4" s="356">
         <v>1145152</v>
       </c>
-      <c r="AA4" s="405"/>
-      <c r="AB4" s="348">
+      <c r="AA4" s="357"/>
+      <c r="AB4" s="352">
         <f>SUM(V4:AA4)</f>
         <v>3574352</v>
       </c>
-      <c r="AC4" s="349"/>
-      <c r="AF4" s="400"/>
-      <c r="AG4" s="401"/>
+      <c r="AC4" s="353"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="348"/>
       <c r="AH4" s="108"/>
       <c r="AK4" s="20"/>
       <c r="AL4" s="20"/>
@@ -3403,100 +3435,100 @@
       <c r="O5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="381" t="s">
+      <c r="Q5" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
-      <c r="V5" s="402">
+      <c r="R5" s="349"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
+      <c r="V5" s="350">
         <f>(F20)*$I$4*$K$4</f>
         <v>70474.444444444453</v>
       </c>
-      <c r="W5" s="372"/>
-      <c r="X5" s="402">
+      <c r="W5" s="351"/>
+      <c r="X5" s="350">
         <f>(F33)*$I$4*$K$4</f>
         <v>81394.444444444453</v>
       </c>
-      <c r="Y5" s="372"/>
-      <c r="Z5" s="402">
+      <c r="Y5" s="351"/>
+      <c r="Z5" s="350">
         <f>(F45)*$I$4*$K$4</f>
         <v>78209.444444444453</v>
       </c>
-      <c r="AA5" s="372"/>
-      <c r="AB5" s="348">
+      <c r="AA5" s="351"/>
+      <c r="AB5" s="352">
         <f t="shared" ref="AB5:AB6" si="0">SUM(R5:AA5)</f>
         <v>230078.33333333337</v>
       </c>
-      <c r="AC5" s="349"/>
-      <c r="AF5" s="386"/>
-      <c r="AG5" s="386"/>
+      <c r="AC5" s="353"/>
+      <c r="AF5" s="354"/>
+      <c r="AG5" s="354"/>
       <c r="AP5" s="109">
         <v>1</v>
       </c>
-      <c r="AQ5" s="379" t="s">
+      <c r="AQ5" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="380"/>
+      <c r="AR5" s="375"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="381" t="s">
+      <c r="Q6" s="349" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="381"/>
-      <c r="S6" s="381"/>
-      <c r="T6" s="381"/>
-      <c r="V6" s="382">
+      <c r="R6" s="349"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="V6" s="376">
         <f>V5/$K$4</f>
         <v>2710.5555555555557</v>
       </c>
-      <c r="W6" s="383"/>
-      <c r="X6" s="382">
+      <c r="W6" s="377"/>
+      <c r="X6" s="376">
         <f t="shared" ref="X6" si="1">X5/$K$4</f>
         <v>3130.5555555555557</v>
       </c>
-      <c r="Y6" s="383"/>
-      <c r="Z6" s="382">
+      <c r="Y6" s="377"/>
+      <c r="Z6" s="376">
         <f t="shared" ref="Z6" si="2">Z5/$K$4</f>
         <v>3008.0555555555557</v>
       </c>
-      <c r="AA6" s="383"/>
-      <c r="AB6" s="384">
+      <c r="AA6" s="377"/>
+      <c r="AB6" s="378">
         <f t="shared" si="0"/>
         <v>8849.1666666666679</v>
       </c>
-      <c r="AC6" s="385"/>
-      <c r="AF6" s="386"/>
-      <c r="AG6" s="386"/>
-      <c r="AQ6" s="387" t="s">
+      <c r="AC6" s="379"/>
+      <c r="AF6" s="354"/>
+      <c r="AG6" s="354"/>
+      <c r="AQ6" s="380" t="s">
         <v>17</v>
       </c>
-      <c r="AR6" s="388"/>
+      <c r="AR6" s="381"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="358" t="s">
+      <c r="B8" s="394" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="360" t="s">
+      <c r="C8" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="366" t="s">
+      <c r="D8" s="387" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="366" t="s">
+      <c r="E8" s="387" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="366" t="s">
+      <c r="F8" s="387" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="398" t="s">
+      <c r="G8" s="368" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="364">
@@ -3505,7 +3537,7 @@
       <c r="I8" s="364">
         <v>2</v>
       </c>
-      <c r="J8" s="362">
+      <c r="J8" s="370">
         <v>3</v>
       </c>
       <c r="K8" s="364">
@@ -3526,7 +3558,7 @@
       <c r="P8" s="364">
         <v>9</v>
       </c>
-      <c r="Q8" s="362">
+      <c r="Q8" s="370">
         <v>10</v>
       </c>
       <c r="R8" s="364">
@@ -3547,7 +3579,7 @@
       <c r="W8" s="364">
         <v>16</v>
       </c>
-      <c r="X8" s="362">
+      <c r="X8" s="370">
         <v>17</v>
       </c>
       <c r="Y8" s="364">
@@ -3559,16 +3591,16 @@
       <c r="AA8" s="364">
         <v>20</v>
       </c>
-      <c r="AB8" s="376">
+      <c r="AB8" s="372">
         <v>21</v>
       </c>
-      <c r="AC8" s="376">
+      <c r="AC8" s="372">
         <v>22</v>
       </c>
-      <c r="AD8" s="376">
+      <c r="AD8" s="372">
         <v>23</v>
       </c>
-      <c r="AE8" s="374">
+      <c r="AE8" s="385">
         <v>24</v>
       </c>
       <c r="AF8" s="364">
@@ -3580,67 +3612,67 @@
       <c r="AH8" s="364">
         <v>27</v>
       </c>
-      <c r="AI8" s="395">
+      <c r="AI8" s="366">
         <v>28</v>
       </c>
-      <c r="AJ8" s="397">
+      <c r="AJ8" s="346">
         <v>29</v>
       </c>
-      <c r="AK8" s="397">
+      <c r="AK8" s="346">
         <v>30</v>
       </c>
-      <c r="AL8" s="397">
+      <c r="AL8" s="346">
         <v>31</v>
       </c>
       <c r="AN8" s="109"/>
-      <c r="AO8" s="389"/>
-      <c r="AP8" s="390"/>
-      <c r="AQ8" s="390"/>
-      <c r="AR8" s="391"/>
+      <c r="AO8" s="358"/>
+      <c r="AP8" s="359"/>
+      <c r="AQ8" s="359"/>
+      <c r="AR8" s="360"/>
     </row>
     <row r="9" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="357"/>
-      <c r="B9" s="359"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
-      <c r="G9" s="399"/>
+      <c r="A9" s="393"/>
+      <c r="B9" s="395"/>
+      <c r="C9" s="397"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="369"/>
       <c r="H9" s="365"/>
       <c r="I9" s="365"/>
-      <c r="J9" s="363"/>
+      <c r="J9" s="371"/>
       <c r="K9" s="365"/>
       <c r="L9" s="365"/>
       <c r="M9" s="365"/>
       <c r="N9" s="365"/>
       <c r="O9" s="365"/>
       <c r="P9" s="365"/>
-      <c r="Q9" s="363"/>
+      <c r="Q9" s="371"/>
       <c r="R9" s="365"/>
       <c r="S9" s="365"/>
       <c r="T9" s="365"/>
       <c r="U9" s="365"/>
       <c r="V9" s="365"/>
       <c r="W9" s="365"/>
-      <c r="X9" s="363"/>
+      <c r="X9" s="371"/>
       <c r="Y9" s="365"/>
       <c r="Z9" s="365"/>
       <c r="AA9" s="365"/>
-      <c r="AB9" s="377"/>
-      <c r="AC9" s="377"/>
-      <c r="AD9" s="377"/>
-      <c r="AE9" s="375"/>
+      <c r="AB9" s="373"/>
+      <c r="AC9" s="373"/>
+      <c r="AD9" s="373"/>
+      <c r="AE9" s="386"/>
       <c r="AF9" s="365"/>
       <c r="AG9" s="365"/>
       <c r="AH9" s="365"/>
-      <c r="AI9" s="396"/>
-      <c r="AJ9" s="397"/>
-      <c r="AK9" s="397"/>
-      <c r="AL9" s="397"/>
-      <c r="AO9" s="392"/>
-      <c r="AP9" s="393"/>
-      <c r="AQ9" s="393"/>
-      <c r="AR9" s="394"/>
+      <c r="AI9" s="367"/>
+      <c r="AJ9" s="346"/>
+      <c r="AK9" s="346"/>
+      <c r="AL9" s="346"/>
+      <c r="AO9" s="361"/>
+      <c r="AP9" s="362"/>
+      <c r="AQ9" s="362"/>
+      <c r="AR9" s="363"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
@@ -3679,10 +3711,10 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="25"/>
-      <c r="AO10" s="392"/>
-      <c r="AP10" s="393"/>
-      <c r="AQ10" s="393"/>
-      <c r="AR10" s="394"/>
+      <c r="AO10" s="361"/>
+      <c r="AP10" s="362"/>
+      <c r="AQ10" s="362"/>
+      <c r="AR10" s="363"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="72">
@@ -4421,25 +4453,25 @@
       <c r="AR21" s="79"/>
     </row>
     <row r="22" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="378" t="s">
+      <c r="A22" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="371" t="s">
+      <c r="B22" s="383" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="372" t="s">
+      <c r="C22" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="373" t="s">
+      <c r="D22" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="373" t="s">
+      <c r="E22" s="384" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="373" t="s">
+      <c r="F22" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="373" t="s">
+      <c r="G22" s="384" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="26"/>
@@ -4827,13 +4859,13 @@
       <c r="NZ22" s="47"/>
     </row>
     <row r="23" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="378"/>
-      <c r="B23" s="371"/>
-      <c r="C23" s="372"/>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="373"/>
-      <c r="G23" s="373"/>
+      <c r="A23" s="382"/>
+      <c r="B23" s="383"/>
+      <c r="C23" s="351"/>
+      <c r="D23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="384"/>
+      <c r="G23" s="384"/>
       <c r="H23" s="26"/>
       <c r="I23" s="120"/>
       <c r="J23" s="148"/>
@@ -6300,25 +6332,25 @@
       <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A35" s="369" t="s">
+      <c r="A35" s="390" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="371" t="s">
+      <c r="B35" s="383" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="372" t="s">
+      <c r="C35" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="373" t="s">
+      <c r="D35" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="373" t="s">
+      <c r="E35" s="384" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="373" t="s">
+      <c r="F35" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="368" t="s">
+      <c r="G35" s="389" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="26"/>
@@ -6358,13 +6390,13 @@
       <c r="AR35" s="77"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A36" s="370"/>
-      <c r="B36" s="371"/>
-      <c r="C36" s="372"/>
-      <c r="D36" s="373"/>
-      <c r="E36" s="373"/>
-      <c r="F36" s="373"/>
-      <c r="G36" s="368"/>
+      <c r="A36" s="391"/>
+      <c r="B36" s="383"/>
+      <c r="C36" s="351"/>
+      <c r="D36" s="384"/>
+      <c r="E36" s="384"/>
+      <c r="F36" s="384"/>
+      <c r="G36" s="389"/>
       <c r="H36" s="26"/>
       <c r="I36" s="120"/>
       <c r="J36" s="148"/>
@@ -7066,19 +7098,55 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AO8:AR10"/>
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AI8:AI9"/>
@@ -7095,55 +7163,19 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.23622047244094499" bottom="0.23622047244094499" header="0.23622047244094499" footer="0.23622047244094499"/>
@@ -7200,32 +7232,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:44" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="458" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -7257,20 +7289,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="352" t="str">
+      <c r="X3" s="402" t="str">
         <f>A22</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="353"/>
-      <c r="Z3" s="354" t="str">
+      <c r="Y3" s="403"/>
+      <c r="Z3" s="404" t="str">
         <f>A33</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="355"/>
-      <c r="AB3" s="408" t="s">
+      <c r="AA3" s="405"/>
+      <c r="AB3" s="459" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="409"/>
+      <c r="AC3" s="460"/>
     </row>
     <row r="4" spans="1:44" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="55" t="s">
@@ -7294,29 +7326,29 @@
       <c r="K4" s="43">
         <v>26</v>
       </c>
-      <c r="Q4" s="410" t="s">
+      <c r="Q4" s="441" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="410"/>
-      <c r="S4" s="410"/>
-      <c r="T4" s="410"/>
-      <c r="V4" s="411">
+      <c r="R4" s="441"/>
+      <c r="S4" s="441"/>
+      <c r="T4" s="441"/>
+      <c r="V4" s="454">
         <v>1177277</v>
       </c>
-      <c r="W4" s="412"/>
-      <c r="X4" s="412">
+      <c r="W4" s="455"/>
+      <c r="X4" s="455">
         <v>921214</v>
       </c>
-      <c r="Y4" s="412"/>
-      <c r="Z4" s="412">
+      <c r="Y4" s="455"/>
+      <c r="Z4" s="455">
         <v>1127157</v>
       </c>
-      <c r="AA4" s="413"/>
-      <c r="AB4" s="414">
+      <c r="AA4" s="456"/>
+      <c r="AB4" s="452">
         <f>SUM(V4:AA4)</f>
         <v>3225648</v>
       </c>
-      <c r="AC4" s="415"/>
+      <c r="AC4" s="453"/>
       <c r="AH4" s="2"/>
       <c r="AL4" s="68"/>
       <c r="AO4" s="2"/>
@@ -7331,99 +7363,99 @@
       <c r="O5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="410" t="s">
+      <c r="Q5" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="410"/>
-      <c r="S5" s="410"/>
-      <c r="T5" s="410"/>
-      <c r="V5" s="425">
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="V5" s="449">
         <f>(F18)*$I$4*$K$4</f>
         <v>119883.21428571428</v>
       </c>
-      <c r="W5" s="426"/>
-      <c r="X5" s="426">
+      <c r="W5" s="450"/>
+      <c r="X5" s="450">
         <f>(F29)*$I$4*$K$4</f>
         <v>138320</v>
       </c>
-      <c r="Y5" s="426"/>
-      <c r="Z5" s="426">
+      <c r="Y5" s="450"/>
+      <c r="Z5" s="450">
         <f>(F42)*$I$4*$K$4</f>
         <v>144337.1428571429</v>
       </c>
-      <c r="AA5" s="427"/>
-      <c r="AB5" s="414">
+      <c r="AA5" s="451"/>
+      <c r="AB5" s="452">
         <f t="shared" ref="AB5:AB6" si="0">SUM(V5:AA5)</f>
         <v>402540.35714285716</v>
       </c>
-      <c r="AC5" s="415"/>
+      <c r="AC5" s="453"/>
       <c r="AL5" s="69"/>
       <c r="AP5" s="3">
         <v>1</v>
       </c>
-      <c r="AQ5" s="416" t="s">
+      <c r="AQ5" s="439" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="417"/>
+      <c r="AR5" s="440"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="410" t="s">
+      <c r="Q6" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="410"/>
-      <c r="S6" s="410"/>
-      <c r="T6" s="410"/>
-      <c r="V6" s="418">
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="V6" s="442">
         <f>V5/$K$4</f>
         <v>4610.8928571428569</v>
       </c>
-      <c r="W6" s="419"/>
-      <c r="X6" s="419">
+      <c r="W6" s="443"/>
+      <c r="X6" s="443">
         <f>X5/$K$4</f>
         <v>5320</v>
       </c>
-      <c r="Y6" s="419"/>
-      <c r="Z6" s="419">
+      <c r="Y6" s="443"/>
+      <c r="Z6" s="443">
         <f>Z5/$K$4</f>
         <v>5551.4285714285734</v>
       </c>
-      <c r="AA6" s="420"/>
-      <c r="AB6" s="421">
+      <c r="AA6" s="444"/>
+      <c r="AB6" s="445">
         <f t="shared" si="0"/>
         <v>15482.321428571431</v>
       </c>
-      <c r="AC6" s="422"/>
-      <c r="AQ6" s="423" t="s">
+      <c r="AC6" s="446"/>
+      <c r="AQ6" s="447" t="s">
         <v>17</v>
       </c>
-      <c r="AR6" s="424"/>
+      <c r="AR6" s="448"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="428" t="s">
+      <c r="A8" s="429" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="430" t="s">
+      <c r="B8" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="432" t="s">
+      <c r="C8" s="433" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="434" t="s">
+      <c r="D8" s="435" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="434" t="s">
+      <c r="E8" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="434" t="s">
+      <c r="F8" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="436" t="s">
+      <c r="G8" s="437" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="364">
@@ -7432,7 +7464,7 @@
       <c r="I8" s="364">
         <v>2</v>
       </c>
-      <c r="J8" s="362">
+      <c r="J8" s="370">
         <v>3</v>
       </c>
       <c r="K8" s="364">
@@ -7453,7 +7485,7 @@
       <c r="P8" s="364">
         <v>9</v>
       </c>
-      <c r="Q8" s="362">
+      <c r="Q8" s="370">
         <v>10</v>
       </c>
       <c r="R8" s="364">
@@ -7474,7 +7506,7 @@
       <c r="W8" s="364">
         <v>16</v>
       </c>
-      <c r="X8" s="362">
+      <c r="X8" s="370">
         <v>17</v>
       </c>
       <c r="Y8" s="364">
@@ -7486,16 +7518,16 @@
       <c r="AA8" s="364">
         <v>20</v>
       </c>
-      <c r="AB8" s="376">
+      <c r="AB8" s="372">
         <v>21</v>
       </c>
-      <c r="AC8" s="376">
+      <c r="AC8" s="372">
         <v>22</v>
       </c>
-      <c r="AD8" s="376">
+      <c r="AD8" s="372">
         <v>23</v>
       </c>
-      <c r="AE8" s="374">
+      <c r="AE8" s="385">
         <v>24</v>
       </c>
       <c r="AF8" s="364">
@@ -7516,60 +7548,60 @@
       <c r="AK8" s="364">
         <v>30</v>
       </c>
-      <c r="AL8" s="439">
+      <c r="AL8" s="412">
         <v>31</v>
       </c>
       <c r="AM8" s="47"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="441"/>
-      <c r="AP8" s="442"/>
-      <c r="AQ8" s="442"/>
-      <c r="AR8" s="443"/>
+      <c r="AO8" s="414"/>
+      <c r="AP8" s="415"/>
+      <c r="AQ8" s="415"/>
+      <c r="AR8" s="416"/>
     </row>
     <row r="9" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="429"/>
-      <c r="B9" s="431"/>
-      <c r="C9" s="433"/>
-      <c r="D9" s="435"/>
-      <c r="E9" s="435"/>
-      <c r="F9" s="435"/>
-      <c r="G9" s="437"/>
+      <c r="A9" s="430"/>
+      <c r="B9" s="432"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="438"/>
       <c r="H9" s="365"/>
       <c r="I9" s="365"/>
-      <c r="J9" s="363"/>
+      <c r="J9" s="371"/>
       <c r="K9" s="365"/>
       <c r="L9" s="365"/>
       <c r="M9" s="365"/>
       <c r="N9" s="365"/>
       <c r="O9" s="365"/>
       <c r="P9" s="365"/>
-      <c r="Q9" s="363"/>
+      <c r="Q9" s="371"/>
       <c r="R9" s="365"/>
       <c r="S9" s="365"/>
       <c r="T9" s="365"/>
       <c r="U9" s="365"/>
       <c r="V9" s="365"/>
       <c r="W9" s="365"/>
-      <c r="X9" s="363"/>
+      <c r="X9" s="371"/>
       <c r="Y9" s="365"/>
       <c r="Z9" s="365"/>
       <c r="AA9" s="365"/>
-      <c r="AB9" s="377"/>
-      <c r="AC9" s="438"/>
-      <c r="AD9" s="438"/>
-      <c r="AE9" s="375"/>
+      <c r="AB9" s="373"/>
+      <c r="AC9" s="428"/>
+      <c r="AD9" s="428"/>
+      <c r="AE9" s="386"/>
       <c r="AF9" s="365"/>
       <c r="AG9" s="365"/>
       <c r="AH9" s="365"/>
       <c r="AI9" s="365"/>
       <c r="AJ9" s="365"/>
       <c r="AK9" s="365"/>
-      <c r="AL9" s="440"/>
+      <c r="AL9" s="413"/>
       <c r="AM9" s="47"/>
-      <c r="AO9" s="444"/>
-      <c r="AP9" s="445"/>
-      <c r="AQ9" s="445"/>
-      <c r="AR9" s="446"/>
+      <c r="AO9" s="417"/>
+      <c r="AP9" s="418"/>
+      <c r="AQ9" s="418"/>
+      <c r="AR9" s="419"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
@@ -8248,25 +8280,25 @@
       <c r="AR19" s="57"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A20" s="447" t="s">
+      <c r="A20" s="420" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="449" t="s">
+      <c r="B20" s="422" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="451" t="s">
+      <c r="C20" s="424" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="453" t="s">
+      <c r="D20" s="426" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="453" t="s">
+      <c r="E20" s="426" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="453" t="s">
+      <c r="F20" s="426" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="453" t="s">
+      <c r="G20" s="426" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="26"/>
@@ -8307,13 +8339,13 @@
       <c r="AR20" s="7"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A21" s="448"/>
-      <c r="B21" s="450"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="454"/>
-      <c r="E21" s="454"/>
-      <c r="F21" s="454"/>
-      <c r="G21" s="454"/>
+      <c r="A21" s="421"/>
+      <c r="B21" s="423"/>
+      <c r="C21" s="425"/>
+      <c r="D21" s="427"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="427"/>
+      <c r="G21" s="427"/>
       <c r="H21" s="26"/>
       <c r="I21" s="120"/>
       <c r="J21" s="148"/>
@@ -8968,25 +9000,25 @@
       <c r="AR30" s="7"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A31" s="456" t="s">
+      <c r="A31" s="407" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="458" t="s">
+      <c r="B31" s="409" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="459" t="s">
+      <c r="C31" s="410" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="460" t="s">
+      <c r="D31" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="460" t="s">
+      <c r="E31" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="460" t="s">
+      <c r="F31" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="455" t="s">
+      <c r="G31" s="406" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="26"/>
@@ -9027,13 +9059,13 @@
       <c r="AR31" s="7"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A32" s="457"/>
-      <c r="B32" s="458"/>
-      <c r="C32" s="459"/>
-      <c r="D32" s="460"/>
-      <c r="E32" s="460"/>
-      <c r="F32" s="460"/>
-      <c r="G32" s="455"/>
+      <c r="A32" s="408"/>
+      <c r="B32" s="409"/>
+      <c r="C32" s="410"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="411"/>
+      <c r="F32" s="411"/>
+      <c r="G32" s="406"/>
       <c r="H32" s="26"/>
       <c r="I32" s="120"/>
       <c r="J32" s="148"/>
@@ -9798,18 +9830,53 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="AJ8:AJ9"/>
     <mergeCell ref="AK8:AK9"/>
     <mergeCell ref="AL8:AL9"/>
@@ -9826,53 +9893,18 @@
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -9930,32 +9962,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:45" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="458" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -9987,20 +10019,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="352" t="str">
+      <c r="X3" s="402" t="str">
         <f>A22</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="353"/>
-      <c r="Z3" s="354" t="str">
+      <c r="Y3" s="403"/>
+      <c r="Z3" s="404" t="str">
         <f>A34</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="355"/>
-      <c r="AB3" s="408" t="s">
+      <c r="AA3" s="405"/>
+      <c r="AB3" s="459" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="409"/>
+      <c r="AC3" s="460"/>
     </row>
     <row r="4" spans="1:45" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="55" t="s">
@@ -10024,29 +10056,29 @@
       <c r="K4" s="43">
         <v>26</v>
       </c>
-      <c r="Q4" s="410" t="s">
+      <c r="Q4" s="441" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="410"/>
-      <c r="S4" s="410"/>
-      <c r="T4" s="410"/>
-      <c r="V4" s="411">
+      <c r="R4" s="441"/>
+      <c r="S4" s="441"/>
+      <c r="T4" s="441"/>
+      <c r="V4" s="454">
         <v>1177277</v>
       </c>
-      <c r="W4" s="412"/>
-      <c r="X4" s="412">
+      <c r="W4" s="455"/>
+      <c r="X4" s="455">
         <v>921214</v>
       </c>
-      <c r="Y4" s="412"/>
-      <c r="Z4" s="412">
+      <c r="Y4" s="455"/>
+      <c r="Z4" s="455">
         <v>1127157</v>
       </c>
-      <c r="AA4" s="413"/>
-      <c r="AB4" s="414">
+      <c r="AA4" s="456"/>
+      <c r="AB4" s="452">
         <f>SUM(V4:AA4)</f>
         <v>3225648</v>
       </c>
-      <c r="AC4" s="415"/>
+      <c r="AC4" s="453"/>
       <c r="AH4" s="2"/>
       <c r="AM4" s="68"/>
       <c r="AP4" s="2"/>
@@ -10061,99 +10093,99 @@
       <c r="O5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="410" t="s">
+      <c r="Q5" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="410"/>
-      <c r="S5" s="410"/>
-      <c r="T5" s="410"/>
-      <c r="V5" s="425">
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="V5" s="449">
         <f>(F18)*$I$4*$K$4</f>
         <v>132189.10714285713</v>
       </c>
-      <c r="W5" s="426"/>
-      <c r="X5" s="426">
+      <c r="W5" s="450"/>
+      <c r="X5" s="450">
         <f>(F30)*$I$4*$K$4</f>
         <v>126350.71428571428</v>
       </c>
-      <c r="Y5" s="426"/>
-      <c r="Z5" s="426">
+      <c r="Y5" s="450"/>
+      <c r="Z5" s="450">
         <f>(F42)*$I$4*$K$4</f>
         <v>148179.10714285716</v>
       </c>
-      <c r="AA5" s="427"/>
-      <c r="AB5" s="414">
+      <c r="AA5" s="451"/>
+      <c r="AB5" s="452">
         <f t="shared" ref="AB5:AB6" si="0">SUM(V5:AA5)</f>
         <v>406718.92857142858</v>
       </c>
-      <c r="AC5" s="415"/>
+      <c r="AC5" s="453"/>
       <c r="AM5" s="69"/>
       <c r="AQ5" s="3">
         <v>1</v>
       </c>
-      <c r="AR5" s="416" t="s">
+      <c r="AR5" s="439" t="s">
         <v>16</v>
       </c>
-      <c r="AS5" s="417"/>
+      <c r="AS5" s="440"/>
     </row>
     <row r="6" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="410" t="s">
+      <c r="Q6" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="410"/>
-      <c r="S6" s="410"/>
-      <c r="T6" s="410"/>
-      <c r="V6" s="418">
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="V6" s="442">
         <f>V5/$K$4</f>
         <v>5084.1964285714284</v>
       </c>
-      <c r="W6" s="419"/>
-      <c r="X6" s="419">
+      <c r="W6" s="443"/>
+      <c r="X6" s="443">
         <f>X5/$K$4</f>
         <v>4859.6428571428569</v>
       </c>
-      <c r="Y6" s="419"/>
-      <c r="Z6" s="419">
+      <c r="Y6" s="443"/>
+      <c r="Z6" s="443">
         <f>Z5/$K$4</f>
         <v>5699.1964285714294</v>
       </c>
-      <c r="AA6" s="420"/>
-      <c r="AB6" s="421">
+      <c r="AA6" s="444"/>
+      <c r="AB6" s="445">
         <f t="shared" si="0"/>
         <v>15643.035714285716</v>
       </c>
-      <c r="AC6" s="422"/>
-      <c r="AR6" s="423" t="s">
+      <c r="AC6" s="446"/>
+      <c r="AR6" s="447" t="s">
         <v>17</v>
       </c>
-      <c r="AS6" s="424"/>
+      <c r="AS6" s="448"/>
     </row>
     <row r="7" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A8" s="428" t="s">
+      <c r="A8" s="429" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="430" t="s">
+      <c r="B8" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="432" t="s">
+      <c r="C8" s="433" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="434" t="s">
+      <c r="D8" s="435" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="434" t="s">
+      <c r="E8" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="434" t="s">
+      <c r="F8" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="436" t="s">
+      <c r="G8" s="437" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="364">
@@ -10162,7 +10194,7 @@
       <c r="I8" s="364">
         <v>2</v>
       </c>
-      <c r="J8" s="362">
+      <c r="J8" s="370">
         <v>3</v>
       </c>
       <c r="K8" s="364">
@@ -10183,7 +10215,7 @@
       <c r="P8" s="364">
         <v>9</v>
       </c>
-      <c r="Q8" s="362">
+      <c r="Q8" s="370">
         <v>10</v>
       </c>
       <c r="R8" s="364">
@@ -10204,7 +10236,7 @@
       <c r="W8" s="364">
         <v>16</v>
       </c>
-      <c r="X8" s="362">
+      <c r="X8" s="370">
         <v>17</v>
       </c>
       <c r="Y8" s="364">
@@ -10216,16 +10248,16 @@
       <c r="AA8" s="364">
         <v>20</v>
       </c>
-      <c r="AB8" s="376">
+      <c r="AB8" s="372">
         <v>21</v>
       </c>
-      <c r="AC8" s="376">
+      <c r="AC8" s="372">
         <v>22</v>
       </c>
-      <c r="AD8" s="376">
+      <c r="AD8" s="372">
         <v>23</v>
       </c>
-      <c r="AE8" s="374">
+      <c r="AE8" s="385">
         <v>24</v>
       </c>
       <c r="AF8" s="364">
@@ -10243,67 +10275,67 @@
       <c r="AJ8" s="364">
         <v>29</v>
       </c>
-      <c r="AK8" s="376">
+      <c r="AK8" s="372">
         <v>30</v>
       </c>
-      <c r="AL8" s="376">
+      <c r="AL8" s="372">
         <v>31</v>
       </c>
-      <c r="AM8" s="439">
+      <c r="AM8" s="412">
         <v>31</v>
       </c>
       <c r="AN8" s="47"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="441"/>
-      <c r="AQ8" s="442"/>
-      <c r="AR8" s="442"/>
-      <c r="AS8" s="443"/>
+      <c r="AP8" s="414"/>
+      <c r="AQ8" s="415"/>
+      <c r="AR8" s="415"/>
+      <c r="AS8" s="416"/>
     </row>
     <row r="9" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="429"/>
-      <c r="B9" s="431"/>
-      <c r="C9" s="433"/>
-      <c r="D9" s="435"/>
-      <c r="E9" s="435"/>
-      <c r="F9" s="435"/>
-      <c r="G9" s="437"/>
+      <c r="A9" s="430"/>
+      <c r="B9" s="432"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="438"/>
       <c r="H9" s="365"/>
       <c r="I9" s="365"/>
-      <c r="J9" s="363"/>
+      <c r="J9" s="371"/>
       <c r="K9" s="365"/>
       <c r="L9" s="365"/>
       <c r="M9" s="365"/>
       <c r="N9" s="365"/>
       <c r="O9" s="365"/>
       <c r="P9" s="365"/>
-      <c r="Q9" s="363"/>
+      <c r="Q9" s="371"/>
       <c r="R9" s="365"/>
       <c r="S9" s="365"/>
       <c r="T9" s="365"/>
       <c r="U9" s="365"/>
       <c r="V9" s="365"/>
       <c r="W9" s="365"/>
-      <c r="X9" s="363"/>
+      <c r="X9" s="371"/>
       <c r="Y9" s="365"/>
       <c r="Z9" s="365"/>
       <c r="AA9" s="365"/>
-      <c r="AB9" s="377"/>
-      <c r="AC9" s="438"/>
-      <c r="AD9" s="438"/>
-      <c r="AE9" s="375"/>
+      <c r="AB9" s="373"/>
+      <c r="AC9" s="428"/>
+      <c r="AD9" s="428"/>
+      <c r="AE9" s="386"/>
       <c r="AF9" s="365"/>
       <c r="AG9" s="365"/>
       <c r="AH9" s="365"/>
       <c r="AI9" s="365"/>
       <c r="AJ9" s="365"/>
-      <c r="AK9" s="377"/>
-      <c r="AL9" s="377"/>
-      <c r="AM9" s="440"/>
+      <c r="AK9" s="373"/>
+      <c r="AL9" s="373"/>
+      <c r="AM9" s="413"/>
       <c r="AN9" s="47"/>
-      <c r="AP9" s="444"/>
-      <c r="AQ9" s="445"/>
-      <c r="AR9" s="445"/>
-      <c r="AS9" s="446"/>
+      <c r="AP9" s="417"/>
+      <c r="AQ9" s="418"/>
+      <c r="AR9" s="418"/>
+      <c r="AS9" s="419"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
@@ -10966,25 +10998,25 @@
       <c r="AS19" s="57"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A20" s="447" t="s">
+      <c r="A20" s="420" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="449" t="s">
+      <c r="B20" s="422" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="451" t="s">
+      <c r="C20" s="424" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="453" t="s">
+      <c r="D20" s="426" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="453" t="s">
+      <c r="E20" s="426" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="453" t="s">
+      <c r="F20" s="426" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="453" t="s">
+      <c r="G20" s="426" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="26"/>
@@ -11026,13 +11058,13 @@
       <c r="AS20" s="7"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A21" s="448"/>
-      <c r="B21" s="450"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="454"/>
-      <c r="E21" s="454"/>
-      <c r="F21" s="454"/>
-      <c r="G21" s="454"/>
+      <c r="A21" s="421"/>
+      <c r="B21" s="423"/>
+      <c r="C21" s="425"/>
+      <c r="D21" s="427"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="427"/>
+      <c r="G21" s="427"/>
       <c r="H21" s="26"/>
       <c r="I21" s="120"/>
       <c r="J21" s="148"/>
@@ -11794,25 +11826,25 @@
       <c r="AS31" s="7"/>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A32" s="456" t="s">
+      <c r="A32" s="407" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="458" t="s">
+      <c r="B32" s="409" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="459" t="s">
+      <c r="C32" s="410" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="460" t="s">
+      <c r="D32" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="460" t="s">
+      <c r="E32" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="460" t="s">
+      <c r="F32" s="411" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="455" t="s">
+      <c r="G32" s="406" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="26"/>
@@ -11854,13 +11886,13 @@
       <c r="AS32" s="7"/>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A33" s="457"/>
-      <c r="B33" s="458"/>
-      <c r="C33" s="459"/>
-      <c r="D33" s="460"/>
-      <c r="E33" s="460"/>
-      <c r="F33" s="460"/>
-      <c r="G33" s="455"/>
+      <c r="A33" s="408"/>
+      <c r="B33" s="409"/>
+      <c r="C33" s="410"/>
+      <c r="D33" s="411"/>
+      <c r="E33" s="411"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="406"/>
       <c r="H33" s="26"/>
       <c r="I33" s="120"/>
       <c r="J33" s="148"/>
@@ -12567,24 +12599,48 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AP8:AS9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="V6:W6"/>
@@ -12601,48 +12657,24 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AP8:AS9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -12689,32 +12721,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="398" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="398"/>
+      <c r="I1" s="398"/>
+      <c r="J1" s="398"/>
     </row>
     <row r="2" spans="1:44" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
+      <c r="B2" s="399"/>
+      <c r="C2" s="399"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
+      <c r="F2" s="399"/>
+      <c r="G2" s="399"/>
+      <c r="H2" s="399"/>
+      <c r="I2" s="399"/>
+      <c r="J2" s="399"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -12746,20 +12778,20 @@
         <v>ZONE A</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="352" t="str">
+      <c r="X3" s="402" t="str">
         <f>A26</f>
         <v>ZONE B</v>
       </c>
-      <c r="Y3" s="353"/>
-      <c r="Z3" s="354" t="str">
+      <c r="Y3" s="403"/>
+      <c r="Z3" s="404" t="str">
         <f>A40</f>
         <v>ZONE C</v>
       </c>
-      <c r="AA3" s="355"/>
-      <c r="AB3" s="350" t="s">
+      <c r="AA3" s="405"/>
+      <c r="AB3" s="400" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="351"/>
+      <c r="AC3" s="401"/>
     </row>
     <row r="4" spans="1:44" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -12783,31 +12815,31 @@
       <c r="K4" s="107">
         <v>26</v>
       </c>
-      <c r="Q4" s="381" t="s">
+      <c r="Q4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
-      <c r="V4" s="403">
+      <c r="R4" s="349"/>
+      <c r="S4" s="349"/>
+      <c r="T4" s="349"/>
+      <c r="V4" s="355">
         <v>1292312</v>
       </c>
-      <c r="W4" s="404"/>
-      <c r="X4" s="404">
+      <c r="W4" s="356"/>
+      <c r="X4" s="356">
         <v>1136888</v>
       </c>
-      <c r="Y4" s="404"/>
-      <c r="Z4" s="404">
+      <c r="Y4" s="356"/>
+      <c r="Z4" s="356">
         <v>1145152</v>
       </c>
-      <c r="AA4" s="405"/>
-      <c r="AB4" s="348">
+      <c r="AA4" s="357"/>
+      <c r="AB4" s="352">
         <f>SUM(V4:AA4)</f>
         <v>3574352</v>
       </c>
-      <c r="AC4" s="349"/>
-      <c r="AF4" s="400"/>
-      <c r="AG4" s="401"/>
+      <c r="AC4" s="353"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="348"/>
       <c r="AH4" s="108"/>
       <c r="AK4" s="20"/>
       <c r="AL4" s="20"/>
@@ -12823,100 +12855,100 @@
       <c r="O5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="381" t="s">
+      <c r="Q5" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
-      <c r="V5" s="402">
+      <c r="R5" s="349"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
+      <c r="V5" s="350">
         <f>(F22)*$I$4*$K$4</f>
         <v>100747.11111111111</v>
       </c>
-      <c r="W5" s="372"/>
-      <c r="X5" s="402">
+      <c r="W5" s="351"/>
+      <c r="X5" s="350">
         <f>(F36)*$I$4*$K$4</f>
         <v>86723.000000000015</v>
       </c>
-      <c r="Y5" s="372"/>
-      <c r="Z5" s="402">
+      <c r="Y5" s="351"/>
+      <c r="Z5" s="350">
         <f>(F51)*$I$4*$K$4</f>
         <v>80524.888888888905</v>
       </c>
-      <c r="AA5" s="372"/>
-      <c r="AB5" s="348">
+      <c r="AA5" s="351"/>
+      <c r="AB5" s="352">
         <f t="shared" ref="AB5:AB6" si="0">SUM(R5:AA5)</f>
         <v>267995</v>
       </c>
-      <c r="AC5" s="349"/>
-      <c r="AF5" s="386"/>
-      <c r="AG5" s="386"/>
+      <c r="AC5" s="353"/>
+      <c r="AF5" s="354"/>
+      <c r="AG5" s="354"/>
       <c r="AP5" s="109">
         <v>1</v>
       </c>
-      <c r="AQ5" s="379" t="s">
+      <c r="AQ5" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="380"/>
+      <c r="AR5" s="375"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="381" t="s">
+      <c r="Q6" s="349" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="381"/>
-      <c r="S6" s="381"/>
-      <c r="T6" s="381"/>
-      <c r="V6" s="382">
+      <c r="R6" s="349"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="V6" s="376">
         <f>V5/$K$4</f>
         <v>3874.8888888888887</v>
       </c>
-      <c r="W6" s="383"/>
-      <c r="X6" s="382">
+      <c r="W6" s="377"/>
+      <c r="X6" s="376">
         <f t="shared" ref="X6" si="1">X5/$K$4</f>
         <v>3335.5000000000005</v>
       </c>
-      <c r="Y6" s="383"/>
-      <c r="Z6" s="382">
+      <c r="Y6" s="377"/>
+      <c r="Z6" s="376">
         <f t="shared" ref="Z6" si="2">Z5/$K$4</f>
         <v>3097.1111111111118</v>
       </c>
-      <c r="AA6" s="383"/>
-      <c r="AB6" s="384">
+      <c r="AA6" s="377"/>
+      <c r="AB6" s="378">
         <f t="shared" si="0"/>
         <v>10307.5</v>
       </c>
-      <c r="AC6" s="385"/>
-      <c r="AF6" s="386"/>
-      <c r="AG6" s="386"/>
-      <c r="AQ6" s="387" t="s">
+      <c r="AC6" s="379"/>
+      <c r="AF6" s="354"/>
+      <c r="AG6" s="354"/>
+      <c r="AQ6" s="380" t="s">
         <v>17</v>
       </c>
-      <c r="AR6" s="388"/>
+      <c r="AR6" s="381"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="358" t="s">
+      <c r="B8" s="394" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="360" t="s">
+      <c r="C8" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="366" t="s">
+      <c r="D8" s="387" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="366" t="s">
+      <c r="E8" s="387" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="366" t="s">
+      <c r="F8" s="387" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="398" t="s">
+      <c r="G8" s="368" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="364">
@@ -12925,7 +12957,7 @@
       <c r="I8" s="364">
         <v>2</v>
       </c>
-      <c r="J8" s="362">
+      <c r="J8" s="370">
         <v>3</v>
       </c>
       <c r="K8" s="364">
@@ -12946,7 +12978,7 @@
       <c r="P8" s="364">
         <v>9</v>
       </c>
-      <c r="Q8" s="362">
+      <c r="Q8" s="370">
         <v>10</v>
       </c>
       <c r="R8" s="364">
@@ -12967,7 +12999,7 @@
       <c r="W8" s="364">
         <v>16</v>
       </c>
-      <c r="X8" s="362">
+      <c r="X8" s="370">
         <v>17</v>
       </c>
       <c r="Y8" s="364">
@@ -12979,16 +13011,16 @@
       <c r="AA8" s="364">
         <v>20</v>
       </c>
-      <c r="AB8" s="376">
+      <c r="AB8" s="372">
         <v>21</v>
       </c>
-      <c r="AC8" s="376">
+      <c r="AC8" s="372">
         <v>22</v>
       </c>
-      <c r="AD8" s="376">
+      <c r="AD8" s="372">
         <v>23</v>
       </c>
-      <c r="AE8" s="374">
+      <c r="AE8" s="385">
         <v>24</v>
       </c>
       <c r="AF8" s="364">
@@ -13000,67 +13032,67 @@
       <c r="AH8" s="364">
         <v>27</v>
       </c>
-      <c r="AI8" s="395">
+      <c r="AI8" s="366">
         <v>28</v>
       </c>
-      <c r="AJ8" s="397">
+      <c r="AJ8" s="346">
         <v>29</v>
       </c>
-      <c r="AK8" s="397">
+      <c r="AK8" s="346">
         <v>30</v>
       </c>
-      <c r="AL8" s="397">
+      <c r="AL8" s="346">
         <v>31</v>
       </c>
       <c r="AN8" s="109"/>
-      <c r="AO8" s="389"/>
-      <c r="AP8" s="390"/>
-      <c r="AQ8" s="390"/>
-      <c r="AR8" s="391"/>
+      <c r="AO8" s="358"/>
+      <c r="AP8" s="359"/>
+      <c r="AQ8" s="359"/>
+      <c r="AR8" s="360"/>
     </row>
     <row r="9" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="357"/>
-      <c r="B9" s="359"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
-      <c r="G9" s="399"/>
+      <c r="A9" s="393"/>
+      <c r="B9" s="395"/>
+      <c r="C9" s="397"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="369"/>
       <c r="H9" s="365"/>
       <c r="I9" s="365"/>
-      <c r="J9" s="363"/>
+      <c r="J9" s="371"/>
       <c r="K9" s="365"/>
       <c r="L9" s="365"/>
       <c r="M9" s="365"/>
       <c r="N9" s="365"/>
       <c r="O9" s="365"/>
       <c r="P9" s="365"/>
-      <c r="Q9" s="363"/>
+      <c r="Q9" s="371"/>
       <c r="R9" s="365"/>
       <c r="S9" s="365"/>
       <c r="T9" s="365"/>
       <c r="U9" s="365"/>
       <c r="V9" s="365"/>
       <c r="W9" s="365"/>
-      <c r="X9" s="363"/>
+      <c r="X9" s="371"/>
       <c r="Y9" s="365"/>
       <c r="Z9" s="365"/>
       <c r="AA9" s="365"/>
-      <c r="AB9" s="377"/>
-      <c r="AC9" s="377"/>
-      <c r="AD9" s="377"/>
-      <c r="AE9" s="375"/>
+      <c r="AB9" s="373"/>
+      <c r="AC9" s="373"/>
+      <c r="AD9" s="373"/>
+      <c r="AE9" s="386"/>
       <c r="AF9" s="365"/>
       <c r="AG9" s="365"/>
       <c r="AH9" s="365"/>
-      <c r="AI9" s="396"/>
-      <c r="AJ9" s="397"/>
-      <c r="AK9" s="397"/>
-      <c r="AL9" s="397"/>
-      <c r="AO9" s="392"/>
-      <c r="AP9" s="393"/>
-      <c r="AQ9" s="393"/>
-      <c r="AR9" s="394"/>
+      <c r="AI9" s="367"/>
+      <c r="AJ9" s="346"/>
+      <c r="AK9" s="346"/>
+      <c r="AL9" s="346"/>
+      <c r="AO9" s="361"/>
+      <c r="AP9" s="362"/>
+      <c r="AQ9" s="362"/>
+      <c r="AR9" s="363"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
@@ -13099,10 +13131,10 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="25"/>
-      <c r="AO10" s="392"/>
-      <c r="AP10" s="393"/>
-      <c r="AQ10" s="393"/>
-      <c r="AR10" s="394"/>
+      <c r="AO10" s="361"/>
+      <c r="AP10" s="362"/>
+      <c r="AQ10" s="362"/>
+      <c r="AR10" s="363"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="72">
@@ -13953,25 +13985,25 @@
       <c r="AR23" s="79"/>
     </row>
     <row r="24" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="378" t="s">
+      <c r="A24" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="371" t="s">
+      <c r="B24" s="383" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="372" t="s">
+      <c r="C24" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="373" t="s">
+      <c r="D24" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="373" t="s">
+      <c r="E24" s="384" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="373" t="s">
+      <c r="F24" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="373" t="s">
+      <c r="G24" s="384" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="26"/>
@@ -14359,13 +14391,13 @@
       <c r="NZ24" s="47"/>
     </row>
     <row r="25" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="378"/>
-      <c r="B25" s="371"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="373"/>
+      <c r="A25" s="382"/>
+      <c r="B25" s="383"/>
+      <c r="C25" s="351"/>
+      <c r="D25" s="384"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="384"/>
+      <c r="G25" s="384"/>
       <c r="H25" s="26"/>
       <c r="I25" s="120"/>
       <c r="J25" s="148"/>
@@ -15872,25 +15904,25 @@
       <c r="AR37" s="77"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A38" s="369" t="s">
+      <c r="A38" s="390" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="371" t="s">
+      <c r="B38" s="383" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="372" t="s">
+      <c r="C38" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="373" t="s">
+      <c r="D38" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="373" t="s">
+      <c r="E38" s="384" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="373" t="s">
+      <c r="F38" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="389" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="26"/>
@@ -15930,13 +15962,13 @@
       <c r="AR38" s="77"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A39" s="370"/>
-      <c r="B39" s="371"/>
-      <c r="C39" s="372"/>
-      <c r="D39" s="373"/>
-      <c r="E39" s="373"/>
-      <c r="F39" s="373"/>
-      <c r="G39" s="368"/>
+      <c r="A39" s="391"/>
+      <c r="B39" s="383"/>
+      <c r="C39" s="351"/>
+      <c r="D39" s="384"/>
+      <c r="E39" s="384"/>
+      <c r="F39" s="384"/>
+      <c r="G39" s="389"/>
       <c r="H39" s="26"/>
       <c r="I39" s="120"/>
       <c r="J39" s="148"/>
@@ -16816,13 +16848,61 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="AK8:AK9"/>
     <mergeCell ref="AL8:AL9"/>
     <mergeCell ref="AO8:AR10"/>
@@ -16839,61 +16919,13 @@
     <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="AI8:AI9"/>
     <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.23622047244094499" bottom="0.23622047244094499" header="0.23622047244094499" footer="0.23622047244094499"/>
@@ -16916,7 +16948,7 @@
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="6.69140625" style="334" customWidth="1"/>
     <col min="3" max="4" width="6.69140625" style="332" customWidth="1"/>
@@ -16928,18 +16960,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="461" t="s">
+      <c r="A1" s="477" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
       <c r="K1" s="254"/>
       <c r="L1" s="254"/>
       <c r="M1" s="254"/>
@@ -16970,18 +17002,18 @@
       <c r="AL1" s="255"/>
     </row>
     <row r="2" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="463" t="s">
+      <c r="A2" s="479" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="464"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="464"/>
-      <c r="E2" s="464"/>
-      <c r="F2" s="464"/>
-      <c r="G2" s="464"/>
-      <c r="H2" s="464"/>
-      <c r="I2" s="464"/>
-      <c r="J2" s="464"/>
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="480"/>
+      <c r="F2" s="480"/>
+      <c r="G2" s="480"/>
+      <c r="H2" s="480"/>
+      <c r="I2" s="480"/>
+      <c r="J2" s="480"/>
       <c r="Q2" s="334" t="s">
         <v>15</v>
       </c>
@@ -16989,7 +17021,7 @@
       <c r="AK2" s="256"/>
       <c r="AL2" s="256"/>
     </row>
-    <row r="3" spans="1:38" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="257" t="s">
         <v>0</v>
       </c>
@@ -17016,20 +17048,20 @@
         <v>ZONE A</v>
       </c>
       <c r="W3" s="266"/>
-      <c r="X3" s="465" t="str">
+      <c r="X3" s="481" t="str">
         <f>A20</f>
         <v>ZONE B</v>
       </c>
-      <c r="Y3" s="466"/>
-      <c r="Z3" s="465" t="str">
+      <c r="Y3" s="482"/>
+      <c r="Z3" s="481" t="str">
         <f>A31</f>
         <v>ZONE C</v>
       </c>
-      <c r="AA3" s="467"/>
-      <c r="AB3" s="474" t="s">
+      <c r="AA3" s="483"/>
+      <c r="AB3" s="467" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="475"/>
+      <c r="AC3" s="468"/>
       <c r="AI3" s="256"/>
       <c r="AK3" s="256"/>
       <c r="AL3" s="256"/>
@@ -17054,95 +17086,95 @@
       <c r="K4" s="272">
         <v>26</v>
       </c>
-      <c r="Q4" s="472" t="s">
+      <c r="Q4" s="486" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="472"/>
-      <c r="S4" s="472"/>
-      <c r="T4" s="472"/>
-      <c r="V4" s="473">
+      <c r="R4" s="486"/>
+      <c r="S4" s="486"/>
+      <c r="T4" s="486"/>
+      <c r="V4" s="487">
         <v>1219214</v>
       </c>
-      <c r="W4" s="471"/>
-      <c r="X4" s="470">
+      <c r="W4" s="485"/>
+      <c r="X4" s="484">
         <v>1230505</v>
       </c>
-      <c r="Y4" s="471"/>
-      <c r="Z4" s="470">
+      <c r="Y4" s="485"/>
+      <c r="Z4" s="484">
         <v>1154826</v>
       </c>
-      <c r="AA4" s="471"/>
-      <c r="AB4" s="476">
+      <c r="AA4" s="485"/>
+      <c r="AB4" s="469">
         <f>SUM(V4:AA4)</f>
         <v>3604545</v>
       </c>
-      <c r="AC4" s="477"/>
-      <c r="AF4" s="478"/>
-      <c r="AG4" s="478"/>
-      <c r="AH4" s="478"/>
-      <c r="AI4" s="479"/>
+      <c r="AC4" s="470"/>
+      <c r="AF4" s="471"/>
+      <c r="AG4" s="471"/>
+      <c r="AH4" s="471"/>
+      <c r="AI4" s="472"/>
     </row>
     <row r="5" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="273"/>
       <c r="O5" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="472" t="s">
+      <c r="Q5" s="486" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="472"/>
-      <c r="S5" s="472"/>
-      <c r="T5" s="472"/>
-      <c r="V5" s="468">
+      <c r="R5" s="486"/>
+      <c r="S5" s="486"/>
+      <c r="T5" s="486"/>
+      <c r="V5" s="473">
         <f>V4*9%</f>
         <v>109729.26</v>
       </c>
-      <c r="W5" s="469"/>
-      <c r="X5" s="468">
+      <c r="W5" s="474"/>
+      <c r="X5" s="473">
         <f>X4*9%</f>
         <v>110745.45</v>
       </c>
-      <c r="Y5" s="469"/>
-      <c r="Z5" s="468">
+      <c r="Y5" s="474"/>
+      <c r="Z5" s="473">
         <f>Z4*9%</f>
         <v>103934.34</v>
       </c>
-      <c r="AA5" s="469"/>
-      <c r="AB5" s="468">
+      <c r="AA5" s="474"/>
+      <c r="AB5" s="473">
         <f>AB4*9%</f>
         <v>324409.05</v>
       </c>
-      <c r="AC5" s="469"/>
-      <c r="AF5" s="480"/>
-      <c r="AG5" s="480"/>
-      <c r="AH5" s="480"/>
-      <c r="AI5" s="481"/>
+      <c r="AC5" s="474"/>
+      <c r="AF5" s="475"/>
+      <c r="AG5" s="475"/>
+      <c r="AH5" s="475"/>
+      <c r="AI5" s="476"/>
     </row>
     <row r="6" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="267"/>
       <c r="Q6" s="334" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="482">
+      <c r="V6" s="461">
         <f>V5/$K$4</f>
         <v>4220.3561538461536</v>
       </c>
-      <c r="W6" s="483"/>
-      <c r="X6" s="482">
+      <c r="W6" s="462"/>
+      <c r="X6" s="461">
         <f t="shared" ref="X6" si="0">X5/$K$4</f>
         <v>4259.4403846153846</v>
       </c>
-      <c r="Y6" s="483"/>
-      <c r="Z6" s="482">
+      <c r="Y6" s="462"/>
+      <c r="Z6" s="461">
         <f t="shared" ref="Z6" si="1">Z5/$K$4</f>
         <v>3997.4746153846154</v>
       </c>
-      <c r="AA6" s="483"/>
-      <c r="AB6" s="482">
+      <c r="AA6" s="462"/>
+      <c r="AB6" s="461">
         <f>SUM(V6:AA6)</f>
         <v>12477.271153846154</v>
       </c>
-      <c r="AC6" s="483"/>
+      <c r="AC6" s="462"/>
       <c r="AF6" s="332"/>
       <c r="AG6" s="332"/>
       <c r="AH6" s="332"/>
@@ -17151,7 +17183,7 @@
       <c r="AK6" s="333"/>
       <c r="AL6" s="333"/>
     </row>
-    <row r="7" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="274" t="s">
         <v>26</v>
       </c>
@@ -17309,7 +17341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="282">
         <v>36</v>
       </c>
@@ -17373,7 +17405,7 @@
       <c r="AK9" s="202"/>
       <c r="AL9" s="202"/>
     </row>
-    <row r="10" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="282">
         <v>32</v>
       </c>
@@ -17437,7 +17469,7 @@
       <c r="AK10" s="288"/>
       <c r="AL10" s="288"/>
     </row>
-    <row r="11" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="282">
         <v>33</v>
       </c>
@@ -17501,7 +17533,7 @@
       <c r="AK11" s="299"/>
       <c r="AL11" s="299"/>
     </row>
-    <row r="12" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="282">
         <v>40</v>
       </c>
@@ -17565,7 +17597,7 @@
       <c r="AK12" s="203"/>
       <c r="AL12" s="203"/>
     </row>
-    <row r="13" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="282">
         <v>41</v>
       </c>
@@ -17629,7 +17661,7 @@
       <c r="AK13" s="288"/>
       <c r="AL13" s="288"/>
     </row>
-    <row r="14" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="282">
         <v>38</v>
       </c>
@@ -17701,7 +17733,7 @@
       </c>
       <c r="AL14" s="288"/>
     </row>
-    <row r="15" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="282">
         <v>39</v>
       </c>
@@ -17765,7 +17797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="282">
         <v>34</v>
       </c>
@@ -17827,7 +17859,7 @@
       <c r="AK16" s="286"/>
       <c r="AL16" s="286"/>
     </row>
-    <row r="17" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="282">
         <v>35</v>
       </c>
@@ -17991,7 +18023,7 @@
       <c r="AK19" s="290"/>
       <c r="AL19" s="290"/>
     </row>
-    <row r="20" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="297" t="s">
         <v>32</v>
       </c>
@@ -18034,25 +18066,25 @@
       <c r="AL20" s="290"/>
     </row>
     <row r="21" spans="1:376" s="294" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="484" t="s">
+      <c r="A21" s="463" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="485" t="s">
+      <c r="B21" s="464" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="486" t="s">
+      <c r="C21" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="487" t="s">
+      <c r="D21" s="466" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="487" t="s">
+      <c r="E21" s="466" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="487" t="s">
+      <c r="F21" s="466" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="487" t="s">
+      <c r="G21" s="466" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="202"/>
@@ -18426,13 +18458,13 @@
       <c r="NL21" s="334"/>
     </row>
     <row r="22" spans="1:376" s="294" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="484"/>
-      <c r="B22" s="485"/>
-      <c r="C22" s="486"/>
-      <c r="D22" s="487"/>
-      <c r="E22" s="487"/>
-      <c r="F22" s="487"/>
-      <c r="G22" s="487"/>
+      <c r="A22" s="463"/>
+      <c r="B22" s="464"/>
+      <c r="C22" s="465"/>
+      <c r="D22" s="466"/>
+      <c r="E22" s="466"/>
+      <c r="F22" s="466"/>
+      <c r="G22" s="466"/>
       <c r="H22" s="202"/>
       <c r="I22" s="322"/>
       <c r="J22" s="202"/>
@@ -18803,7 +18835,7 @@
       <c r="NK22" s="334"/>
       <c r="NL22" s="334"/>
     </row>
-    <row r="23" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="282">
         <v>37</v>
       </c>
@@ -18873,7 +18905,7 @@
       <c r="AK23" s="299"/>
       <c r="AL23" s="299"/>
     </row>
-    <row r="24" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="282">
         <v>25</v>
       </c>
@@ -18949,7 +18981,7 @@
       <c r="AK24" s="290"/>
       <c r="AL24" s="290"/>
     </row>
-    <row r="25" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="282">
         <v>27</v>
       </c>
@@ -19023,7 +19055,7 @@
       </c>
       <c r="AL25" s="203"/>
     </row>
-    <row r="26" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="282">
         <v>22</v>
       </c>
@@ -19089,7 +19121,7 @@
       </c>
       <c r="AL26" s="331"/>
     </row>
-    <row r="27" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="282">
         <v>28</v>
       </c>
@@ -19157,7 +19189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="282">
         <v>29</v>
       </c>
@@ -19316,7 +19348,7 @@
       <c r="AK30" s="290"/>
       <c r="AL30" s="290"/>
     </row>
-    <row r="31" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="297" t="s">
         <v>27</v>
       </c>
@@ -19358,7 +19390,7 @@
       <c r="AK31" s="290"/>
       <c r="AL31" s="290"/>
     </row>
-    <row r="32" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:376" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="282">
         <v>19</v>
       </c>
@@ -19422,7 +19454,7 @@
       <c r="AK32" s="203"/>
       <c r="AL32" s="203"/>
     </row>
-    <row r="33" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="282">
         <v>20</v>
       </c>
@@ -19486,7 +19518,7 @@
       <c r="AK33" s="299"/>
       <c r="AL33" s="299"/>
     </row>
-    <row r="34" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="282">
         <v>21</v>
       </c>
@@ -19550,7 +19582,7 @@
       <c r="AK34" s="201"/>
       <c r="AL34" s="201"/>
     </row>
-    <row r="35" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="282">
         <v>23</v>
       </c>
@@ -19622,7 +19654,7 @@
       </c>
       <c r="AL35" s="299"/>
     </row>
-    <row r="36" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="282">
         <v>24</v>
       </c>
@@ -19686,7 +19718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="282">
         <v>26</v>
       </c>
@@ -19853,22 +19885,6 @@
     <sortCondition descending="1" ref="G32:G37"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AF5:AI5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="X3:Y3"/>
@@ -19881,6 +19897,22 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -19914,18 +19946,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
-      <c r="F1" s="499"/>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="185"/>
       <c r="L1" s="185"/>
       <c r="M1" s="185"/>
@@ -19956,16 +19988,16 @@
       <c r="AL1" s="185"/>
     </row>
     <row r="2" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="500"/>
-      <c r="B2" s="501"/>
-      <c r="C2" s="501"/>
-      <c r="D2" s="501"/>
-      <c r="E2" s="501"/>
-      <c r="F2" s="501"/>
-      <c r="G2" s="501"/>
-      <c r="H2" s="501"/>
-      <c r="I2" s="501"/>
-      <c r="J2" s="501"/>
+      <c r="A2" s="514"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
+      <c r="D2" s="515"/>
+      <c r="E2" s="515"/>
+      <c r="F2" s="515"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -19997,20 +20029,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="205"/>
-      <c r="X3" s="516" t="str">
+      <c r="X3" s="505" t="str">
         <f>A19</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="518"/>
-      <c r="Z3" s="516" t="str">
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="505" t="str">
         <f>A31</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="517"/>
-      <c r="AB3" s="512" t="s">
+      <c r="AA3" s="506"/>
+      <c r="AB3" s="499" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="513"/>
+      <c r="AC3" s="500"/>
     </row>
     <row r="4" spans="1:38" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="184" t="s">
@@ -20034,29 +20066,29 @@
       <c r="K4" s="191">
         <v>26</v>
       </c>
-      <c r="Q4" s="381" t="s">
+      <c r="Q4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
-      <c r="V4" s="494">
+      <c r="R4" s="349"/>
+      <c r="S4" s="349"/>
+      <c r="T4" s="349"/>
+      <c r="V4" s="508">
         <v>1203650</v>
       </c>
-      <c r="W4" s="495"/>
-      <c r="X4" s="494">
+      <c r="W4" s="509"/>
+      <c r="X4" s="508">
         <v>1095926</v>
       </c>
-      <c r="Y4" s="495"/>
-      <c r="Z4" s="494">
+      <c r="Y4" s="509"/>
+      <c r="Z4" s="508">
         <v>1232697</v>
       </c>
-      <c r="AA4" s="495"/>
-      <c r="AB4" s="514">
+      <c r="AA4" s="509"/>
+      <c r="AB4" s="501">
         <f>SUM(V4:AA4)</f>
         <v>3532273</v>
       </c>
-      <c r="AC4" s="515"/>
+      <c r="AC4" s="502"/>
       <c r="AH4" s="108"/>
       <c r="AI4" s="108"/>
       <c r="AK4" s="108"/>
@@ -20069,32 +20101,32 @@
       <c r="O5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="381" t="s">
+      <c r="Q5" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
-      <c r="V5" s="496">
+      <c r="R5" s="349"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
+      <c r="V5" s="503">
         <f>V4*9%</f>
         <v>108328.5</v>
       </c>
-      <c r="W5" s="497"/>
-      <c r="X5" s="496">
+      <c r="W5" s="504"/>
+      <c r="X5" s="503">
         <f>X4*9%</f>
         <v>98633.34</v>
       </c>
-      <c r="Y5" s="497"/>
-      <c r="Z5" s="496">
+      <c r="Y5" s="504"/>
+      <c r="Z5" s="503">
         <f>Z4*9%</f>
         <v>110942.73</v>
       </c>
-      <c r="AA5" s="497"/>
-      <c r="AB5" s="496">
+      <c r="AA5" s="504"/>
+      <c r="AB5" s="503">
         <f>AB4*9%</f>
         <v>317904.57</v>
       </c>
-      <c r="AC5" s="497"/>
+      <c r="AC5" s="504"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="184" t="s">
@@ -20102,192 +20134,192 @@
       </c>
       <c r="E6" s="193"/>
       <c r="F6" s="199"/>
-      <c r="Q6" s="381" t="s">
+      <c r="Q6" s="349" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="381"/>
-      <c r="S6" s="381"/>
-      <c r="T6" s="381"/>
-      <c r="V6" s="496">
+      <c r="R6" s="349"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="V6" s="503">
         <f>V5/$K$4</f>
         <v>4166.4807692307695</v>
       </c>
-      <c r="W6" s="497"/>
-      <c r="X6" s="496">
+      <c r="W6" s="504"/>
+      <c r="X6" s="503">
         <f>X5/$K$4</f>
         <v>3793.5899999999997</v>
       </c>
-      <c r="Y6" s="497"/>
-      <c r="Z6" s="496">
+      <c r="Y6" s="504"/>
+      <c r="Z6" s="503">
         <f>Z5/$K$4</f>
         <v>4267.0280769230767</v>
       </c>
-      <c r="AA6" s="497"/>
-      <c r="AB6" s="519">
+      <c r="AA6" s="504"/>
+      <c r="AB6" s="510">
         <f t="shared" ref="AB6" si="0">SUM(V6:AA6)</f>
         <v>12227.098846153847</v>
       </c>
-      <c r="AC6" s="520"/>
+      <c r="AC6" s="511"/>
       <c r="AE6" s="206"/>
     </row>
     <row r="7" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="184"/>
     </row>
     <row r="8" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="504" t="s">
+      <c r="A8" s="518" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="506" t="s">
+      <c r="B8" s="520" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="508" t="s">
+      <c r="C8" s="522" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="510" t="s">
+      <c r="D8" s="524" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="510" t="s">
+      <c r="E8" s="524" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="510" t="s">
+      <c r="F8" s="524" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="488" t="s">
+      <c r="G8" s="526" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="502">
+      <c r="H8" s="516">
         <v>1</v>
       </c>
-      <c r="I8" s="490">
+      <c r="I8" s="488">
         <v>2</v>
       </c>
-      <c r="J8" s="490">
+      <c r="J8" s="488">
         <v>3</v>
       </c>
-      <c r="K8" s="490">
+      <c r="K8" s="488">
         <v>4</v>
       </c>
-      <c r="L8" s="490">
+      <c r="L8" s="488">
         <v>5</v>
       </c>
-      <c r="M8" s="490">
+      <c r="M8" s="488">
         <v>6</v>
       </c>
       <c r="N8" s="492">
         <v>7</v>
       </c>
-      <c r="O8" s="490">
+      <c r="O8" s="488">
         <v>8</v>
       </c>
       <c r="P8" s="492">
         <v>9</v>
       </c>
-      <c r="Q8" s="490">
+      <c r="Q8" s="488">
         <v>10</v>
       </c>
-      <c r="R8" s="490">
+      <c r="R8" s="488">
         <v>11</v>
       </c>
-      <c r="S8" s="490">
+      <c r="S8" s="488">
         <v>12</v>
       </c>
-      <c r="T8" s="490">
+      <c r="T8" s="488">
         <v>13</v>
       </c>
       <c r="U8" s="492">
         <v>14</v>
       </c>
-      <c r="V8" s="490">
+      <c r="V8" s="488">
         <v>15</v>
       </c>
-      <c r="W8" s="490">
+      <c r="W8" s="488">
         <v>16</v>
       </c>
-      <c r="X8" s="490">
+      <c r="X8" s="488">
         <v>17</v>
       </c>
-      <c r="Y8" s="490">
+      <c r="Y8" s="488">
         <v>18</v>
       </c>
-      <c r="Z8" s="490">
+      <c r="Z8" s="488">
         <v>19</v>
       </c>
-      <c r="AA8" s="490">
+      <c r="AA8" s="488">
         <v>20</v>
       </c>
       <c r="AB8" s="492">
         <v>21</v>
       </c>
-      <c r="AC8" s="490">
+      <c r="AC8" s="488">
         <v>22</v>
       </c>
-      <c r="AD8" s="490">
+      <c r="AD8" s="488">
         <v>23</v>
       </c>
-      <c r="AE8" s="490">
+      <c r="AE8" s="488">
         <v>24</v>
       </c>
-      <c r="AF8" s="490">
+      <c r="AF8" s="488">
         <v>25</v>
       </c>
-      <c r="AG8" s="490">
+      <c r="AG8" s="488">
         <v>26</v>
       </c>
-      <c r="AH8" s="490">
+      <c r="AH8" s="488">
         <v>27</v>
       </c>
       <c r="AI8" s="492">
         <v>28</v>
       </c>
-      <c r="AJ8" s="490">
+      <c r="AJ8" s="488">
         <v>29</v>
       </c>
-      <c r="AK8" s="490">
+      <c r="AK8" s="488">
         <v>30</v>
       </c>
-      <c r="AL8" s="490">
+      <c r="AL8" s="488">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="505"/>
-      <c r="B9" s="507"/>
-      <c r="C9" s="509"/>
-      <c r="D9" s="511"/>
-      <c r="E9" s="511"/>
-      <c r="F9" s="511"/>
-      <c r="G9" s="489"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="491"/>
-      <c r="J9" s="491"/>
-      <c r="K9" s="491"/>
-      <c r="L9" s="491"/>
-      <c r="M9" s="491"/>
+      <c r="A9" s="519"/>
+      <c r="B9" s="521"/>
+      <c r="C9" s="523"/>
+      <c r="D9" s="525"/>
+      <c r="E9" s="525"/>
+      <c r="F9" s="525"/>
+      <c r="G9" s="527"/>
+      <c r="H9" s="517"/>
+      <c r="I9" s="489"/>
+      <c r="J9" s="489"/>
+      <c r="K9" s="489"/>
+      <c r="L9" s="489"/>
+      <c r="M9" s="489"/>
       <c r="N9" s="493"/>
-      <c r="O9" s="491"/>
+      <c r="O9" s="489"/>
       <c r="P9" s="493"/>
-      <c r="Q9" s="491"/>
-      <c r="R9" s="491"/>
-      <c r="S9" s="491"/>
-      <c r="T9" s="491"/>
+      <c r="Q9" s="489"/>
+      <c r="R9" s="489"/>
+      <c r="S9" s="489"/>
+      <c r="T9" s="489"/>
       <c r="U9" s="493"/>
-      <c r="V9" s="491"/>
-      <c r="W9" s="491"/>
-      <c r="X9" s="491"/>
-      <c r="Y9" s="491"/>
-      <c r="Z9" s="491"/>
-      <c r="AA9" s="491"/>
+      <c r="V9" s="489"/>
+      <c r="W9" s="489"/>
+      <c r="X9" s="489"/>
+      <c r="Y9" s="489"/>
+      <c r="Z9" s="489"/>
+      <c r="AA9" s="489"/>
       <c r="AB9" s="493"/>
-      <c r="AC9" s="491"/>
-      <c r="AD9" s="491"/>
-      <c r="AE9" s="491"/>
-      <c r="AF9" s="491"/>
-      <c r="AG9" s="491"/>
-      <c r="AH9" s="491"/>
+      <c r="AC9" s="489"/>
+      <c r="AD9" s="489"/>
+      <c r="AE9" s="489"/>
+      <c r="AF9" s="489"/>
+      <c r="AG9" s="489"/>
+      <c r="AH9" s="489"/>
       <c r="AI9" s="493"/>
-      <c r="AJ9" s="491"/>
-      <c r="AK9" s="491"/>
-      <c r="AL9" s="491"/>
+      <c r="AJ9" s="489"/>
+      <c r="AK9" s="489"/>
+      <c r="AL9" s="489"/>
     </row>
     <row r="10" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="213" t="s">
@@ -20878,98 +20910,98 @@
       <c r="AL19" s="228"/>
     </row>
     <row r="20" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="521" t="s">
+      <c r="A20" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="522" t="s">
+      <c r="B20" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="523" t="s">
+      <c r="C20" s="498" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="524" t="s">
+      <c r="D20" s="494" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="524" t="s">
+      <c r="E20" s="494" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="524" t="s">
+      <c r="F20" s="494" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="524" t="s">
+      <c r="G20" s="494" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="525"/>
-      <c r="I20" s="526"/>
-      <c r="J20" s="525"/>
-      <c r="K20" s="525"/>
-      <c r="L20" s="525"/>
-      <c r="M20" s="525"/>
-      <c r="N20" s="527"/>
-      <c r="O20" s="525"/>
-      <c r="P20" s="527"/>
-      <c r="Q20" s="525"/>
-      <c r="R20" s="525"/>
-      <c r="S20" s="525"/>
-      <c r="T20" s="525"/>
-      <c r="U20" s="527"/>
-      <c r="V20" s="525"/>
-      <c r="W20" s="525"/>
-      <c r="X20" s="525"/>
-      <c r="Y20" s="525"/>
-      <c r="Z20" s="525"/>
-      <c r="AA20" s="525"/>
-      <c r="AB20" s="527"/>
-      <c r="AC20" s="525"/>
-      <c r="AD20" s="525"/>
-      <c r="AE20" s="525"/>
-      <c r="AF20" s="525"/>
-      <c r="AG20" s="525"/>
-      <c r="AH20" s="525"/>
-      <c r="AI20" s="527"/>
-      <c r="AJ20" s="525"/>
-      <c r="AK20" s="525"/>
-      <c r="AL20" s="525"/>
+      <c r="H20" s="490"/>
+      <c r="I20" s="495"/>
+      <c r="J20" s="490"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="490"/>
+      <c r="N20" s="491"/>
+      <c r="O20" s="490"/>
+      <c r="P20" s="491"/>
+      <c r="Q20" s="490"/>
+      <c r="R20" s="490"/>
+      <c r="S20" s="490"/>
+      <c r="T20" s="490"/>
+      <c r="U20" s="491"/>
+      <c r="V20" s="490"/>
+      <c r="W20" s="490"/>
+      <c r="X20" s="490"/>
+      <c r="Y20" s="490"/>
+      <c r="Z20" s="490"/>
+      <c r="AA20" s="490"/>
+      <c r="AB20" s="491"/>
+      <c r="AC20" s="490"/>
+      <c r="AD20" s="490"/>
+      <c r="AE20" s="490"/>
+      <c r="AF20" s="490"/>
+      <c r="AG20" s="490"/>
+      <c r="AH20" s="490"/>
+      <c r="AI20" s="491"/>
+      <c r="AJ20" s="490"/>
+      <c r="AK20" s="490"/>
+      <c r="AL20" s="490"/>
     </row>
     <row r="21" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="521"/>
-      <c r="B21" s="522"/>
-      <c r="C21" s="523"/>
-      <c r="D21" s="524"/>
-      <c r="E21" s="524"/>
-      <c r="F21" s="524"/>
-      <c r="G21" s="524"/>
-      <c r="H21" s="525"/>
-      <c r="I21" s="526"/>
-      <c r="J21" s="525"/>
-      <c r="K21" s="525"/>
-      <c r="L21" s="525"/>
-      <c r="M21" s="525"/>
-      <c r="N21" s="527"/>
-      <c r="O21" s="525"/>
-      <c r="P21" s="527"/>
-      <c r="Q21" s="525"/>
-      <c r="R21" s="525"/>
-      <c r="S21" s="525"/>
-      <c r="T21" s="525"/>
-      <c r="U21" s="527"/>
-      <c r="V21" s="525"/>
-      <c r="W21" s="525"/>
-      <c r="X21" s="525"/>
-      <c r="Y21" s="525"/>
-      <c r="Z21" s="525"/>
-      <c r="AA21" s="525"/>
-      <c r="AB21" s="527"/>
-      <c r="AC21" s="525"/>
-      <c r="AD21" s="525"/>
-      <c r="AE21" s="525"/>
-      <c r="AF21" s="525"/>
-      <c r="AG21" s="525"/>
-      <c r="AH21" s="525"/>
-      <c r="AI21" s="527"/>
-      <c r="AJ21" s="525"/>
-      <c r="AK21" s="525"/>
-      <c r="AL21" s="525"/>
+      <c r="A21" s="496"/>
+      <c r="B21" s="497"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="494"/>
+      <c r="E21" s="494"/>
+      <c r="F21" s="494"/>
+      <c r="G21" s="494"/>
+      <c r="H21" s="490"/>
+      <c r="I21" s="495"/>
+      <c r="J21" s="490"/>
+      <c r="K21" s="490"/>
+      <c r="L21" s="490"/>
+      <c r="M21" s="490"/>
+      <c r="N21" s="491"/>
+      <c r="O21" s="490"/>
+      <c r="P21" s="491"/>
+      <c r="Q21" s="490"/>
+      <c r="R21" s="490"/>
+      <c r="S21" s="490"/>
+      <c r="T21" s="490"/>
+      <c r="U21" s="491"/>
+      <c r="V21" s="490"/>
+      <c r="W21" s="490"/>
+      <c r="X21" s="490"/>
+      <c r="Y21" s="490"/>
+      <c r="Z21" s="490"/>
+      <c r="AA21" s="490"/>
+      <c r="AB21" s="491"/>
+      <c r="AC21" s="490"/>
+      <c r="AD21" s="490"/>
+      <c r="AE21" s="490"/>
+      <c r="AF21" s="490"/>
+      <c r="AG21" s="490"/>
+      <c r="AH21" s="490"/>
+      <c r="AI21" s="491"/>
+      <c r="AJ21" s="490"/>
+      <c r="AK21" s="490"/>
+      <c r="AL21" s="490"/>
     </row>
     <row r="22" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="72">
@@ -22169,66 +22201,26 @@
     <sortCondition descending="1" ref="G33:G38"/>
   </sortState>
   <mergeCells count="96">
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="S8:S9"/>
@@ -22245,26 +22237,66 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AG8:AG9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -22281,25 +22313,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BFA9D4-6734-4B39-9B51-9BA39B175ACE}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y16" workbookViewId="0">
-      <selection sqref="A1:AL40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:AL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:38" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
-      <c r="F1" s="499"/>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="185"/>
       <c r="L1" s="185"/>
       <c r="M1" s="185"/>
@@ -22330,16 +22362,16 @@
       <c r="AL1" s="185"/>
     </row>
     <row r="2" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="500"/>
-      <c r="B2" s="501"/>
-      <c r="C2" s="501"/>
-      <c r="D2" s="501"/>
-      <c r="E2" s="501"/>
-      <c r="F2" s="501"/>
-      <c r="G2" s="501"/>
-      <c r="H2" s="501"/>
-      <c r="I2" s="501"/>
-      <c r="J2" s="501"/>
+      <c r="A2" s="514"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
+      <c r="D2" s="515"/>
+      <c r="E2" s="515"/>
+      <c r="F2" s="515"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
@@ -22412,20 +22444,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="205"/>
-      <c r="X3" s="516" t="str">
+      <c r="X3" s="505" t="str">
         <f>A19</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="518"/>
-      <c r="Z3" s="516" t="str">
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="505" t="str">
         <f>A31</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="517"/>
-      <c r="AB3" s="512" t="s">
+      <c r="AA3" s="506"/>
+      <c r="AB3" s="499" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="513"/>
+      <c r="AC3" s="500"/>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47"/>
       <c r="AF3" s="47"/>
@@ -22467,30 +22499,30 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
-      <c r="Q4" s="381" t="s">
+      <c r="Q4" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
+      <c r="R4" s="349"/>
+      <c r="S4" s="349"/>
+      <c r="T4" s="349"/>
       <c r="U4" s="47"/>
-      <c r="V4" s="494">
+      <c r="V4" s="508">
         <v>1203650</v>
       </c>
-      <c r="W4" s="495"/>
-      <c r="X4" s="494">
+      <c r="W4" s="509"/>
+      <c r="X4" s="508">
         <v>1095926</v>
       </c>
-      <c r="Y4" s="495"/>
-      <c r="Z4" s="494">
+      <c r="Y4" s="509"/>
+      <c r="Z4" s="508">
         <v>1232697</v>
       </c>
-      <c r="AA4" s="495"/>
-      <c r="AB4" s="514">
+      <c r="AA4" s="509"/>
+      <c r="AB4" s="501">
         <f>SUM(V4:AA4)</f>
         <v>3532273</v>
       </c>
-      <c r="AC4" s="515"/>
+      <c r="AC4" s="502"/>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
       <c r="AF4" s="47"/>
@@ -22522,33 +22554,33 @@
         <v>2</v>
       </c>
       <c r="P5" s="47"/>
-      <c r="Q5" s="381" t="s">
+      <c r="Q5" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
+      <c r="R5" s="349"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
       <c r="U5" s="47"/>
-      <c r="V5" s="496">
+      <c r="V5" s="503">
         <f>V4*9%</f>
         <v>108328.5</v>
       </c>
-      <c r="W5" s="497"/>
-      <c r="X5" s="496">
+      <c r="W5" s="504"/>
+      <c r="X5" s="503">
         <f>X4*9%</f>
         <v>98633.34</v>
       </c>
-      <c r="Y5" s="497"/>
-      <c r="Z5" s="496">
+      <c r="Y5" s="504"/>
+      <c r="Z5" s="503">
         <f>Z4*9%</f>
         <v>110942.73</v>
       </c>
-      <c r="AA5" s="497"/>
-      <c r="AB5" s="496">
+      <c r="AA5" s="504"/>
+      <c r="AB5" s="503">
         <f>AB4*9%</f>
         <v>317904.57</v>
       </c>
-      <c r="AC5" s="497"/>
+      <c r="AC5" s="504"/>
       <c r="AD5" s="47"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="47"/>
@@ -22578,33 +22610,33 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
-      <c r="Q6" s="381" t="s">
+      <c r="Q6" s="349" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="381"/>
-      <c r="S6" s="381"/>
-      <c r="T6" s="381"/>
+      <c r="R6" s="349"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="496">
+      <c r="V6" s="503">
         <f>V5/$K$4</f>
         <v>4166.4807692307695</v>
       </c>
-      <c r="W6" s="497"/>
-      <c r="X6" s="496">
+      <c r="W6" s="504"/>
+      <c r="X6" s="503">
         <f>X5/$K$4</f>
         <v>3793.5899999999997</v>
       </c>
-      <c r="Y6" s="497"/>
-      <c r="Z6" s="496">
+      <c r="Y6" s="504"/>
+      <c r="Z6" s="503">
         <f>Z5/$K$4</f>
         <v>4267.0280769230767</v>
       </c>
-      <c r="AA6" s="497"/>
-      <c r="AB6" s="519">
-        <f t="shared" ref="AB6" si="0">SUM(V6:AA6)</f>
+      <c r="AA6" s="504"/>
+      <c r="AB6" s="510">
+        <f>SUM(V6:AA6)</f>
         <v>12227.098846153847</v>
       </c>
-      <c r="AC6" s="520"/>
+      <c r="AC6" s="511"/>
       <c r="AD6" s="47"/>
       <c r="AE6" s="206"/>
       <c r="AF6" s="47"/>
@@ -22656,160 +22688,160 @@
       <c r="AL7" s="47"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A8" s="504" t="s">
+      <c r="A8" s="518" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="506" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="508" t="s">
+      <c r="B8" s="520" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="522" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="510" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="510" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="510" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="488" t="s">
+      <c r="D8" s="524" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="524" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="524" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="526" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="502">
+      <c r="H8" s="516">
         <v>1</v>
       </c>
-      <c r="I8" s="490">
+      <c r="I8" s="488">
         <v>2</v>
       </c>
-      <c r="J8" s="490">
+      <c r="J8" s="488">
         <v>3</v>
       </c>
-      <c r="K8" s="490">
+      <c r="K8" s="488">
         <v>4</v>
       </c>
-      <c r="L8" s="490">
+      <c r="L8" s="488">
         <v>5</v>
       </c>
-      <c r="M8" s="490">
+      <c r="M8" s="488">
         <v>6</v>
       </c>
       <c r="N8" s="492">
         <v>7</v>
       </c>
-      <c r="O8" s="490">
+      <c r="O8" s="488">
         <v>8</v>
       </c>
       <c r="P8" s="492">
         <v>9</v>
       </c>
-      <c r="Q8" s="490">
+      <c r="Q8" s="488">
         <v>10</v>
       </c>
-      <c r="R8" s="490">
+      <c r="R8" s="488">
         <v>11</v>
       </c>
-      <c r="S8" s="490">
+      <c r="S8" s="488">
         <v>12</v>
       </c>
-      <c r="T8" s="490">
+      <c r="T8" s="488">
         <v>13</v>
       </c>
       <c r="U8" s="492">
         <v>14</v>
       </c>
-      <c r="V8" s="490">
+      <c r="V8" s="488">
         <v>15</v>
       </c>
-      <c r="W8" s="490">
+      <c r="W8" s="488">
         <v>16</v>
       </c>
-      <c r="X8" s="490">
+      <c r="X8" s="488">
         <v>17</v>
       </c>
-      <c r="Y8" s="490">
+      <c r="Y8" s="488">
         <v>18</v>
       </c>
-      <c r="Z8" s="490">
+      <c r="Z8" s="488">
         <v>19</v>
       </c>
-      <c r="AA8" s="490">
+      <c r="AA8" s="488">
         <v>20</v>
       </c>
       <c r="AB8" s="492">
         <v>21</v>
       </c>
-      <c r="AC8" s="490">
+      <c r="AC8" s="488">
         <v>22</v>
       </c>
-      <c r="AD8" s="490">
+      <c r="AD8" s="488">
         <v>23</v>
       </c>
-      <c r="AE8" s="490">
+      <c r="AE8" s="488">
         <v>24</v>
       </c>
-      <c r="AF8" s="490">
+      <c r="AF8" s="488">
         <v>25</v>
       </c>
-      <c r="AG8" s="490">
+      <c r="AG8" s="488">
         <v>26</v>
       </c>
-      <c r="AH8" s="490">
+      <c r="AH8" s="488">
         <v>27</v>
       </c>
       <c r="AI8" s="492">
         <v>28</v>
       </c>
-      <c r="AJ8" s="490">
+      <c r="AJ8" s="488">
         <v>29</v>
       </c>
-      <c r="AK8" s="490">
+      <c r="AK8" s="488">
         <v>30</v>
       </c>
-      <c r="AL8" s="490">
+      <c r="AL8" s="488">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="505"/>
-      <c r="B9" s="507"/>
-      <c r="C9" s="509"/>
-      <c r="D9" s="511"/>
-      <c r="E9" s="511"/>
-      <c r="F9" s="511"/>
-      <c r="G9" s="489"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="491"/>
-      <c r="J9" s="491"/>
-      <c r="K9" s="491"/>
-      <c r="L9" s="491"/>
-      <c r="M9" s="491"/>
+      <c r="A9" s="519"/>
+      <c r="B9" s="521"/>
+      <c r="C9" s="523"/>
+      <c r="D9" s="525"/>
+      <c r="E9" s="525"/>
+      <c r="F9" s="525"/>
+      <c r="G9" s="527"/>
+      <c r="H9" s="517"/>
+      <c r="I9" s="489"/>
+      <c r="J9" s="489"/>
+      <c r="K9" s="489"/>
+      <c r="L9" s="489"/>
+      <c r="M9" s="489"/>
       <c r="N9" s="493"/>
-      <c r="O9" s="491"/>
+      <c r="O9" s="489"/>
       <c r="P9" s="493"/>
-      <c r="Q9" s="491"/>
-      <c r="R9" s="491"/>
-      <c r="S9" s="491"/>
-      <c r="T9" s="491"/>
+      <c r="Q9" s="489"/>
+      <c r="R9" s="489"/>
+      <c r="S9" s="489"/>
+      <c r="T9" s="489"/>
       <c r="U9" s="493"/>
-      <c r="V9" s="491"/>
-      <c r="W9" s="491"/>
-      <c r="X9" s="491"/>
-      <c r="Y9" s="491"/>
-      <c r="Z9" s="491"/>
-      <c r="AA9" s="491"/>
+      <c r="V9" s="489"/>
+      <c r="W9" s="489"/>
+      <c r="X9" s="489"/>
+      <c r="Y9" s="489"/>
+      <c r="Z9" s="489"/>
+      <c r="AA9" s="489"/>
       <c r="AB9" s="493"/>
-      <c r="AC9" s="491"/>
-      <c r="AD9" s="491"/>
-      <c r="AE9" s="491"/>
-      <c r="AF9" s="491"/>
-      <c r="AG9" s="491"/>
-      <c r="AH9" s="491"/>
+      <c r="AC9" s="489"/>
+      <c r="AD9" s="489"/>
+      <c r="AE9" s="489"/>
+      <c r="AF9" s="489"/>
+      <c r="AG9" s="489"/>
+      <c r="AH9" s="489"/>
       <c r="AI9" s="493"/>
-      <c r="AJ9" s="491"/>
-      <c r="AK9" s="491"/>
-      <c r="AL9" s="491"/>
+      <c r="AJ9" s="489"/>
+      <c r="AK9" s="489"/>
+      <c r="AL9" s="489"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="213" t="s">
@@ -22864,7 +22896,7 @@
         <v>22.6</v>
       </c>
       <c r="D11" s="117">
-        <f t="shared" ref="D11:D16" si="1">C11/$C$18</f>
+        <f>C11/$C$18</f>
         <v>1.918505942275043</v>
       </c>
       <c r="E11" s="338">
@@ -22936,7 +22968,7 @@
         <v>10.65</v>
       </c>
       <c r="D12" s="117">
-        <f t="shared" si="1"/>
+        <f>C12/$C$18</f>
         <v>0.90407470288624814</v>
       </c>
       <c r="E12" s="73">
@@ -23000,14 +23032,14 @@
         <v>13.02</v>
       </c>
       <c r="D13" s="117">
-        <f t="shared" si="1"/>
+        <f>C13/$C$18</f>
         <v>1.1052631578947369</v>
       </c>
       <c r="E13" s="73">
         <v>2</v>
       </c>
       <c r="F13" s="54">
-        <f t="shared" ref="F13:F16" si="2">IF(B13=$H$3,((C13*10000)/$I$3),((C13*10000)/$K$3))</f>
+        <f>IF(B13=$H$3,((C13*10000)/$I$3),((C13*10000)/$K$3))</f>
         <v>144.66666666666666</v>
       </c>
       <c r="G13" s="98">
@@ -23072,14 +23104,14 @@
         <v>8.27</v>
       </c>
       <c r="D14" s="117">
-        <f t="shared" si="1"/>
+        <f>C14/$C$18</f>
         <v>0.70203735144312407</v>
       </c>
       <c r="E14" s="73">
         <v>2</v>
       </c>
       <c r="F14" s="54">
-        <f t="shared" si="2"/>
+        <f>IF(B14=$H$3,((C14*10000)/$I$3),((C14*10000)/$K$3))</f>
         <v>91.888888888888886</v>
       </c>
       <c r="G14" s="98">
@@ -23136,14 +23168,14 @@
         <v>14.99</v>
       </c>
       <c r="D15" s="117">
-        <f t="shared" si="1"/>
+        <f>C15/$C$18</f>
         <v>1.2724957555178271</v>
       </c>
       <c r="E15" s="73">
         <v>3</v>
       </c>
       <c r="F15" s="54">
-        <f t="shared" si="2"/>
+        <f>IF(B15=$H$3,((C15*10000)/$I$3),((C15*10000)/$K$3))</f>
         <v>166.55555555555554</v>
       </c>
       <c r="G15" s="192">
@@ -23206,14 +23238,14 @@
         <v>12.93</v>
       </c>
       <c r="D16" s="117">
-        <f t="shared" si="1"/>
+        <f>C16/$C$18</f>
         <v>1.0976230899830224</v>
       </c>
       <c r="E16" s="73">
         <v>2</v>
       </c>
       <c r="F16" s="54">
-        <f t="shared" si="2"/>
+        <f>IF(B16=$H$3,((C16*10000)/$I$3),((C16*10000)/$K$3))</f>
         <v>184.71428571428572</v>
       </c>
       <c r="G16" s="98">
@@ -23305,10 +23337,10 @@
       <c r="AK17" s="26"/>
       <c r="AL17" s="26"/>
     </row>
-    <row r="18" spans="1:38" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="224"/>
       <c r="B18" s="225" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C18" s="226">
         <f>C17/F3</f>
@@ -23316,14 +23348,14 @@
       </c>
       <c r="D18" s="226"/>
       <c r="E18" s="225" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F18" s="226">
         <f>F17/$F$3</f>
         <v>151.83219954648527</v>
       </c>
       <c r="G18" s="198" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="319"/>
@@ -23400,98 +23432,98 @@
       <c r="AL19" s="228"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A20" s="521" t="s">
+      <c r="A20" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="522" t="s">
+      <c r="B20" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="523" t="s">
+      <c r="C20" s="498" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="524" t="s">
+      <c r="D20" s="494" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="524" t="s">
+      <c r="E20" s="494" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="524" t="s">
+      <c r="F20" s="494" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="524" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="525"/>
-      <c r="I20" s="526"/>
-      <c r="J20" s="525"/>
-      <c r="K20" s="525"/>
-      <c r="L20" s="525"/>
-      <c r="M20" s="525"/>
-      <c r="N20" s="527"/>
-      <c r="O20" s="525"/>
-      <c r="P20" s="527"/>
-      <c r="Q20" s="525"/>
-      <c r="R20" s="525"/>
-      <c r="S20" s="525"/>
-      <c r="T20" s="525"/>
-      <c r="U20" s="527"/>
-      <c r="V20" s="525"/>
-      <c r="W20" s="525"/>
-      <c r="X20" s="525"/>
-      <c r="Y20" s="525"/>
-      <c r="Z20" s="525"/>
-      <c r="AA20" s="525"/>
-      <c r="AB20" s="527"/>
-      <c r="AC20" s="525"/>
-      <c r="AD20" s="525"/>
-      <c r="AE20" s="525"/>
-      <c r="AF20" s="525"/>
-      <c r="AG20" s="525"/>
-      <c r="AH20" s="525"/>
-      <c r="AI20" s="527"/>
-      <c r="AJ20" s="525"/>
-      <c r="AK20" s="525"/>
-      <c r="AL20" s="525"/>
+      <c r="G20" s="494" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="490"/>
+      <c r="I20" s="495"/>
+      <c r="J20" s="490"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="490"/>
+      <c r="N20" s="491"/>
+      <c r="O20" s="490"/>
+      <c r="P20" s="491"/>
+      <c r="Q20" s="490"/>
+      <c r="R20" s="490"/>
+      <c r="S20" s="490"/>
+      <c r="T20" s="490"/>
+      <c r="U20" s="491"/>
+      <c r="V20" s="490"/>
+      <c r="W20" s="490"/>
+      <c r="X20" s="490"/>
+      <c r="Y20" s="490"/>
+      <c r="Z20" s="490"/>
+      <c r="AA20" s="490"/>
+      <c r="AB20" s="491"/>
+      <c r="AC20" s="490"/>
+      <c r="AD20" s="490"/>
+      <c r="AE20" s="490"/>
+      <c r="AF20" s="490"/>
+      <c r="AG20" s="490"/>
+      <c r="AH20" s="490"/>
+      <c r="AI20" s="491"/>
+      <c r="AJ20" s="490"/>
+      <c r="AK20" s="490"/>
+      <c r="AL20" s="490"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A21" s="521"/>
-      <c r="B21" s="522"/>
-      <c r="C21" s="523"/>
-      <c r="D21" s="524"/>
-      <c r="E21" s="524"/>
-      <c r="F21" s="524"/>
-      <c r="G21" s="524"/>
-      <c r="H21" s="525"/>
-      <c r="I21" s="526"/>
-      <c r="J21" s="525"/>
-      <c r="K21" s="525"/>
-      <c r="L21" s="525"/>
-      <c r="M21" s="525"/>
-      <c r="N21" s="527"/>
-      <c r="O21" s="525"/>
-      <c r="P21" s="527"/>
-      <c r="Q21" s="525"/>
-      <c r="R21" s="525"/>
-      <c r="S21" s="525"/>
-      <c r="T21" s="525"/>
-      <c r="U21" s="527"/>
-      <c r="V21" s="525"/>
-      <c r="W21" s="525"/>
-      <c r="X21" s="525"/>
-      <c r="Y21" s="525"/>
-      <c r="Z21" s="525"/>
-      <c r="AA21" s="525"/>
-      <c r="AB21" s="527"/>
-      <c r="AC21" s="525"/>
-      <c r="AD21" s="525"/>
-      <c r="AE21" s="525"/>
-      <c r="AF21" s="525"/>
-      <c r="AG21" s="525"/>
-      <c r="AH21" s="525"/>
-      <c r="AI21" s="527"/>
-      <c r="AJ21" s="525"/>
-      <c r="AK21" s="525"/>
-      <c r="AL21" s="525"/>
+      <c r="A21" s="496"/>
+      <c r="B21" s="497"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="494"/>
+      <c r="E21" s="494"/>
+      <c r="F21" s="494"/>
+      <c r="G21" s="494"/>
+      <c r="H21" s="490"/>
+      <c r="I21" s="495"/>
+      <c r="J21" s="490"/>
+      <c r="K21" s="490"/>
+      <c r="L21" s="490"/>
+      <c r="M21" s="490"/>
+      <c r="N21" s="491"/>
+      <c r="O21" s="490"/>
+      <c r="P21" s="491"/>
+      <c r="Q21" s="490"/>
+      <c r="R21" s="490"/>
+      <c r="S21" s="490"/>
+      <c r="T21" s="490"/>
+      <c r="U21" s="491"/>
+      <c r="V21" s="490"/>
+      <c r="W21" s="490"/>
+      <c r="X21" s="490"/>
+      <c r="Y21" s="490"/>
+      <c r="Z21" s="490"/>
+      <c r="AA21" s="490"/>
+      <c r="AB21" s="491"/>
+      <c r="AC21" s="490"/>
+      <c r="AD21" s="490"/>
+      <c r="AE21" s="490"/>
+      <c r="AF21" s="490"/>
+      <c r="AG21" s="490"/>
+      <c r="AH21" s="490"/>
+      <c r="AI21" s="491"/>
+      <c r="AJ21" s="490"/>
+      <c r="AK21" s="490"/>
+      <c r="AL21" s="490"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="72">
@@ -23781,7 +23813,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="54">
-        <f t="shared" ref="F26:F27" si="3">IF(B26=$H$3,((C26*10000)/$I$3),((C26*10000)/$K$3))</f>
+        <f>IF(B26=$H$3,((C26*10000)/$I$3),((C26*10000)/$K$3))</f>
         <v>65.714285714285708</v>
       </c>
       <c r="G26" s="98">
@@ -23851,7 +23883,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="54">
-        <f t="shared" si="3"/>
+        <f>IF(B27=$H$3,((C27*10000)/$I$3),((C27*10000)/$K$3))</f>
         <v>177.88888888888891</v>
       </c>
       <c r="G27" s="192">
@@ -24131,70 +24163,6 @@
       <c r="AK32" s="25"/>
       <c r="AL32" s="25"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A33" s="72">
-        <v>44</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="230">
-        <v>7.19</v>
-      </c>
-      <c r="D33" s="54">
-        <f t="shared" ref="D33:D38" si="4">C33/$C$40</f>
-        <v>0.59597394908229717</v>
-      </c>
-      <c r="E33" s="73">
-        <v>2</v>
-      </c>
-      <c r="F33" s="54">
-        <f t="shared" ref="F33:F38" si="5">IF(B33=$H$3,((C33*10000)/$I$3),((C33*10000)/$K$3))</f>
-        <v>102.71428571428571</v>
-      </c>
-      <c r="G33" s="54">
-        <v>8</v>
-      </c>
-      <c r="H33" s="54">
-        <v>1</v>
-      </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="211">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="211"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="211"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-    </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" s="72">
         <v>13</v>
@@ -24206,14 +24174,14 @@
         <v>14.34</v>
       </c>
       <c r="D34" s="54">
-        <f t="shared" si="4"/>
-        <v>1.1886323268206038</v>
+        <f>C34/$C$40</f>
+        <v>1.2992492881180431</v>
       </c>
       <c r="E34" s="73">
         <v>1</v>
       </c>
       <c r="F34" s="54">
-        <f t="shared" si="5"/>
+        <f>IF(B34=$H$3,((C34*10000)/$I$3),((C34*10000)/$K$3))</f>
         <v>204.85714285714286</v>
       </c>
       <c r="G34" s="200">
@@ -24278,14 +24246,14 @@
         <v>20.43</v>
       </c>
       <c r="D35" s="54">
-        <f t="shared" si="4"/>
-        <v>1.6934280639431616</v>
+        <f>C35/$C$40</f>
+        <v>1.8510225213564588</v>
       </c>
       <c r="E35" s="73">
         <v>3</v>
       </c>
       <c r="F35" s="54">
-        <f t="shared" si="5"/>
+        <f>IF(B35=$H$3,((C35*10000)/$I$3),((C35*10000)/$K$3))</f>
         <v>227</v>
       </c>
       <c r="G35" s="98">
@@ -24350,14 +24318,14 @@
         <v>16.36</v>
       </c>
       <c r="D36" s="54">
-        <f t="shared" si="4"/>
-        <v>1.3560686796921253</v>
+        <f>C36/$C$40</f>
+        <v>1.4822676676158428</v>
       </c>
       <c r="E36" s="73">
         <v>3</v>
       </c>
       <c r="F36" s="54">
-        <f t="shared" si="5"/>
+        <f>IF(B36=$H$3,((C36*10000)/$I$3),((C36*10000)/$K$3))</f>
         <v>233.71428571428572</v>
       </c>
       <c r="G36" s="192">
@@ -24422,14 +24390,14 @@
         <v>9.07</v>
       </c>
       <c r="D37" s="54">
-        <f t="shared" si="4"/>
-        <v>0.75180580224985194</v>
+        <f>C37/$C$40</f>
+        <v>0.82177064457675397</v>
       </c>
       <c r="E37" s="73">
         <v>3</v>
       </c>
       <c r="F37" s="54">
-        <f t="shared" si="5"/>
+        <f>IF(B37=$H$3,((C37*10000)/$I$3),((C37*10000)/$K$3))</f>
         <v>129.57142857142858</v>
       </c>
       <c r="G37" s="98">
@@ -24494,14 +24462,14 @@
         <v>17.059999999999999</v>
       </c>
       <c r="D38" s="54">
-        <f t="shared" si="4"/>
-        <v>1.4140911782119596</v>
+        <f>C38/$C$40</f>
+        <v>1.5456898783329021</v>
       </c>
       <c r="E38" s="73">
         <v>1</v>
       </c>
       <c r="F38" s="54">
-        <f t="shared" si="5"/>
+        <f>IF(B38=$H$3,((C38*10000)/$I$3),((C38*10000)/$K$3))</f>
         <v>189.55555555555554</v>
       </c>
       <c r="G38" s="200">
@@ -24551,14 +24519,14 @@
         <v>9</v>
       </c>
       <c r="C39" s="247">
-        <f>SUM(C33:C38)</f>
-        <v>84.45</v>
+        <f>SUM(C34:C38)</f>
+        <v>77.259999999999991</v>
       </c>
       <c r="D39" s="330"/>
       <c r="E39" s="233"/>
       <c r="F39" s="226">
-        <f>SUM(F33:F38)</f>
-        <v>1087.4126984126983</v>
+        <f>SUM(F34:F38)</f>
+        <v>984.69841269841277</v>
       </c>
       <c r="G39" s="233"/>
       <c r="H39" s="36"/>
@@ -24600,7 +24568,7 @@
       </c>
       <c r="C40" s="250">
         <f>C39/$F$3</f>
-        <v>12.064285714285715</v>
+        <v>11.037142857142856</v>
       </c>
       <c r="D40" s="250"/>
       <c r="E40" s="249" t="s">
@@ -24608,7 +24576,7 @@
       </c>
       <c r="F40" s="250">
         <f>F39/$F$3</f>
-        <v>155.34467120181404</v>
+        <v>140.67120181405897</v>
       </c>
       <c r="G40" s="251" t="s">
         <v>21</v>
@@ -24647,11 +24615,90 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
     <mergeCell ref="AL20:AL21"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="AB20:AB21"/>
@@ -24659,12 +24706,2505 @@
     <mergeCell ref="AD20:AD21"/>
     <mergeCell ref="AE20:AE21"/>
     <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AL41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB25" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AL41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.23046875" style="528"/>
+    <col min="16" max="16" width="9.23046875" style="528"/>
+    <col min="21" max="21" width="9.23046875" style="528"/>
+    <col min="28" max="28" width="9.23046875" style="528"/>
+    <col min="35" max="35" width="9.23046875" style="528"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="512" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="185"/>
+      <c r="AL1" s="185"/>
+    </row>
+    <row r="2" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="514"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
+      <c r="D2" s="515"/>
+      <c r="E2" s="515"/>
+      <c r="F2" s="515"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+    </row>
+    <row r="3" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="186">
+        <v>7</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="188">
+        <v>700</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="189">
+        <v>900</v>
+      </c>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="204" t="str">
+        <f>A10</f>
+        <v>ZONE E</v>
+      </c>
+      <c r="W3" s="205"/>
+      <c r="X3" s="505" t="str">
+        <f>A19</f>
+        <v>ZONE F</v>
+      </c>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="505" t="str">
+        <f>A31</f>
+        <v>ZONE G</v>
+      </c>
+      <c r="AA3" s="506"/>
+      <c r="AB3" s="499" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="500"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+    </row>
+    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="184" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="106">
+        <v>8</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="190">
+        <v>45</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="191">
+        <v>26</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="349" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="349"/>
+      <c r="S4" s="349"/>
+      <c r="T4" s="349"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="508">
+        <v>1203650</v>
+      </c>
+      <c r="W4" s="509"/>
+      <c r="X4" s="508">
+        <v>1095926</v>
+      </c>
+      <c r="Y4" s="509"/>
+      <c r="Z4" s="508">
+        <v>1232697</v>
+      </c>
+      <c r="AA4" s="509"/>
+      <c r="AB4" s="501">
+        <f>SUM(V4:AA4)</f>
+        <v>3532273</v>
+      </c>
+      <c r="AC4" s="502"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A5" s="184" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="349" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="349"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="503">
+        <f>V4*9%</f>
+        <v>108328.5</v>
+      </c>
+      <c r="W5" s="504"/>
+      <c r="X5" s="503">
+        <f>X4*9%</f>
+        <v>98633.34</v>
+      </c>
+      <c r="Y5" s="504"/>
+      <c r="Z5" s="503">
+        <f>Z4*9%</f>
+        <v>110942.73</v>
+      </c>
+      <c r="AA5" s="504"/>
+      <c r="AB5" s="503">
+        <f>AB4*9%</f>
+        <v>317904.57</v>
+      </c>
+      <c r="AC5" s="504"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+    </row>
+    <row r="6" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="349" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="349"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="503">
+        <f>V5/$K$4</f>
+        <v>4166.4807692307695</v>
+      </c>
+      <c r="W6" s="504"/>
+      <c r="X6" s="503">
+        <f>X5/$K$4</f>
+        <v>3793.5899999999997</v>
+      </c>
+      <c r="Y6" s="504"/>
+      <c r="Z6" s="503">
+        <f>Z5/$K$4</f>
+        <v>4267.0280769230767</v>
+      </c>
+      <c r="AA6" s="504"/>
+      <c r="AB6" s="510">
+        <f t="shared" ref="AB6" si="0">SUM(V6:AA6)</f>
+        <v>12227.098846153847</v>
+      </c>
+      <c r="AC6" s="511"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+    </row>
+    <row r="7" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="184"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A8" s="518" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="520" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="522" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="524" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="524" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="524" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="526" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="516">
+        <v>1</v>
+      </c>
+      <c r="I8" s="488">
+        <v>2</v>
+      </c>
+      <c r="J8" s="488">
+        <v>3</v>
+      </c>
+      <c r="K8" s="488">
+        <v>4</v>
+      </c>
+      <c r="L8" s="488">
+        <v>5</v>
+      </c>
+      <c r="M8" s="488">
+        <v>6</v>
+      </c>
+      <c r="N8" s="488">
+        <v>7</v>
+      </c>
+      <c r="O8" s="488">
+        <v>8</v>
+      </c>
+      <c r="P8" s="488">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="488">
+        <v>10</v>
+      </c>
+      <c r="R8" s="488">
+        <v>11</v>
+      </c>
+      <c r="S8" s="488">
+        <v>12</v>
+      </c>
+      <c r="T8" s="488">
+        <v>13</v>
+      </c>
+      <c r="U8" s="488">
+        <v>14</v>
+      </c>
+      <c r="V8" s="488">
+        <v>15</v>
+      </c>
+      <c r="W8" s="488">
+        <v>16</v>
+      </c>
+      <c r="X8" s="488">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="488">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="488">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="488">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="488">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="488">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="488">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="488">
+        <v>24</v>
+      </c>
+      <c r="AF8" s="488">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="488">
+        <v>26</v>
+      </c>
+      <c r="AH8" s="488">
+        <v>27</v>
+      </c>
+      <c r="AI8" s="488">
+        <v>28</v>
+      </c>
+      <c r="AJ8" s="488">
+        <v>29</v>
+      </c>
+      <c r="AK8" s="488">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="488">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="519"/>
+      <c r="B9" s="521"/>
+      <c r="C9" s="523"/>
+      <c r="D9" s="525"/>
+      <c r="E9" s="525"/>
+      <c r="F9" s="525"/>
+      <c r="G9" s="527"/>
+      <c r="H9" s="517"/>
+      <c r="I9" s="489"/>
+      <c r="J9" s="489"/>
+      <c r="K9" s="489"/>
+      <c r="L9" s="489"/>
+      <c r="M9" s="489"/>
+      <c r="N9" s="489"/>
+      <c r="O9" s="489"/>
+      <c r="P9" s="489"/>
+      <c r="Q9" s="489"/>
+      <c r="R9" s="489"/>
+      <c r="S9" s="489"/>
+      <c r="T9" s="489"/>
+      <c r="U9" s="489"/>
+      <c r="V9" s="489"/>
+      <c r="W9" s="489"/>
+      <c r="X9" s="489"/>
+      <c r="Y9" s="489"/>
+      <c r="Z9" s="489"/>
+      <c r="AA9" s="489"/>
+      <c r="AB9" s="489"/>
+      <c r="AC9" s="489"/>
+      <c r="AD9" s="489"/>
+      <c r="AE9" s="489"/>
+      <c r="AF9" s="489"/>
+      <c r="AG9" s="489"/>
+      <c r="AH9" s="489"/>
+      <c r="AI9" s="489"/>
+      <c r="AJ9" s="489"/>
+      <c r="AK9" s="489"/>
+      <c r="AL9" s="489"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A10" s="213" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="219"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="219"/>
+      <c r="W10" s="219"/>
+      <c r="X10" s="219"/>
+      <c r="Y10" s="219"/>
+      <c r="Z10" s="219"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="219"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="217"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="217"/>
+      <c r="AH10" s="217"/>
+      <c r="AI10" s="217"/>
+      <c r="AJ10" s="219"/>
+      <c r="AK10" s="217"/>
+      <c r="AL10" s="217"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A11" s="72">
+        <v>14</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="222">
+        <v>22.6</v>
+      </c>
+      <c r="D11" s="117">
+        <f t="shared" ref="D11:D16" si="1">C11/$C$18</f>
+        <v>1.918505942275043</v>
+      </c>
+      <c r="E11" s="338">
+        <v>4</v>
+      </c>
+      <c r="F11" s="54">
+        <f>IF(B11=$H$3,((C11*10000)/$I$3),((C11*10000)/$K$3))</f>
+        <v>322.85714285714283</v>
+      </c>
+      <c r="G11" s="98">
+        <v>8</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="153">
+        <v>2</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
+        <v>1</v>
+      </c>
+      <c r="P11" s="153">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26">
+        <v>1</v>
+      </c>
+      <c r="X11" s="153">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="153">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" s="72">
+        <v>15</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="222">
+        <v>10.65</v>
+      </c>
+      <c r="D12" s="117">
+        <f t="shared" si="1"/>
+        <v>0.90407470288624814</v>
+      </c>
+      <c r="E12" s="73">
+        <v>0</v>
+      </c>
+      <c r="F12" s="54">
+        <f>IF(B12=$H$3,((C12*10000)/$I$3),((C12*10000)/$K$3))</f>
+        <v>152.14285714285714</v>
+      </c>
+      <c r="G12" s="98">
+        <v>6</v>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98">
+        <v>3</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98">
+        <v>3</v>
+      </c>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="98"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A13" s="72">
+        <v>5</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="222">
+        <v>13.02</v>
+      </c>
+      <c r="D13" s="117">
+        <f t="shared" si="1"/>
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="E13" s="73">
+        <v>2</v>
+      </c>
+      <c r="F13" s="54">
+        <f t="shared" ref="F13:F16" si="2">IF(B13=$H$3,((C13*10000)/$I$3),((C13*10000)/$K$3))</f>
+        <v>144.66666666666666</v>
+      </c>
+      <c r="G13" s="98">
+        <v>4</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98">
+        <v>4</v>
+      </c>
+      <c r="L13" s="98">
+        <v>5</v>
+      </c>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98">
+        <v>4</v>
+      </c>
+      <c r="S13" s="98">
+        <v>5</v>
+      </c>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="98">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="98">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A14" s="72">
+        <v>3</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="222">
+        <v>8.27</v>
+      </c>
+      <c r="D14" s="117">
+        <f t="shared" si="1"/>
+        <v>0.70203735144312407</v>
+      </c>
+      <c r="E14" s="73">
+        <v>2</v>
+      </c>
+      <c r="F14" s="54">
+        <f t="shared" si="2"/>
+        <v>91.888888888888886</v>
+      </c>
+      <c r="G14" s="98">
+        <v>3</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98">
+        <v>6</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98">
+        <v>6</v>
+      </c>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A15" s="72">
+        <v>7</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="222">
+        <v>14.99</v>
+      </c>
+      <c r="D15" s="117">
+        <f t="shared" si="1"/>
+        <v>1.2724957555178271</v>
+      </c>
+      <c r="E15" s="73">
+        <v>3</v>
+      </c>
+      <c r="F15" s="54">
+        <f t="shared" si="2"/>
+        <v>166.55555555555554</v>
+      </c>
+      <c r="G15" s="192">
+        <v>2</v>
+      </c>
+      <c r="H15" s="153"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26">
+        <v>6</v>
+      </c>
+      <c r="N15" s="26">
+        <v>7</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26">
+        <v>6</v>
+      </c>
+      <c r="V15" s="26">
+        <v>7</v>
+      </c>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="153">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="26">
+        <v>7</v>
+      </c>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A16" s="72">
+        <v>12</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="222">
+        <v>12.93</v>
+      </c>
+      <c r="D16" s="117">
+        <f t="shared" si="1"/>
+        <v>1.0976230899830224</v>
+      </c>
+      <c r="E16" s="73">
+        <v>2</v>
+      </c>
+      <c r="F16" s="54">
+        <f t="shared" si="2"/>
+        <v>184.71428571428572</v>
+      </c>
+      <c r="G16" s="98">
+        <v>1</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98">
+        <v>7</v>
+      </c>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98">
+        <v>7</v>
+      </c>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="98"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A17" s="223"/>
+      <c r="B17" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="115">
+        <f>SUM(C11:C16)</f>
+        <v>82.45999999999998</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="116">
+        <f>SUM(F11:F16)</f>
+        <v>1062.8253968253969</v>
+      </c>
+      <c r="G17" s="197"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+    </row>
+    <row r="18" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="224"/>
+      <c r="B18" s="225" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="226">
+        <f>C17/F3</f>
+        <v>11.779999999999998</v>
+      </c>
+      <c r="D18" s="226"/>
+      <c r="E18" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="226">
+        <f>F17/$F$3</f>
+        <v>151.83219954648527</v>
+      </c>
+      <c r="G18" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+    </row>
+    <row r="19" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="214"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="320"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="221"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="228"/>
+      <c r="R19" s="228"/>
+      <c r="S19" s="228"/>
+      <c r="T19" s="228"/>
+      <c r="U19" s="228"/>
+      <c r="V19" s="228"/>
+      <c r="W19" s="228"/>
+      <c r="X19" s="228"/>
+      <c r="Y19" s="228"/>
+      <c r="Z19" s="228"/>
+      <c r="AA19" s="228"/>
+      <c r="AB19" s="228"/>
+      <c r="AC19" s="228"/>
+      <c r="AD19" s="228"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="228"/>
+      <c r="AG19" s="228"/>
+      <c r="AH19" s="228"/>
+      <c r="AI19" s="228"/>
+      <c r="AJ19" s="228"/>
+      <c r="AK19" s="228"/>
+      <c r="AL19" s="228"/>
+    </row>
+    <row r="20" spans="1:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="520" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="522" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="524" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="524" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="524" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="526" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="490"/>
+      <c r="I20" s="495"/>
+      <c r="J20" s="490"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="490"/>
+      <c r="N20" s="490"/>
+      <c r="O20" s="495"/>
+      <c r="P20" s="490"/>
+      <c r="Q20" s="490"/>
+      <c r="R20" s="490"/>
+      <c r="S20" s="490"/>
+      <c r="T20" s="490"/>
+      <c r="U20" s="495"/>
+      <c r="V20" s="490"/>
+      <c r="W20" s="490"/>
+      <c r="X20" s="490"/>
+      <c r="Y20" s="490"/>
+      <c r="Z20" s="490"/>
+      <c r="AA20" s="490"/>
+      <c r="AB20" s="495"/>
+      <c r="AC20" s="490"/>
+      <c r="AD20" s="490"/>
+      <c r="AE20" s="490"/>
+      <c r="AF20" s="490"/>
+      <c r="AG20" s="490"/>
+      <c r="AH20" s="490"/>
+      <c r="AI20" s="490"/>
+      <c r="AJ20" s="490"/>
+      <c r="AK20" s="495"/>
+      <c r="AL20" s="490"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A21" s="519"/>
+      <c r="B21" s="521"/>
+      <c r="C21" s="523"/>
+      <c r="D21" s="525"/>
+      <c r="E21" s="525"/>
+      <c r="F21" s="525"/>
+      <c r="G21" s="527"/>
+      <c r="H21" s="490"/>
+      <c r="I21" s="495"/>
+      <c r="J21" s="490"/>
+      <c r="K21" s="490"/>
+      <c r="L21" s="490"/>
+      <c r="M21" s="490"/>
+      <c r="N21" s="490"/>
+      <c r="O21" s="495"/>
+      <c r="P21" s="490"/>
+      <c r="Q21" s="490"/>
+      <c r="R21" s="490"/>
+      <c r="S21" s="490"/>
+      <c r="T21" s="490"/>
+      <c r="U21" s="495"/>
+      <c r="V21" s="490"/>
+      <c r="W21" s="490"/>
+      <c r="X21" s="490"/>
+      <c r="Y21" s="490"/>
+      <c r="Z21" s="490"/>
+      <c r="AA21" s="490"/>
+      <c r="AB21" s="495"/>
+      <c r="AC21" s="490"/>
+      <c r="AD21" s="490"/>
+      <c r="AE21" s="490"/>
+      <c r="AF21" s="490"/>
+      <c r="AG21" s="490"/>
+      <c r="AH21" s="490"/>
+      <c r="AI21" s="490"/>
+      <c r="AJ21" s="490"/>
+      <c r="AK21" s="495"/>
+      <c r="AL21" s="490"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A22" s="72">
+        <v>10</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="222">
+        <v>22.55</v>
+      </c>
+      <c r="D22" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="73">
+        <v>1</v>
+      </c>
+      <c r="F22" s="54">
+        <f>IF(B22=$H$3,((C22*10000)/$I$3),((C22*10000)/$K$3))</f>
+        <v>250.55555555555554</v>
+      </c>
+      <c r="G22" s="192">
+        <v>8</v>
+      </c>
+      <c r="H22" s="192">
+        <v>1</v>
+      </c>
+      <c r="I22" s="54">
+        <v>2</v>
+      </c>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54">
+        <v>1</v>
+      </c>
+      <c r="P22" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54">
+        <v>1</v>
+      </c>
+      <c r="X22" s="54">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="54">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A23" s="72">
+        <v>42</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="222">
+        <v>7.51</v>
+      </c>
+      <c r="D23" s="54">
+        <f>C23/$C$29</f>
+        <v>0.70018646776771443</v>
+      </c>
+      <c r="E23" s="73">
+        <v>2</v>
+      </c>
+      <c r="F23" s="54">
+        <f>IF(B23=$H$3,((C23*10000)/$I$3),((C23*10000)/$K$3))</f>
+        <v>107.28571428571429</v>
+      </c>
+      <c r="G23" s="98">
+        <v>6</v>
+      </c>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98">
+        <v>3</v>
+      </c>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98">
+        <v>3</v>
+      </c>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A24" s="72">
+        <v>2</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="222">
+        <v>7.41</v>
+      </c>
+      <c r="D24" s="54">
+        <f>C24/$C$29</f>
+        <v>0.69086307938199254</v>
+      </c>
+      <c r="E24" s="73">
+        <v>1</v>
+      </c>
+      <c r="F24" s="54">
+        <f>IF(B24=$H$3,((C24*10000)/$I$3),((C24*10000)/$K$3))</f>
+        <v>105.85714285714286</v>
+      </c>
+      <c r="G24" s="98">
+        <v>4</v>
+      </c>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98">
+        <v>4</v>
+      </c>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98">
+        <v>4</v>
+      </c>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A25" s="72">
+        <v>6</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="230">
+        <v>17</v>
+      </c>
+      <c r="D25" s="54">
+        <f>C25/$C$29</f>
+        <v>1.5849760255727223</v>
+      </c>
+      <c r="E25" s="73">
+        <v>0</v>
+      </c>
+      <c r="F25" s="54">
+        <f>IF(B25=$H$3,((C25*10000)/$I$3),((C25*10000)/$K$3))</f>
+        <v>188.88888888888889</v>
+      </c>
+      <c r="G25" s="98">
+        <v>3</v>
+      </c>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98">
+        <v>5</v>
+      </c>
+      <c r="M25" s="98">
+        <v>6</v>
+      </c>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98">
+        <v>5</v>
+      </c>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98">
+        <v>6</v>
+      </c>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="98">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="98">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A26" s="72">
+        <v>43</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="73">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="73">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54">
+        <f t="shared" ref="F26:F27" si="3">IF(B26=$H$3,((C26*10000)/$I$3),((C26*10000)/$K$3))</f>
+        <v>65.714285714285708</v>
+      </c>
+      <c r="G26" s="98">
+        <v>2</v>
+      </c>
+      <c r="H26" s="98"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="331">
+        <v>6</v>
+      </c>
+      <c r="N26" s="200">
+        <v>7</v>
+      </c>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="331"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200">
+        <v>6</v>
+      </c>
+      <c r="V26" s="200">
+        <v>7</v>
+      </c>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="200"/>
+      <c r="Z26" s="331"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="200">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="200">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="331"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="331"/>
+      <c r="AI26" s="331">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="200">
+        <v>7</v>
+      </c>
+      <c r="AK26" s="200"/>
+      <c r="AL26" s="200"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A27" s="72">
+        <v>11</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="222">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D27" s="54">
+        <f>C27/$C$29</f>
+        <v>1.4926744805540757</v>
+      </c>
+      <c r="E27" s="73">
+        <v>2</v>
+      </c>
+      <c r="F27" s="54">
+        <f t="shared" si="3"/>
+        <v>177.88888888888891</v>
+      </c>
+      <c r="G27" s="192">
+        <v>1</v>
+      </c>
+      <c r="H27" s="192"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98">
+        <v>7</v>
+      </c>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98">
+        <v>7</v>
+      </c>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98">
+        <v>7</v>
+      </c>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98">
+        <v>7</v>
+      </c>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A28" s="134"/>
+      <c r="B28" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="115">
+        <f>SUM(C22:C27)</f>
+        <v>75.08</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="116">
+        <f>SUM(F22:F27)</f>
+        <v>896.19047619047615</v>
+      </c>
+      <c r="G28" s="117"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+    </row>
+    <row r="29" spans="1:38" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="224"/>
+      <c r="B29" s="225" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="226">
+        <f>C28/F3</f>
+        <v>10.725714285714286</v>
+      </c>
+      <c r="D29" s="226"/>
+      <c r="E29" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="226">
+        <f>F28/$F$3</f>
+        <v>128.02721088435374</v>
+      </c>
+      <c r="G29" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="339"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A30" s="234"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="340"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="238"/>
+      <c r="M30" s="238"/>
+      <c r="N30" s="238"/>
+      <c r="O30" s="238"/>
+      <c r="P30" s="238"/>
+      <c r="Q30" s="238"/>
+      <c r="R30" s="238"/>
+      <c r="S30" s="238"/>
+      <c r="T30" s="238"/>
+      <c r="U30" s="238"/>
+      <c r="V30" s="238"/>
+      <c r="W30" s="238"/>
+      <c r="X30" s="238"/>
+      <c r="Y30" s="238"/>
+      <c r="Z30" s="238"/>
+      <c r="AA30" s="238"/>
+      <c r="AB30" s="238"/>
+      <c r="AC30" s="238"/>
+      <c r="AD30" s="238"/>
+      <c r="AE30" s="238"/>
+      <c r="AF30" s="238"/>
+      <c r="AG30" s="238"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="238"/>
+      <c r="AJ30" s="238"/>
+      <c r="AK30" s="238"/>
+      <c r="AL30" s="238"/>
+    </row>
+    <row r="31" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="240" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="336"/>
+      <c r="C31" s="337"/>
+      <c r="D31" s="338"/>
+      <c r="E31" s="338"/>
+      <c r="F31" s="338"/>
+      <c r="G31" s="338"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A32" s="518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="520" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="522" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="524" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="524" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="524" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="526" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="490"/>
+      <c r="I32" s="495"/>
+      <c r="J32" s="490"/>
+      <c r="K32" s="490"/>
+      <c r="L32" s="490"/>
+      <c r="M32" s="490"/>
+      <c r="N32" s="490"/>
+      <c r="O32" s="495"/>
+      <c r="P32" s="490"/>
+      <c r="Q32" s="490"/>
+      <c r="R32" s="490"/>
+      <c r="S32" s="490"/>
+      <c r="T32" s="490"/>
+      <c r="U32" s="495"/>
+      <c r="V32" s="490"/>
+      <c r="W32" s="490"/>
+      <c r="X32" s="490"/>
+      <c r="Y32" s="490"/>
+      <c r="Z32" s="490"/>
+      <c r="AA32" s="490"/>
+      <c r="AB32" s="495"/>
+      <c r="AC32" s="490"/>
+      <c r="AD32" s="490"/>
+      <c r="AE32" s="490"/>
+      <c r="AF32" s="490"/>
+      <c r="AG32" s="490"/>
+      <c r="AH32" s="490"/>
+      <c r="AI32" s="490"/>
+      <c r="AJ32" s="490"/>
+      <c r="AK32" s="495"/>
+      <c r="AL32" s="490"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A33" s="519"/>
+      <c r="B33" s="521"/>
+      <c r="C33" s="523"/>
+      <c r="D33" s="525"/>
+      <c r="E33" s="525"/>
+      <c r="F33" s="525"/>
+      <c r="G33" s="527"/>
+      <c r="H33" s="490"/>
+      <c r="I33" s="495"/>
+      <c r="J33" s="490"/>
+      <c r="K33" s="490"/>
+      <c r="L33" s="490"/>
+      <c r="M33" s="490"/>
+      <c r="N33" s="490"/>
+      <c r="O33" s="495"/>
+      <c r="P33" s="490"/>
+      <c r="Q33" s="490"/>
+      <c r="R33" s="490"/>
+      <c r="S33" s="490"/>
+      <c r="T33" s="490"/>
+      <c r="U33" s="495"/>
+      <c r="V33" s="490"/>
+      <c r="W33" s="490"/>
+      <c r="X33" s="490"/>
+      <c r="Y33" s="490"/>
+      <c r="Z33" s="490"/>
+      <c r="AA33" s="490"/>
+      <c r="AB33" s="495"/>
+      <c r="AC33" s="490"/>
+      <c r="AD33" s="490"/>
+      <c r="AE33" s="490"/>
+      <c r="AF33" s="490"/>
+      <c r="AG33" s="490"/>
+      <c r="AH33" s="490"/>
+      <c r="AI33" s="490"/>
+      <c r="AJ33" s="490"/>
+      <c r="AK33" s="495"/>
+      <c r="AL33" s="490"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A34" s="72">
+        <v>44</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="230">
+        <v>7.19</v>
+      </c>
+      <c r="D34" s="54">
+        <f>C34/Sheet3!$C$40</f>
+        <v>0.65143670722236613</v>
+      </c>
+      <c r="E34" s="73">
+        <v>2</v>
+      </c>
+      <c r="F34" s="54">
+        <f>IF(B34=Sheet3!$H$3,((C34*10000)/Sheet3!$I$3),((C34*10000)/Sheet3!$K$3))</f>
+        <v>102.71428571428571</v>
+      </c>
+      <c r="G34" s="54">
+        <v>8</v>
+      </c>
+      <c r="H34" s="54">
+        <v>1</v>
+      </c>
+      <c r="I34" s="101"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54">
+        <v>1</v>
+      </c>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54">
+        <v>1</v>
+      </c>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="54"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A35" s="72">
+        <v>13</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="222">
+        <v>14.34</v>
+      </c>
+      <c r="D35" s="54">
+        <f>C35/$C$41</f>
+        <v>1.1886323268206038</v>
+      </c>
+      <c r="E35" s="73">
+        <v>1</v>
+      </c>
+      <c r="F35" s="54">
+        <f t="shared" ref="F35:F39" si="4">IF(B35=$H$3,((C35*10000)/$I$3),((C35*10000)/$K$3))</f>
+        <v>204.85714285714286</v>
+      </c>
+      <c r="G35" s="200">
+        <v>8</v>
+      </c>
+      <c r="H35" s="200">
+        <v>1</v>
+      </c>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="200"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="200"/>
+      <c r="N35" s="200"/>
+      <c r="O35" s="200">
+        <v>1</v>
+      </c>
+      <c r="P35" s="200"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="200"/>
+      <c r="S35" s="200"/>
+      <c r="T35" s="200"/>
+      <c r="U35" s="200"/>
+      <c r="V35" s="200"/>
+      <c r="W35" s="200">
+        <v>1</v>
+      </c>
+      <c r="X35" s="200"/>
+      <c r="Y35" s="200"/>
+      <c r="Z35" s="200"/>
+      <c r="AA35" s="200"/>
+      <c r="AB35" s="200"/>
+      <c r="AC35" s="200"/>
+      <c r="AD35" s="200">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="200"/>
+      <c r="AF35" s="200"/>
+      <c r="AG35" s="200"/>
+      <c r="AH35" s="200"/>
+      <c r="AI35" s="200"/>
+      <c r="AJ35" s="200"/>
+      <c r="AK35" s="200">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="200"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A36" s="72">
+        <v>9</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="230">
+        <v>20.43</v>
+      </c>
+      <c r="D36" s="54">
+        <f>C36/$C$41</f>
+        <v>1.6934280639431616</v>
+      </c>
+      <c r="E36" s="73">
+        <v>3</v>
+      </c>
+      <c r="F36" s="54">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="G36" s="98">
+        <v>6</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="93">
+        <v>2</v>
+      </c>
+      <c r="J36" s="26">
+        <v>3</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>3</v>
+      </c>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A37" s="72">
+        <v>4</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="230">
+        <v>16.36</v>
+      </c>
+      <c r="D37" s="54">
+        <f>C37/$C$41</f>
+        <v>1.3560686796921253</v>
+      </c>
+      <c r="E37" s="73">
+        <v>3</v>
+      </c>
+      <c r="F37" s="54">
+        <f t="shared" si="4"/>
+        <v>233.71428571428572</v>
+      </c>
+      <c r="G37" s="192">
+        <v>4</v>
+      </c>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98">
+        <v>4</v>
+      </c>
+      <c r="L37" s="98">
+        <v>5</v>
+      </c>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98">
+        <v>4</v>
+      </c>
+      <c r="S37" s="98">
+        <v>5</v>
+      </c>
+      <c r="T37" s="98"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="98"/>
+      <c r="W37" s="98"/>
+      <c r="X37" s="98"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="98">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="98">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="98"/>
+      <c r="AC37" s="98"/>
+      <c r="AD37" s="98"/>
+      <c r="AE37" s="98"/>
+      <c r="AF37" s="98"/>
+      <c r="AG37" s="98">
+        <v>4</v>
+      </c>
+      <c r="AH37" s="98">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="98"/>
+      <c r="AL37" s="98"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A38" s="72">
+        <v>8</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="230">
+        <v>9.07</v>
+      </c>
+      <c r="D38" s="54">
+        <f>C38/$C$41</f>
+        <v>0.75180580224985194</v>
+      </c>
+      <c r="E38" s="73">
+        <v>3</v>
+      </c>
+      <c r="F38" s="54">
+        <f t="shared" si="4"/>
+        <v>129.57142857142858</v>
+      </c>
+      <c r="G38" s="98">
+        <v>2</v>
+      </c>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98">
+        <v>5</v>
+      </c>
+      <c r="M38" s="98">
+        <v>6</v>
+      </c>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98">
+        <v>5</v>
+      </c>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98">
+        <v>6</v>
+      </c>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="98">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="98">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="98"/>
+      <c r="AH38" s="98">
+        <v>5</v>
+      </c>
+      <c r="AI38" s="98">
+        <v>6</v>
+      </c>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A39" s="72">
+        <v>1</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="222">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="D39" s="54">
+        <f>C39/$C$41</f>
+        <v>1.4140911782119596</v>
+      </c>
+      <c r="E39" s="73">
+        <v>1</v>
+      </c>
+      <c r="F39" s="54">
+        <f t="shared" si="4"/>
+        <v>189.55555555555554</v>
+      </c>
+      <c r="G39" s="200">
+        <v>1</v>
+      </c>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="200"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="200"/>
+      <c r="N39" s="200">
+        <v>7</v>
+      </c>
+      <c r="O39" s="200"/>
+      <c r="P39" s="200"/>
+      <c r="Q39" s="200"/>
+      <c r="R39" s="200"/>
+      <c r="S39" s="200"/>
+      <c r="T39" s="200"/>
+      <c r="U39" s="200"/>
+      <c r="V39" s="200">
+        <v>7</v>
+      </c>
+      <c r="W39" s="200"/>
+      <c r="X39" s="200"/>
+      <c r="Y39" s="200"/>
+      <c r="Z39" s="200"/>
+      <c r="AA39" s="200"/>
+      <c r="AB39" s="200"/>
+      <c r="AC39" s="200">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="200"/>
+      <c r="AE39" s="200"/>
+      <c r="AF39" s="200"/>
+      <c r="AI39" s="200"/>
+      <c r="AJ39" s="200">
+        <v>7</v>
+      </c>
+      <c r="AK39" s="200"/>
+      <c r="AL39" s="200"/>
+    </row>
+    <row r="40" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="246"/>
+      <c r="B40" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="247">
+        <f>SUM(C33:C39)</f>
+        <v>84.45</v>
+      </c>
+      <c r="D40" s="330"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="226">
+        <f>SUM(F33:F39)</f>
+        <v>1087.4126984126983</v>
+      </c>
+      <c r="G40" s="233"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+    </row>
+    <row r="41" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="224"/>
+      <c r="B41" s="225" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="226">
+        <f>C40/F3</f>
+        <v>12.064285714285715</v>
+      </c>
+      <c r="D41" s="226"/>
+      <c r="E41" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="226">
+        <f>F40/$F$3</f>
+        <v>155.34467120181404</v>
+      </c>
+      <c r="G41" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="252"/>
+      <c r="I41" s="252"/>
+      <c r="J41" s="252"/>
+      <c r="K41" s="252"/>
+      <c r="L41" s="252"/>
+      <c r="M41" s="252"/>
+      <c r="N41" s="252"/>
+      <c r="O41" s="252"/>
+      <c r="P41" s="252"/>
+      <c r="Q41" s="252"/>
+      <c r="R41" s="252"/>
+      <c r="S41" s="252"/>
+      <c r="T41" s="252"/>
+      <c r="U41" s="252"/>
+      <c r="V41" s="252"/>
+      <c r="W41" s="252"/>
+      <c r="X41" s="252"/>
+      <c r="Y41" s="252"/>
+      <c r="Z41" s="252"/>
+      <c r="AA41" s="252"/>
+      <c r="AB41" s="252"/>
+      <c r="AC41" s="252"/>
+      <c r="AD41" s="252"/>
+      <c r="AE41" s="252"/>
+      <c r="AF41" s="252"/>
+      <c r="AG41" s="252"/>
+      <c r="AH41" s="252"/>
+      <c r="AI41" s="529"/>
+      <c r="AJ41" s="252"/>
+      <c r="AK41" s="252"/>
+      <c r="AL41" s="252"/>
+    </row>
+  </sheetData>
+  <mergeCells count="134">
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="U20:U21"/>
     <mergeCell ref="V20:V21"/>
     <mergeCell ref="W20:W21"/>
     <mergeCell ref="X20:X21"/>
     <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="Q20:Q21"/>
@@ -24676,7 +27216,6 @@
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
     <mergeCell ref="AK8:AK9"/>
     <mergeCell ref="AL8:AL9"/>
     <mergeCell ref="A20:A21"/>
@@ -24748,20 +27287,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>

--- a/PSP/uploads/resources/PSP_August__2023.xlsx
+++ b/PSP/uploads/resources/PSP_August__2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell Latitude E5285\PycharmProjects\PluckingSchemePrograme\PSP\uploads\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BBC54-4EAA-4374-A949-176A72A8A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F03AFC6-C62E-4E88-B8EF-28B0134EBD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="62">
   <si>
     <t xml:space="preserve">PROGRAM SCHEME  PLUCKING . </t>
   </si>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>Fields</t>
+  </si>
+  <si>
+    <t>Growing Days CF</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Zone/Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fields</t>
   </si>
 </sst>
 </file>
@@ -2369,556 +2387,556 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3301,32 +3319,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="400" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
-      <c r="J1" s="398"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
     </row>
     <row r="2" spans="1:44" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="401" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
-      <c r="F2" s="399"/>
-      <c r="G2" s="399"/>
-      <c r="H2" s="399"/>
-      <c r="I2" s="399"/>
-      <c r="J2" s="399"/>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -3358,20 +3376,20 @@
         <v>ZONE A</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="402" t="str">
+      <c r="X3" s="404" t="str">
         <f>A24</f>
         <v>ZONE B</v>
       </c>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="404" t="str">
+      <c r="Y3" s="405"/>
+      <c r="Z3" s="406" t="str">
         <f>A37</f>
         <v>ZONE C</v>
       </c>
-      <c r="AA3" s="405"/>
-      <c r="AB3" s="400" t="s">
+      <c r="AA3" s="407"/>
+      <c r="AB3" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="401"/>
+      <c r="AC3" s="403"/>
     </row>
     <row r="4" spans="1:44" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -3395,31 +3413,31 @@
       <c r="K4" s="107">
         <v>26</v>
       </c>
-      <c r="Q4" s="349" t="s">
+      <c r="Q4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="349"/>
-      <c r="S4" s="349"/>
-      <c r="T4" s="349"/>
-      <c r="V4" s="355">
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
+      <c r="V4" s="357">
         <v>1292312</v>
       </c>
-      <c r="W4" s="356"/>
-      <c r="X4" s="356">
+      <c r="W4" s="358"/>
+      <c r="X4" s="358">
         <v>1136888</v>
       </c>
-      <c r="Y4" s="356"/>
-      <c r="Z4" s="356">
+      <c r="Y4" s="358"/>
+      <c r="Z4" s="358">
         <v>1145152</v>
       </c>
-      <c r="AA4" s="357"/>
-      <c r="AB4" s="352">
+      <c r="AA4" s="359"/>
+      <c r="AB4" s="354">
         <f>SUM(V4:AA4)</f>
         <v>3574352</v>
       </c>
-      <c r="AC4" s="353"/>
-      <c r="AF4" s="347"/>
-      <c r="AG4" s="348"/>
+      <c r="AC4" s="355"/>
+      <c r="AF4" s="349"/>
+      <c r="AG4" s="350"/>
       <c r="AH4" s="108"/>
       <c r="AK4" s="20"/>
       <c r="AL4" s="20"/>
@@ -3435,244 +3453,244 @@
       <c r="O5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="349" t="s">
+      <c r="Q5" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="V5" s="350">
+      <c r="R5" s="351"/>
+      <c r="S5" s="351"/>
+      <c r="T5" s="351"/>
+      <c r="V5" s="352">
         <f>(F20)*$I$4*$K$4</f>
         <v>70474.444444444453</v>
       </c>
-      <c r="W5" s="351"/>
-      <c r="X5" s="350">
+      <c r="W5" s="353"/>
+      <c r="X5" s="352">
         <f>(F33)*$I$4*$K$4</f>
         <v>81394.444444444453</v>
       </c>
-      <c r="Y5" s="351"/>
-      <c r="Z5" s="350">
+      <c r="Y5" s="353"/>
+      <c r="Z5" s="352">
         <f>(F45)*$I$4*$K$4</f>
         <v>78209.444444444453</v>
       </c>
-      <c r="AA5" s="351"/>
-      <c r="AB5" s="352">
+      <c r="AA5" s="353"/>
+      <c r="AB5" s="354">
         <f t="shared" ref="AB5:AB6" si="0">SUM(R5:AA5)</f>
         <v>230078.33333333337</v>
       </c>
-      <c r="AC5" s="353"/>
-      <c r="AF5" s="354"/>
-      <c r="AG5" s="354"/>
+      <c r="AC5" s="355"/>
+      <c r="AF5" s="356"/>
+      <c r="AG5" s="356"/>
       <c r="AP5" s="109">
         <v>1</v>
       </c>
-      <c r="AQ5" s="374" t="s">
+      <c r="AQ5" s="376" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="375"/>
+      <c r="AR5" s="377"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="349" t="s">
+      <c r="Q6" s="351" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="349"/>
-      <c r="S6" s="349"/>
-      <c r="T6" s="349"/>
-      <c r="V6" s="376">
+      <c r="R6" s="351"/>
+      <c r="S6" s="351"/>
+      <c r="T6" s="351"/>
+      <c r="V6" s="378">
         <f>V5/$K$4</f>
         <v>2710.5555555555557</v>
       </c>
-      <c r="W6" s="377"/>
-      <c r="X6" s="376">
+      <c r="W6" s="379"/>
+      <c r="X6" s="378">
         <f t="shared" ref="X6" si="1">X5/$K$4</f>
         <v>3130.5555555555557</v>
       </c>
-      <c r="Y6" s="377"/>
-      <c r="Z6" s="376">
+      <c r="Y6" s="379"/>
+      <c r="Z6" s="378">
         <f t="shared" ref="Z6" si="2">Z5/$K$4</f>
         <v>3008.0555555555557</v>
       </c>
-      <c r="AA6" s="377"/>
-      <c r="AB6" s="378">
+      <c r="AA6" s="379"/>
+      <c r="AB6" s="380">
         <f t="shared" si="0"/>
         <v>8849.1666666666679</v>
       </c>
-      <c r="AC6" s="379"/>
-      <c r="AF6" s="354"/>
-      <c r="AG6" s="354"/>
-      <c r="AQ6" s="380" t="s">
+      <c r="AC6" s="381"/>
+      <c r="AF6" s="356"/>
+      <c r="AG6" s="356"/>
+      <c r="AQ6" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="AR6" s="381"/>
+      <c r="AR6" s="383"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="392" t="s">
+      <c r="A8" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="394" t="s">
+      <c r="B8" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="396" t="s">
+      <c r="C8" s="398" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="387" t="s">
+      <c r="D8" s="389" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="387" t="s">
+      <c r="E8" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="387" t="s">
+      <c r="F8" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="368" t="s">
+      <c r="G8" s="370" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="364">
+      <c r="H8" s="366">
         <v>1</v>
       </c>
-      <c r="I8" s="364">
+      <c r="I8" s="366">
         <v>2</v>
       </c>
-      <c r="J8" s="370">
+      <c r="J8" s="372">
         <v>3</v>
       </c>
-      <c r="K8" s="364">
+      <c r="K8" s="366">
         <v>4</v>
       </c>
-      <c r="L8" s="364">
+      <c r="L8" s="366">
         <v>5</v>
       </c>
-      <c r="M8" s="364">
+      <c r="M8" s="366">
         <v>6</v>
       </c>
-      <c r="N8" s="364">
+      <c r="N8" s="366">
         <v>7</v>
       </c>
-      <c r="O8" s="364">
+      <c r="O8" s="366">
         <v>8</v>
       </c>
-      <c r="P8" s="364">
+      <c r="P8" s="366">
         <v>9</v>
       </c>
-      <c r="Q8" s="370">
+      <c r="Q8" s="372">
         <v>10</v>
       </c>
-      <c r="R8" s="364">
+      <c r="R8" s="366">
         <v>11</v>
       </c>
-      <c r="S8" s="364">
+      <c r="S8" s="366">
         <v>12</v>
       </c>
-      <c r="T8" s="364">
+      <c r="T8" s="366">
         <v>13</v>
       </c>
-      <c r="U8" s="364">
+      <c r="U8" s="366">
         <v>14</v>
       </c>
-      <c r="V8" s="364">
+      <c r="V8" s="366">
         <v>15</v>
       </c>
-      <c r="W8" s="364">
+      <c r="W8" s="366">
         <v>16</v>
       </c>
-      <c r="X8" s="370">
+      <c r="X8" s="372">
         <v>17</v>
       </c>
-      <c r="Y8" s="364">
+      <c r="Y8" s="366">
         <v>18</v>
       </c>
-      <c r="Z8" s="364">
+      <c r="Z8" s="366">
         <v>19</v>
       </c>
-      <c r="AA8" s="364">
+      <c r="AA8" s="366">
         <v>20</v>
       </c>
-      <c r="AB8" s="372">
+      <c r="AB8" s="374">
         <v>21</v>
       </c>
-      <c r="AC8" s="372">
+      <c r="AC8" s="374">
         <v>22</v>
       </c>
-      <c r="AD8" s="372">
+      <c r="AD8" s="374">
         <v>23</v>
       </c>
-      <c r="AE8" s="385">
+      <c r="AE8" s="387">
         <v>24</v>
       </c>
-      <c r="AF8" s="364">
+      <c r="AF8" s="366">
         <v>25</v>
       </c>
-      <c r="AG8" s="364">
+      <c r="AG8" s="366">
         <v>26</v>
       </c>
-      <c r="AH8" s="364">
+      <c r="AH8" s="366">
         <v>27</v>
       </c>
-      <c r="AI8" s="366">
+      <c r="AI8" s="368">
         <v>28</v>
       </c>
-      <c r="AJ8" s="346">
+      <c r="AJ8" s="348">
         <v>29</v>
       </c>
-      <c r="AK8" s="346">
+      <c r="AK8" s="348">
         <v>30</v>
       </c>
-      <c r="AL8" s="346">
+      <c r="AL8" s="348">
         <v>31</v>
       </c>
       <c r="AN8" s="109"/>
-      <c r="AO8" s="358"/>
-      <c r="AP8" s="359"/>
-      <c r="AQ8" s="359"/>
-      <c r="AR8" s="360"/>
+      <c r="AO8" s="360"/>
+      <c r="AP8" s="361"/>
+      <c r="AQ8" s="361"/>
+      <c r="AR8" s="362"/>
     </row>
     <row r="9" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="393"/>
-      <c r="B9" s="395"/>
-      <c r="C9" s="397"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="369"/>
-      <c r="H9" s="365"/>
-      <c r="I9" s="365"/>
-      <c r="J9" s="371"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="365"/>
-      <c r="M9" s="365"/>
-      <c r="N9" s="365"/>
-      <c r="O9" s="365"/>
-      <c r="P9" s="365"/>
-      <c r="Q9" s="371"/>
-      <c r="R9" s="365"/>
-      <c r="S9" s="365"/>
-      <c r="T9" s="365"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="365"/>
-      <c r="W9" s="365"/>
-      <c r="X9" s="371"/>
-      <c r="Y9" s="365"/>
-      <c r="Z9" s="365"/>
-      <c r="AA9" s="365"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="373"/>
-      <c r="AD9" s="373"/>
-      <c r="AE9" s="386"/>
-      <c r="AF9" s="365"/>
-      <c r="AG9" s="365"/>
-      <c r="AH9" s="365"/>
-      <c r="AI9" s="367"/>
-      <c r="AJ9" s="346"/>
-      <c r="AK9" s="346"/>
-      <c r="AL9" s="346"/>
-      <c r="AO9" s="361"/>
-      <c r="AP9" s="362"/>
-      <c r="AQ9" s="362"/>
-      <c r="AR9" s="363"/>
+      <c r="A9" s="395"/>
+      <c r="B9" s="397"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="390"/>
+      <c r="G9" s="371"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="373"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="367"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="367"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="367"/>
+      <c r="S9" s="367"/>
+      <c r="T9" s="367"/>
+      <c r="U9" s="367"/>
+      <c r="V9" s="367"/>
+      <c r="W9" s="367"/>
+      <c r="X9" s="373"/>
+      <c r="Y9" s="367"/>
+      <c r="Z9" s="367"/>
+      <c r="AA9" s="367"/>
+      <c r="AB9" s="375"/>
+      <c r="AC9" s="375"/>
+      <c r="AD9" s="375"/>
+      <c r="AE9" s="388"/>
+      <c r="AF9" s="367"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="367"/>
+      <c r="AI9" s="369"/>
+      <c r="AJ9" s="348"/>
+      <c r="AK9" s="348"/>
+      <c r="AL9" s="348"/>
+      <c r="AO9" s="363"/>
+      <c r="AP9" s="364"/>
+      <c r="AQ9" s="364"/>
+      <c r="AR9" s="365"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
@@ -3711,10 +3729,10 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="25"/>
-      <c r="AO10" s="361"/>
-      <c r="AP10" s="362"/>
-      <c r="AQ10" s="362"/>
-      <c r="AR10" s="363"/>
+      <c r="AO10" s="363"/>
+      <c r="AP10" s="364"/>
+      <c r="AQ10" s="364"/>
+      <c r="AR10" s="365"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="72">
@@ -4453,25 +4471,25 @@
       <c r="AR21" s="79"/>
     </row>
     <row r="22" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="382" t="s">
+      <c r="A22" s="384" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="383" t="s">
+      <c r="B22" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="351" t="s">
+      <c r="C22" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="384" t="s">
+      <c r="D22" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="384" t="s">
+      <c r="E22" s="386" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="384" t="s">
+      <c r="F22" s="386" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="384" t="s">
+      <c r="G22" s="386" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="26"/>
@@ -4859,13 +4877,13 @@
       <c r="NZ22" s="47"/>
     </row>
     <row r="23" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="382"/>
-      <c r="B23" s="383"/>
-      <c r="C23" s="351"/>
-      <c r="D23" s="384"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="384"/>
+      <c r="A23" s="384"/>
+      <c r="B23" s="385"/>
+      <c r="C23" s="353"/>
+      <c r="D23" s="386"/>
+      <c r="E23" s="386"/>
+      <c r="F23" s="386"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="26"/>
       <c r="I23" s="120"/>
       <c r="J23" s="148"/>
@@ -6332,25 +6350,25 @@
       <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A35" s="390" t="s">
+      <c r="A35" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="383" t="s">
+      <c r="B35" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="351" t="s">
+      <c r="C35" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="384" t="s">
+      <c r="D35" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="384" t="s">
+      <c r="E35" s="386" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="384" t="s">
+      <c r="F35" s="386" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="389" t="s">
+      <c r="G35" s="391" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="26"/>
@@ -6390,13 +6408,13 @@
       <c r="AR35" s="77"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A36" s="391"/>
-      <c r="B36" s="383"/>
-      <c r="C36" s="351"/>
-      <c r="D36" s="384"/>
-      <c r="E36" s="384"/>
-      <c r="F36" s="384"/>
-      <c r="G36" s="389"/>
+      <c r="A36" s="393"/>
+      <c r="B36" s="385"/>
+      <c r="C36" s="353"/>
+      <c r="D36" s="386"/>
+      <c r="E36" s="386"/>
+      <c r="F36" s="386"/>
+      <c r="G36" s="391"/>
       <c r="H36" s="26"/>
       <c r="I36" s="120"/>
       <c r="J36" s="148"/>
@@ -7232,32 +7250,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="459" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
     </row>
     <row r="2" spans="1:44" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="460" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
+      <c r="B2" s="460"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -7289,20 +7307,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="402" t="str">
+      <c r="X3" s="404" t="str">
         <f>A22</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="404" t="str">
+      <c r="Y3" s="405"/>
+      <c r="Z3" s="406" t="str">
         <f>A33</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="405"/>
-      <c r="AB3" s="459" t="s">
+      <c r="AA3" s="407"/>
+      <c r="AB3" s="461" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="460"/>
+      <c r="AC3" s="462"/>
     </row>
     <row r="4" spans="1:44" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="55" t="s">
@@ -7326,29 +7344,29 @@
       <c r="K4" s="43">
         <v>26</v>
       </c>
-      <c r="Q4" s="441" t="s">
+      <c r="Q4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="441"/>
-      <c r="S4" s="441"/>
-      <c r="T4" s="441"/>
-      <c r="V4" s="454">
+      <c r="R4" s="443"/>
+      <c r="S4" s="443"/>
+      <c r="T4" s="443"/>
+      <c r="V4" s="456">
         <v>1177277</v>
       </c>
-      <c r="W4" s="455"/>
-      <c r="X4" s="455">
+      <c r="W4" s="457"/>
+      <c r="X4" s="457">
         <v>921214</v>
       </c>
-      <c r="Y4" s="455"/>
-      <c r="Z4" s="455">
+      <c r="Y4" s="457"/>
+      <c r="Z4" s="457">
         <v>1127157</v>
       </c>
-      <c r="AA4" s="456"/>
-      <c r="AB4" s="452">
+      <c r="AA4" s="458"/>
+      <c r="AB4" s="454">
         <f>SUM(V4:AA4)</f>
         <v>3225648</v>
       </c>
-      <c r="AC4" s="453"/>
+      <c r="AC4" s="455"/>
       <c r="AH4" s="2"/>
       <c r="AL4" s="68"/>
       <c r="AO4" s="2"/>
@@ -7363,245 +7381,245 @@
       <c r="O5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="441" t="s">
+      <c r="Q5" s="443" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="441"/>
-      <c r="S5" s="441"/>
-      <c r="T5" s="441"/>
-      <c r="V5" s="449">
+      <c r="R5" s="443"/>
+      <c r="S5" s="443"/>
+      <c r="T5" s="443"/>
+      <c r="V5" s="451">
         <f>(F18)*$I$4*$K$4</f>
         <v>119883.21428571428</v>
       </c>
-      <c r="W5" s="450"/>
-      <c r="X5" s="450">
+      <c r="W5" s="452"/>
+      <c r="X5" s="452">
         <f>(F29)*$I$4*$K$4</f>
         <v>138320</v>
       </c>
-      <c r="Y5" s="450"/>
-      <c r="Z5" s="450">
+      <c r="Y5" s="452"/>
+      <c r="Z5" s="452">
         <f>(F42)*$I$4*$K$4</f>
         <v>144337.1428571429</v>
       </c>
-      <c r="AA5" s="451"/>
-      <c r="AB5" s="452">
+      <c r="AA5" s="453"/>
+      <c r="AB5" s="454">
         <f t="shared" ref="AB5:AB6" si="0">SUM(V5:AA5)</f>
         <v>402540.35714285716</v>
       </c>
-      <c r="AC5" s="453"/>
+      <c r="AC5" s="455"/>
       <c r="AL5" s="69"/>
       <c r="AP5" s="3">
         <v>1</v>
       </c>
-      <c r="AQ5" s="439" t="s">
+      <c r="AQ5" s="441" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="440"/>
+      <c r="AR5" s="442"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="441" t="s">
+      <c r="Q6" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="441"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="441"/>
-      <c r="V6" s="442">
+      <c r="R6" s="443"/>
+      <c r="S6" s="443"/>
+      <c r="T6" s="443"/>
+      <c r="V6" s="444">
         <f>V5/$K$4</f>
         <v>4610.8928571428569</v>
       </c>
-      <c r="W6" s="443"/>
-      <c r="X6" s="443">
+      <c r="W6" s="445"/>
+      <c r="X6" s="445">
         <f>X5/$K$4</f>
         <v>5320</v>
       </c>
-      <c r="Y6" s="443"/>
-      <c r="Z6" s="443">
+      <c r="Y6" s="445"/>
+      <c r="Z6" s="445">
         <f>Z5/$K$4</f>
         <v>5551.4285714285734</v>
       </c>
-      <c r="AA6" s="444"/>
-      <c r="AB6" s="445">
+      <c r="AA6" s="446"/>
+      <c r="AB6" s="447">
         <f t="shared" si="0"/>
         <v>15482.321428571431</v>
       </c>
-      <c r="AC6" s="446"/>
-      <c r="AQ6" s="447" t="s">
+      <c r="AC6" s="448"/>
+      <c r="AQ6" s="449" t="s">
         <v>17</v>
       </c>
-      <c r="AR6" s="448"/>
+      <c r="AR6" s="450"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="429" t="s">
+      <c r="A8" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="431" t="s">
+      <c r="B8" s="433" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="433" t="s">
+      <c r="C8" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="435" t="s">
+      <c r="D8" s="437" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="435" t="s">
+      <c r="E8" s="437" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="435" t="s">
+      <c r="F8" s="437" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="437" t="s">
+      <c r="G8" s="439" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="364">
+      <c r="H8" s="366">
         <v>1</v>
       </c>
-      <c r="I8" s="364">
+      <c r="I8" s="366">
         <v>2</v>
       </c>
-      <c r="J8" s="370">
+      <c r="J8" s="372">
         <v>3</v>
       </c>
-      <c r="K8" s="364">
+      <c r="K8" s="366">
         <v>4</v>
       </c>
-      <c r="L8" s="364">
+      <c r="L8" s="366">
         <v>5</v>
       </c>
-      <c r="M8" s="364">
+      <c r="M8" s="366">
         <v>6</v>
       </c>
-      <c r="N8" s="364">
+      <c r="N8" s="366">
         <v>7</v>
       </c>
-      <c r="O8" s="364">
+      <c r="O8" s="366">
         <v>8</v>
       </c>
-      <c r="P8" s="364">
+      <c r="P8" s="366">
         <v>9</v>
       </c>
-      <c r="Q8" s="370">
+      <c r="Q8" s="372">
         <v>10</v>
       </c>
-      <c r="R8" s="364">
+      <c r="R8" s="366">
         <v>11</v>
       </c>
-      <c r="S8" s="364">
+      <c r="S8" s="366">
         <v>12</v>
       </c>
-      <c r="T8" s="364">
+      <c r="T8" s="366">
         <v>13</v>
       </c>
-      <c r="U8" s="364">
+      <c r="U8" s="366">
         <v>14</v>
       </c>
-      <c r="V8" s="364">
+      <c r="V8" s="366">
         <v>15</v>
       </c>
-      <c r="W8" s="364">
+      <c r="W8" s="366">
         <v>16</v>
       </c>
-      <c r="X8" s="370">
+      <c r="X8" s="372">
         <v>17</v>
       </c>
-      <c r="Y8" s="364">
+      <c r="Y8" s="366">
         <v>18</v>
       </c>
-      <c r="Z8" s="364">
+      <c r="Z8" s="366">
         <v>19</v>
       </c>
-      <c r="AA8" s="364">
+      <c r="AA8" s="366">
         <v>20</v>
       </c>
-      <c r="AB8" s="372">
+      <c r="AB8" s="374">
         <v>21</v>
       </c>
-      <c r="AC8" s="372">
+      <c r="AC8" s="374">
         <v>22</v>
       </c>
-      <c r="AD8" s="372">
+      <c r="AD8" s="374">
         <v>23</v>
       </c>
-      <c r="AE8" s="385">
+      <c r="AE8" s="387">
         <v>24</v>
       </c>
-      <c r="AF8" s="364">
+      <c r="AF8" s="366">
         <v>25</v>
       </c>
-      <c r="AG8" s="364">
+      <c r="AG8" s="366">
         <v>26</v>
       </c>
-      <c r="AH8" s="364">
+      <c r="AH8" s="366">
         <v>27</v>
       </c>
-      <c r="AI8" s="364">
+      <c r="AI8" s="366">
         <v>28</v>
       </c>
-      <c r="AJ8" s="364">
+      <c r="AJ8" s="366">
         <v>29</v>
       </c>
-      <c r="AK8" s="364">
+      <c r="AK8" s="366">
         <v>30</v>
       </c>
-      <c r="AL8" s="412">
+      <c r="AL8" s="414">
         <v>31</v>
       </c>
       <c r="AM8" s="47"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="414"/>
-      <c r="AP8" s="415"/>
-      <c r="AQ8" s="415"/>
-      <c r="AR8" s="416"/>
+      <c r="AO8" s="416"/>
+      <c r="AP8" s="417"/>
+      <c r="AQ8" s="417"/>
+      <c r="AR8" s="418"/>
     </row>
     <row r="9" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="430"/>
-      <c r="B9" s="432"/>
-      <c r="C9" s="434"/>
-      <c r="D9" s="436"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="436"/>
-      <c r="G9" s="438"/>
-      <c r="H9" s="365"/>
-      <c r="I9" s="365"/>
-      <c r="J9" s="371"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="365"/>
-      <c r="M9" s="365"/>
-      <c r="N9" s="365"/>
-      <c r="O9" s="365"/>
-      <c r="P9" s="365"/>
-      <c r="Q9" s="371"/>
-      <c r="R9" s="365"/>
-      <c r="S9" s="365"/>
-      <c r="T9" s="365"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="365"/>
-      <c r="W9" s="365"/>
-      <c r="X9" s="371"/>
-      <c r="Y9" s="365"/>
-      <c r="Z9" s="365"/>
-      <c r="AA9" s="365"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="428"/>
-      <c r="AD9" s="428"/>
-      <c r="AE9" s="386"/>
-      <c r="AF9" s="365"/>
-      <c r="AG9" s="365"/>
-      <c r="AH9" s="365"/>
-      <c r="AI9" s="365"/>
-      <c r="AJ9" s="365"/>
-      <c r="AK9" s="365"/>
-      <c r="AL9" s="413"/>
+      <c r="A9" s="432"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="436"/>
+      <c r="D9" s="438"/>
+      <c r="E9" s="438"/>
+      <c r="F9" s="438"/>
+      <c r="G9" s="440"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="373"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="367"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="367"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="367"/>
+      <c r="S9" s="367"/>
+      <c r="T9" s="367"/>
+      <c r="U9" s="367"/>
+      <c r="V9" s="367"/>
+      <c r="W9" s="367"/>
+      <c r="X9" s="373"/>
+      <c r="Y9" s="367"/>
+      <c r="Z9" s="367"/>
+      <c r="AA9" s="367"/>
+      <c r="AB9" s="375"/>
+      <c r="AC9" s="430"/>
+      <c r="AD9" s="430"/>
+      <c r="AE9" s="388"/>
+      <c r="AF9" s="367"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="367"/>
+      <c r="AI9" s="367"/>
+      <c r="AJ9" s="367"/>
+      <c r="AK9" s="367"/>
+      <c r="AL9" s="415"/>
       <c r="AM9" s="47"/>
-      <c r="AO9" s="417"/>
-      <c r="AP9" s="418"/>
-      <c r="AQ9" s="418"/>
-      <c r="AR9" s="419"/>
+      <c r="AO9" s="419"/>
+      <c r="AP9" s="420"/>
+      <c r="AQ9" s="420"/>
+      <c r="AR9" s="421"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
@@ -8280,25 +8298,25 @@
       <c r="AR19" s="57"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A20" s="420" t="s">
+      <c r="A20" s="422" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="422" t="s">
+      <c r="B20" s="424" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="424" t="s">
+      <c r="C20" s="426" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="426" t="s">
+      <c r="D20" s="428" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="428" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="426" t="s">
+      <c r="F20" s="428" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="426" t="s">
+      <c r="G20" s="428" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="26"/>
@@ -8339,13 +8357,13 @@
       <c r="AR20" s="7"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A21" s="421"/>
-      <c r="B21" s="423"/>
-      <c r="C21" s="425"/>
-      <c r="D21" s="427"/>
-      <c r="E21" s="427"/>
-      <c r="F21" s="427"/>
-      <c r="G21" s="427"/>
+      <c r="A21" s="423"/>
+      <c r="B21" s="425"/>
+      <c r="C21" s="427"/>
+      <c r="D21" s="429"/>
+      <c r="E21" s="429"/>
+      <c r="F21" s="429"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="26"/>
       <c r="I21" s="120"/>
       <c r="J21" s="148"/>
@@ -9000,25 +9018,25 @@
       <c r="AR30" s="7"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A31" s="407" t="s">
+      <c r="A31" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="409" t="s">
+      <c r="B31" s="411" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="410" t="s">
+      <c r="C31" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="411" t="s">
+      <c r="D31" s="413" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="411" t="s">
+      <c r="E31" s="413" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="411" t="s">
+      <c r="F31" s="413" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="406" t="s">
+      <c r="G31" s="408" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="26"/>
@@ -9059,13 +9077,13 @@
       <c r="AR31" s="7"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A32" s="408"/>
-      <c r="B32" s="409"/>
-      <c r="C32" s="410"/>
-      <c r="D32" s="411"/>
-      <c r="E32" s="411"/>
-      <c r="F32" s="411"/>
-      <c r="G32" s="406"/>
+      <c r="A32" s="410"/>
+      <c r="B32" s="411"/>
+      <c r="C32" s="412"/>
+      <c r="D32" s="413"/>
+      <c r="E32" s="413"/>
+      <c r="F32" s="413"/>
+      <c r="G32" s="408"/>
       <c r="H32" s="26"/>
       <c r="I32" s="120"/>
       <c r="J32" s="148"/>
@@ -9962,32 +9980,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="459" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
     </row>
     <row r="2" spans="1:45" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="460" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
+      <c r="B2" s="460"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -10019,20 +10037,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="402" t="str">
+      <c r="X3" s="404" t="str">
         <f>A22</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="404" t="str">
+      <c r="Y3" s="405"/>
+      <c r="Z3" s="406" t="str">
         <f>A34</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="405"/>
-      <c r="AB3" s="459" t="s">
+      <c r="AA3" s="407"/>
+      <c r="AB3" s="461" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="460"/>
+      <c r="AC3" s="462"/>
     </row>
     <row r="4" spans="1:45" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="55" t="s">
@@ -10056,29 +10074,29 @@
       <c r="K4" s="43">
         <v>26</v>
       </c>
-      <c r="Q4" s="441" t="s">
+      <c r="Q4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="441"/>
-      <c r="S4" s="441"/>
-      <c r="T4" s="441"/>
-      <c r="V4" s="454">
+      <c r="R4" s="443"/>
+      <c r="S4" s="443"/>
+      <c r="T4" s="443"/>
+      <c r="V4" s="456">
         <v>1177277</v>
       </c>
-      <c r="W4" s="455"/>
-      <c r="X4" s="455">
+      <c r="W4" s="457"/>
+      <c r="X4" s="457">
         <v>921214</v>
       </c>
-      <c r="Y4" s="455"/>
-      <c r="Z4" s="455">
+      <c r="Y4" s="457"/>
+      <c r="Z4" s="457">
         <v>1127157</v>
       </c>
-      <c r="AA4" s="456"/>
-      <c r="AB4" s="452">
+      <c r="AA4" s="458"/>
+      <c r="AB4" s="454">
         <f>SUM(V4:AA4)</f>
         <v>3225648</v>
       </c>
-      <c r="AC4" s="453"/>
+      <c r="AC4" s="455"/>
       <c r="AH4" s="2"/>
       <c r="AM4" s="68"/>
       <c r="AP4" s="2"/>
@@ -10093,249 +10111,249 @@
       <c r="O5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="441" t="s">
+      <c r="Q5" s="443" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="441"/>
-      <c r="S5" s="441"/>
-      <c r="T5" s="441"/>
-      <c r="V5" s="449">
+      <c r="R5" s="443"/>
+      <c r="S5" s="443"/>
+      <c r="T5" s="443"/>
+      <c r="V5" s="451">
         <f>(F18)*$I$4*$K$4</f>
         <v>132189.10714285713</v>
       </c>
-      <c r="W5" s="450"/>
-      <c r="X5" s="450">
+      <c r="W5" s="452"/>
+      <c r="X5" s="452">
         <f>(F30)*$I$4*$K$4</f>
         <v>126350.71428571428</v>
       </c>
-      <c r="Y5" s="450"/>
-      <c r="Z5" s="450">
+      <c r="Y5" s="452"/>
+      <c r="Z5" s="452">
         <f>(F42)*$I$4*$K$4</f>
         <v>148179.10714285716</v>
       </c>
-      <c r="AA5" s="451"/>
-      <c r="AB5" s="452">
+      <c r="AA5" s="453"/>
+      <c r="AB5" s="454">
         <f t="shared" ref="AB5:AB6" si="0">SUM(V5:AA5)</f>
         <v>406718.92857142858</v>
       </c>
-      <c r="AC5" s="453"/>
+      <c r="AC5" s="455"/>
       <c r="AM5" s="69"/>
       <c r="AQ5" s="3">
         <v>1</v>
       </c>
-      <c r="AR5" s="439" t="s">
+      <c r="AR5" s="441" t="s">
         <v>16</v>
       </c>
-      <c r="AS5" s="440"/>
+      <c r="AS5" s="442"/>
     </row>
     <row r="6" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="441" t="s">
+      <c r="Q6" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="441"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="441"/>
-      <c r="V6" s="442">
+      <c r="R6" s="443"/>
+      <c r="S6" s="443"/>
+      <c r="T6" s="443"/>
+      <c r="V6" s="444">
         <f>V5/$K$4</f>
         <v>5084.1964285714284</v>
       </c>
-      <c r="W6" s="443"/>
-      <c r="X6" s="443">
+      <c r="W6" s="445"/>
+      <c r="X6" s="445">
         <f>X5/$K$4</f>
         <v>4859.6428571428569</v>
       </c>
-      <c r="Y6" s="443"/>
-      <c r="Z6" s="443">
+      <c r="Y6" s="445"/>
+      <c r="Z6" s="445">
         <f>Z5/$K$4</f>
         <v>5699.1964285714294</v>
       </c>
-      <c r="AA6" s="444"/>
-      <c r="AB6" s="445">
+      <c r="AA6" s="446"/>
+      <c r="AB6" s="447">
         <f t="shared" si="0"/>
         <v>15643.035714285716</v>
       </c>
-      <c r="AC6" s="446"/>
-      <c r="AR6" s="447" t="s">
+      <c r="AC6" s="448"/>
+      <c r="AR6" s="449" t="s">
         <v>17</v>
       </c>
-      <c r="AS6" s="448"/>
+      <c r="AS6" s="450"/>
     </row>
     <row r="7" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A8" s="429" t="s">
+      <c r="A8" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="431" t="s">
+      <c r="B8" s="433" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="433" t="s">
+      <c r="C8" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="435" t="s">
+      <c r="D8" s="437" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="435" t="s">
+      <c r="E8" s="437" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="435" t="s">
+      <c r="F8" s="437" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="437" t="s">
+      <c r="G8" s="439" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="364">
+      <c r="H8" s="366">
         <v>1</v>
       </c>
-      <c r="I8" s="364">
+      <c r="I8" s="366">
         <v>2</v>
       </c>
-      <c r="J8" s="370">
+      <c r="J8" s="372">
         <v>3</v>
       </c>
-      <c r="K8" s="364">
+      <c r="K8" s="366">
         <v>4</v>
       </c>
-      <c r="L8" s="364">
+      <c r="L8" s="366">
         <v>5</v>
       </c>
-      <c r="M8" s="364">
+      <c r="M8" s="366">
         <v>6</v>
       </c>
-      <c r="N8" s="364">
+      <c r="N8" s="366">
         <v>7</v>
       </c>
-      <c r="O8" s="364">
+      <c r="O8" s="366">
         <v>8</v>
       </c>
-      <c r="P8" s="364">
+      <c r="P8" s="366">
         <v>9</v>
       </c>
-      <c r="Q8" s="370">
+      <c r="Q8" s="372">
         <v>10</v>
       </c>
-      <c r="R8" s="364">
+      <c r="R8" s="366">
         <v>11</v>
       </c>
-      <c r="S8" s="364">
+      <c r="S8" s="366">
         <v>12</v>
       </c>
-      <c r="T8" s="364">
+      <c r="T8" s="366">
         <v>13</v>
       </c>
-      <c r="U8" s="364">
+      <c r="U8" s="366">
         <v>14</v>
       </c>
-      <c r="V8" s="364">
+      <c r="V8" s="366">
         <v>15</v>
       </c>
-      <c r="W8" s="364">
+      <c r="W8" s="366">
         <v>16</v>
       </c>
-      <c r="X8" s="370">
+      <c r="X8" s="372">
         <v>17</v>
       </c>
-      <c r="Y8" s="364">
+      <c r="Y8" s="366">
         <v>18</v>
       </c>
-      <c r="Z8" s="364">
+      <c r="Z8" s="366">
         <v>19</v>
       </c>
-      <c r="AA8" s="364">
+      <c r="AA8" s="366">
         <v>20</v>
       </c>
-      <c r="AB8" s="372">
+      <c r="AB8" s="374">
         <v>21</v>
       </c>
-      <c r="AC8" s="372">
+      <c r="AC8" s="374">
         <v>22</v>
       </c>
-      <c r="AD8" s="372">
+      <c r="AD8" s="374">
         <v>23</v>
       </c>
-      <c r="AE8" s="385">
+      <c r="AE8" s="387">
         <v>24</v>
       </c>
-      <c r="AF8" s="364">
+      <c r="AF8" s="366">
         <v>25</v>
       </c>
-      <c r="AG8" s="364">
+      <c r="AG8" s="366">
         <v>26</v>
       </c>
-      <c r="AH8" s="364">
+      <c r="AH8" s="366">
         <v>27</v>
       </c>
-      <c r="AI8" s="364">
+      <c r="AI8" s="366">
         <v>28</v>
       </c>
-      <c r="AJ8" s="364">
+      <c r="AJ8" s="366">
         <v>29</v>
       </c>
-      <c r="AK8" s="372">
+      <c r="AK8" s="374">
         <v>30</v>
       </c>
-      <c r="AL8" s="372">
+      <c r="AL8" s="374">
         <v>31</v>
       </c>
-      <c r="AM8" s="412">
+      <c r="AM8" s="414">
         <v>31</v>
       </c>
       <c r="AN8" s="47"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="414"/>
-      <c r="AQ8" s="415"/>
-      <c r="AR8" s="415"/>
-      <c r="AS8" s="416"/>
+      <c r="AP8" s="416"/>
+      <c r="AQ8" s="417"/>
+      <c r="AR8" s="417"/>
+      <c r="AS8" s="418"/>
     </row>
     <row r="9" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="430"/>
-      <c r="B9" s="432"/>
-      <c r="C9" s="434"/>
-      <c r="D9" s="436"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="436"/>
-      <c r="G9" s="438"/>
-      <c r="H9" s="365"/>
-      <c r="I9" s="365"/>
-      <c r="J9" s="371"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="365"/>
-      <c r="M9" s="365"/>
-      <c r="N9" s="365"/>
-      <c r="O9" s="365"/>
-      <c r="P9" s="365"/>
-      <c r="Q9" s="371"/>
-      <c r="R9" s="365"/>
-      <c r="S9" s="365"/>
-      <c r="T9" s="365"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="365"/>
-      <c r="W9" s="365"/>
-      <c r="X9" s="371"/>
-      <c r="Y9" s="365"/>
-      <c r="Z9" s="365"/>
-      <c r="AA9" s="365"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="428"/>
-      <c r="AD9" s="428"/>
-      <c r="AE9" s="386"/>
-      <c r="AF9" s="365"/>
-      <c r="AG9" s="365"/>
-      <c r="AH9" s="365"/>
-      <c r="AI9" s="365"/>
-      <c r="AJ9" s="365"/>
-      <c r="AK9" s="373"/>
-      <c r="AL9" s="373"/>
-      <c r="AM9" s="413"/>
+      <c r="A9" s="432"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="436"/>
+      <c r="D9" s="438"/>
+      <c r="E9" s="438"/>
+      <c r="F9" s="438"/>
+      <c r="G9" s="440"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="373"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="367"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="367"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="367"/>
+      <c r="S9" s="367"/>
+      <c r="T9" s="367"/>
+      <c r="U9" s="367"/>
+      <c r="V9" s="367"/>
+      <c r="W9" s="367"/>
+      <c r="X9" s="373"/>
+      <c r="Y9" s="367"/>
+      <c r="Z9" s="367"/>
+      <c r="AA9" s="367"/>
+      <c r="AB9" s="375"/>
+      <c r="AC9" s="430"/>
+      <c r="AD9" s="430"/>
+      <c r="AE9" s="388"/>
+      <c r="AF9" s="367"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="367"/>
+      <c r="AI9" s="367"/>
+      <c r="AJ9" s="367"/>
+      <c r="AK9" s="375"/>
+      <c r="AL9" s="375"/>
+      <c r="AM9" s="415"/>
       <c r="AN9" s="47"/>
-      <c r="AP9" s="417"/>
-      <c r="AQ9" s="418"/>
-      <c r="AR9" s="418"/>
-      <c r="AS9" s="419"/>
+      <c r="AP9" s="419"/>
+      <c r="AQ9" s="420"/>
+      <c r="AR9" s="420"/>
+      <c r="AS9" s="421"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
@@ -10998,25 +11016,25 @@
       <c r="AS19" s="57"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A20" s="420" t="s">
+      <c r="A20" s="422" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="422" t="s">
+      <c r="B20" s="424" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="424" t="s">
+      <c r="C20" s="426" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="426" t="s">
+      <c r="D20" s="428" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="428" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="426" t="s">
+      <c r="F20" s="428" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="426" t="s">
+      <c r="G20" s="428" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="26"/>
@@ -11058,13 +11076,13 @@
       <c r="AS20" s="7"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A21" s="421"/>
-      <c r="B21" s="423"/>
-      <c r="C21" s="425"/>
-      <c r="D21" s="427"/>
-      <c r="E21" s="427"/>
-      <c r="F21" s="427"/>
-      <c r="G21" s="427"/>
+      <c r="A21" s="423"/>
+      <c r="B21" s="425"/>
+      <c r="C21" s="427"/>
+      <c r="D21" s="429"/>
+      <c r="E21" s="429"/>
+      <c r="F21" s="429"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="26"/>
       <c r="I21" s="120"/>
       <c r="J21" s="148"/>
@@ -11826,25 +11844,25 @@
       <c r="AS31" s="7"/>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A32" s="407" t="s">
+      <c r="A32" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="409" t="s">
+      <c r="B32" s="411" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="410" t="s">
+      <c r="C32" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="411" t="s">
+      <c r="D32" s="413" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="411" t="s">
+      <c r="E32" s="413" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="411" t="s">
+      <c r="F32" s="413" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="406" t="s">
+      <c r="G32" s="408" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="26"/>
@@ -11886,13 +11904,13 @@
       <c r="AS32" s="7"/>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A33" s="408"/>
-      <c r="B33" s="409"/>
-      <c r="C33" s="410"/>
-      <c r="D33" s="411"/>
-      <c r="E33" s="411"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="406"/>
+      <c r="A33" s="410"/>
+      <c r="B33" s="411"/>
+      <c r="C33" s="412"/>
+      <c r="D33" s="413"/>
+      <c r="E33" s="413"/>
+      <c r="F33" s="413"/>
+      <c r="G33" s="408"/>
       <c r="H33" s="26"/>
       <c r="I33" s="120"/>
       <c r="J33" s="148"/>
@@ -12721,32 +12739,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="400" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
-      <c r="J1" s="398"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
     </row>
     <row r="2" spans="1:44" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="401" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
-      <c r="F2" s="399"/>
-      <c r="G2" s="399"/>
-      <c r="H2" s="399"/>
-      <c r="I2" s="399"/>
-      <c r="J2" s="399"/>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -12778,20 +12796,20 @@
         <v>ZONE A</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="402" t="str">
+      <c r="X3" s="404" t="str">
         <f>A26</f>
         <v>ZONE B</v>
       </c>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="404" t="str">
+      <c r="Y3" s="405"/>
+      <c r="Z3" s="406" t="str">
         <f>A40</f>
         <v>ZONE C</v>
       </c>
-      <c r="AA3" s="405"/>
-      <c r="AB3" s="400" t="s">
+      <c r="AA3" s="407"/>
+      <c r="AB3" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="401"/>
+      <c r="AC3" s="403"/>
     </row>
     <row r="4" spans="1:44" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
@@ -12815,31 +12833,31 @@
       <c r="K4" s="107">
         <v>26</v>
       </c>
-      <c r="Q4" s="349" t="s">
+      <c r="Q4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="349"/>
-      <c r="S4" s="349"/>
-      <c r="T4" s="349"/>
-      <c r="V4" s="355">
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
+      <c r="V4" s="357">
         <v>1292312</v>
       </c>
-      <c r="W4" s="356"/>
-      <c r="X4" s="356">
+      <c r="W4" s="358"/>
+      <c r="X4" s="358">
         <v>1136888</v>
       </c>
-      <c r="Y4" s="356"/>
-      <c r="Z4" s="356">
+      <c r="Y4" s="358"/>
+      <c r="Z4" s="358">
         <v>1145152</v>
       </c>
-      <c r="AA4" s="357"/>
-      <c r="AB4" s="352">
+      <c r="AA4" s="359"/>
+      <c r="AB4" s="354">
         <f>SUM(V4:AA4)</f>
         <v>3574352</v>
       </c>
-      <c r="AC4" s="353"/>
-      <c r="AF4" s="347"/>
-      <c r="AG4" s="348"/>
+      <c r="AC4" s="355"/>
+      <c r="AF4" s="349"/>
+      <c r="AG4" s="350"/>
       <c r="AH4" s="108"/>
       <c r="AK4" s="20"/>
       <c r="AL4" s="20"/>
@@ -12855,244 +12873,244 @@
       <c r="O5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="349" t="s">
+      <c r="Q5" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="V5" s="350">
+      <c r="R5" s="351"/>
+      <c r="S5" s="351"/>
+      <c r="T5" s="351"/>
+      <c r="V5" s="352">
         <f>(F22)*$I$4*$K$4</f>
         <v>100747.11111111111</v>
       </c>
-      <c r="W5" s="351"/>
-      <c r="X5" s="350">
+      <c r="W5" s="353"/>
+      <c r="X5" s="352">
         <f>(F36)*$I$4*$K$4</f>
         <v>86723.000000000015</v>
       </c>
-      <c r="Y5" s="351"/>
-      <c r="Z5" s="350">
+      <c r="Y5" s="353"/>
+      <c r="Z5" s="352">
         <f>(F51)*$I$4*$K$4</f>
         <v>80524.888888888905</v>
       </c>
-      <c r="AA5" s="351"/>
-      <c r="AB5" s="352">
+      <c r="AA5" s="353"/>
+      <c r="AB5" s="354">
         <f t="shared" ref="AB5:AB6" si="0">SUM(R5:AA5)</f>
         <v>267995</v>
       </c>
-      <c r="AC5" s="353"/>
-      <c r="AF5" s="354"/>
-      <c r="AG5" s="354"/>
+      <c r="AC5" s="355"/>
+      <c r="AF5" s="356"/>
+      <c r="AG5" s="356"/>
       <c r="AP5" s="109">
         <v>1</v>
       </c>
-      <c r="AQ5" s="374" t="s">
+      <c r="AQ5" s="376" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="375"/>
+      <c r="AR5" s="377"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="349" t="s">
+      <c r="Q6" s="351" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="349"/>
-      <c r="S6" s="349"/>
-      <c r="T6" s="349"/>
-      <c r="V6" s="376">
+      <c r="R6" s="351"/>
+      <c r="S6" s="351"/>
+      <c r="T6" s="351"/>
+      <c r="V6" s="378">
         <f>V5/$K$4</f>
         <v>3874.8888888888887</v>
       </c>
-      <c r="W6" s="377"/>
-      <c r="X6" s="376">
+      <c r="W6" s="379"/>
+      <c r="X6" s="378">
         <f t="shared" ref="X6" si="1">X5/$K$4</f>
         <v>3335.5000000000005</v>
       </c>
-      <c r="Y6" s="377"/>
-      <c r="Z6" s="376">
+      <c r="Y6" s="379"/>
+      <c r="Z6" s="378">
         <f t="shared" ref="Z6" si="2">Z5/$K$4</f>
         <v>3097.1111111111118</v>
       </c>
-      <c r="AA6" s="377"/>
-      <c r="AB6" s="378">
+      <c r="AA6" s="379"/>
+      <c r="AB6" s="380">
         <f t="shared" si="0"/>
         <v>10307.5</v>
       </c>
-      <c r="AC6" s="379"/>
-      <c r="AF6" s="354"/>
-      <c r="AG6" s="354"/>
-      <c r="AQ6" s="380" t="s">
+      <c r="AC6" s="381"/>
+      <c r="AF6" s="356"/>
+      <c r="AG6" s="356"/>
+      <c r="AQ6" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="AR6" s="381"/>
+      <c r="AR6" s="383"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="392" t="s">
+      <c r="A8" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="394" t="s">
+      <c r="B8" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="396" t="s">
+      <c r="C8" s="398" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="387" t="s">
+      <c r="D8" s="389" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="387" t="s">
+      <c r="E8" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="387" t="s">
+      <c r="F8" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="368" t="s">
+      <c r="G8" s="370" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="364">
+      <c r="H8" s="366">
         <v>1</v>
       </c>
-      <c r="I8" s="364">
+      <c r="I8" s="366">
         <v>2</v>
       </c>
-      <c r="J8" s="370">
+      <c r="J8" s="372">
         <v>3</v>
       </c>
-      <c r="K8" s="364">
+      <c r="K8" s="366">
         <v>4</v>
       </c>
-      <c r="L8" s="364">
+      <c r="L8" s="366">
         <v>5</v>
       </c>
-      <c r="M8" s="364">
+      <c r="M8" s="366">
         <v>6</v>
       </c>
-      <c r="N8" s="364">
+      <c r="N8" s="366">
         <v>7</v>
       </c>
-      <c r="O8" s="364">
+      <c r="O8" s="366">
         <v>8</v>
       </c>
-      <c r="P8" s="364">
+      <c r="P8" s="366">
         <v>9</v>
       </c>
-      <c r="Q8" s="370">
+      <c r="Q8" s="372">
         <v>10</v>
       </c>
-      <c r="R8" s="364">
+      <c r="R8" s="366">
         <v>11</v>
       </c>
-      <c r="S8" s="364">
+      <c r="S8" s="366">
         <v>12</v>
       </c>
-      <c r="T8" s="364">
+      <c r="T8" s="366">
         <v>13</v>
       </c>
-      <c r="U8" s="364">
+      <c r="U8" s="366">
         <v>14</v>
       </c>
-      <c r="V8" s="364">
+      <c r="V8" s="366">
         <v>15</v>
       </c>
-      <c r="W8" s="364">
+      <c r="W8" s="366">
         <v>16</v>
       </c>
-      <c r="X8" s="370">
+      <c r="X8" s="372">
         <v>17</v>
       </c>
-      <c r="Y8" s="364">
+      <c r="Y8" s="366">
         <v>18</v>
       </c>
-      <c r="Z8" s="364">
+      <c r="Z8" s="366">
         <v>19</v>
       </c>
-      <c r="AA8" s="364">
+      <c r="AA8" s="366">
         <v>20</v>
       </c>
-      <c r="AB8" s="372">
+      <c r="AB8" s="374">
         <v>21</v>
       </c>
-      <c r="AC8" s="372">
+      <c r="AC8" s="374">
         <v>22</v>
       </c>
-      <c r="AD8" s="372">
+      <c r="AD8" s="374">
         <v>23</v>
       </c>
-      <c r="AE8" s="385">
+      <c r="AE8" s="387">
         <v>24</v>
       </c>
-      <c r="AF8" s="364">
+      <c r="AF8" s="366">
         <v>25</v>
       </c>
-      <c r="AG8" s="364">
+      <c r="AG8" s="366">
         <v>26</v>
       </c>
-      <c r="AH8" s="364">
+      <c r="AH8" s="366">
         <v>27</v>
       </c>
-      <c r="AI8" s="366">
+      <c r="AI8" s="368">
         <v>28</v>
       </c>
-      <c r="AJ8" s="346">
+      <c r="AJ8" s="348">
         <v>29</v>
       </c>
-      <c r="AK8" s="346">
+      <c r="AK8" s="348">
         <v>30</v>
       </c>
-      <c r="AL8" s="346">
+      <c r="AL8" s="348">
         <v>31</v>
       </c>
       <c r="AN8" s="109"/>
-      <c r="AO8" s="358"/>
-      <c r="AP8" s="359"/>
-      <c r="AQ8" s="359"/>
-      <c r="AR8" s="360"/>
+      <c r="AO8" s="360"/>
+      <c r="AP8" s="361"/>
+      <c r="AQ8" s="361"/>
+      <c r="AR8" s="362"/>
     </row>
     <row r="9" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="393"/>
-      <c r="B9" s="395"/>
-      <c r="C9" s="397"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="369"/>
-      <c r="H9" s="365"/>
-      <c r="I9" s="365"/>
-      <c r="J9" s="371"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="365"/>
-      <c r="M9" s="365"/>
-      <c r="N9" s="365"/>
-      <c r="O9" s="365"/>
-      <c r="P9" s="365"/>
-      <c r="Q9" s="371"/>
-      <c r="R9" s="365"/>
-      <c r="S9" s="365"/>
-      <c r="T9" s="365"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="365"/>
-      <c r="W9" s="365"/>
-      <c r="X9" s="371"/>
-      <c r="Y9" s="365"/>
-      <c r="Z9" s="365"/>
-      <c r="AA9" s="365"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="373"/>
-      <c r="AD9" s="373"/>
-      <c r="AE9" s="386"/>
-      <c r="AF9" s="365"/>
-      <c r="AG9" s="365"/>
-      <c r="AH9" s="365"/>
-      <c r="AI9" s="367"/>
-      <c r="AJ9" s="346"/>
-      <c r="AK9" s="346"/>
-      <c r="AL9" s="346"/>
-      <c r="AO9" s="361"/>
-      <c r="AP9" s="362"/>
-      <c r="AQ9" s="362"/>
-      <c r="AR9" s="363"/>
+      <c r="A9" s="395"/>
+      <c r="B9" s="397"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="390"/>
+      <c r="G9" s="371"/>
+      <c r="H9" s="367"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="373"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="367"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="367"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="367"/>
+      <c r="S9" s="367"/>
+      <c r="T9" s="367"/>
+      <c r="U9" s="367"/>
+      <c r="V9" s="367"/>
+      <c r="W9" s="367"/>
+      <c r="X9" s="373"/>
+      <c r="Y9" s="367"/>
+      <c r="Z9" s="367"/>
+      <c r="AA9" s="367"/>
+      <c r="AB9" s="375"/>
+      <c r="AC9" s="375"/>
+      <c r="AD9" s="375"/>
+      <c r="AE9" s="388"/>
+      <c r="AF9" s="367"/>
+      <c r="AG9" s="367"/>
+      <c r="AH9" s="367"/>
+      <c r="AI9" s="369"/>
+      <c r="AJ9" s="348"/>
+      <c r="AK9" s="348"/>
+      <c r="AL9" s="348"/>
+      <c r="AO9" s="363"/>
+      <c r="AP9" s="364"/>
+      <c r="AQ9" s="364"/>
+      <c r="AR9" s="365"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
@@ -13131,10 +13149,10 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="25"/>
-      <c r="AO10" s="361"/>
-      <c r="AP10" s="362"/>
-      <c r="AQ10" s="362"/>
-      <c r="AR10" s="363"/>
+      <c r="AO10" s="363"/>
+      <c r="AP10" s="364"/>
+      <c r="AQ10" s="364"/>
+      <c r="AR10" s="365"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="72">
@@ -13985,25 +14003,25 @@
       <c r="AR23" s="79"/>
     </row>
     <row r="24" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="382" t="s">
+      <c r="A24" s="384" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="383" t="s">
+      <c r="B24" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="351" t="s">
+      <c r="C24" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="384" t="s">
+      <c r="D24" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="384" t="s">
+      <c r="E24" s="386" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="384" t="s">
+      <c r="F24" s="386" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="384" t="s">
+      <c r="G24" s="386" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="26"/>
@@ -14391,13 +14409,13 @@
       <c r="NZ24" s="47"/>
     </row>
     <row r="25" spans="1:390" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="382"/>
-      <c r="B25" s="383"/>
-      <c r="C25" s="351"/>
-      <c r="D25" s="384"/>
-      <c r="E25" s="384"/>
-      <c r="F25" s="384"/>
-      <c r="G25" s="384"/>
+      <c r="A25" s="384"/>
+      <c r="B25" s="385"/>
+      <c r="C25" s="353"/>
+      <c r="D25" s="386"/>
+      <c r="E25" s="386"/>
+      <c r="F25" s="386"/>
+      <c r="G25" s="386"/>
       <c r="H25" s="26"/>
       <c r="I25" s="120"/>
       <c r="J25" s="148"/>
@@ -15904,25 +15922,25 @@
       <c r="AR37" s="77"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="383" t="s">
+      <c r="B38" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="351" t="s">
+      <c r="C38" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="384" t="s">
+      <c r="D38" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="384" t="s">
+      <c r="E38" s="386" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="384" t="s">
+      <c r="F38" s="386" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="389" t="s">
+      <c r="G38" s="391" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="26"/>
@@ -15962,13 +15980,13 @@
       <c r="AR38" s="77"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A39" s="391"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="351"/>
-      <c r="D39" s="384"/>
-      <c r="E39" s="384"/>
-      <c r="F39" s="384"/>
-      <c r="G39" s="389"/>
+      <c r="A39" s="393"/>
+      <c r="B39" s="385"/>
+      <c r="C39" s="353"/>
+      <c r="D39" s="386"/>
+      <c r="E39" s="386"/>
+      <c r="F39" s="386"/>
+      <c r="G39" s="391"/>
       <c r="H39" s="26"/>
       <c r="I39" s="120"/>
       <c r="J39" s="148"/>
@@ -16960,18 +16978,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="477" t="s">
+      <c r="A1" s="479" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="480"/>
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
       <c r="K1" s="254"/>
       <c r="L1" s="254"/>
       <c r="M1" s="254"/>
@@ -17002,18 +17020,18 @@
       <c r="AL1" s="255"/>
     </row>
     <row r="2" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="479" t="s">
+      <c r="A2" s="481" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
       <c r="Q2" s="334" t="s">
         <v>15</v>
       </c>
@@ -17048,20 +17066,20 @@
         <v>ZONE A</v>
       </c>
       <c r="W3" s="266"/>
-      <c r="X3" s="481" t="str">
+      <c r="X3" s="483" t="str">
         <f>A20</f>
         <v>ZONE B</v>
       </c>
-      <c r="Y3" s="482"/>
-      <c r="Z3" s="481" t="str">
+      <c r="Y3" s="484"/>
+      <c r="Z3" s="483" t="str">
         <f>A31</f>
         <v>ZONE C</v>
       </c>
-      <c r="AA3" s="483"/>
-      <c r="AB3" s="467" t="s">
+      <c r="AA3" s="485"/>
+      <c r="AB3" s="469" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="468"/>
+      <c r="AC3" s="470"/>
       <c r="AI3" s="256"/>
       <c r="AK3" s="256"/>
       <c r="AL3" s="256"/>
@@ -17086,95 +17104,95 @@
       <c r="K4" s="272">
         <v>26</v>
       </c>
-      <c r="Q4" s="486" t="s">
+      <c r="Q4" s="488" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="486"/>
-      <c r="S4" s="486"/>
-      <c r="T4" s="486"/>
-      <c r="V4" s="487">
+      <c r="R4" s="488"/>
+      <c r="S4" s="488"/>
+      <c r="T4" s="488"/>
+      <c r="V4" s="489">
         <v>1219214</v>
       </c>
-      <c r="W4" s="485"/>
-      <c r="X4" s="484">
+      <c r="W4" s="487"/>
+      <c r="X4" s="486">
         <v>1230505</v>
       </c>
-      <c r="Y4" s="485"/>
-      <c r="Z4" s="484">
+      <c r="Y4" s="487"/>
+      <c r="Z4" s="486">
         <v>1154826</v>
       </c>
-      <c r="AA4" s="485"/>
-      <c r="AB4" s="469">
+      <c r="AA4" s="487"/>
+      <c r="AB4" s="471">
         <f>SUM(V4:AA4)</f>
         <v>3604545</v>
       </c>
-      <c r="AC4" s="470"/>
-      <c r="AF4" s="471"/>
-      <c r="AG4" s="471"/>
-      <c r="AH4" s="471"/>
-      <c r="AI4" s="472"/>
+      <c r="AC4" s="472"/>
+      <c r="AF4" s="473"/>
+      <c r="AG4" s="473"/>
+      <c r="AH4" s="473"/>
+      <c r="AI4" s="474"/>
     </row>
     <row r="5" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="273"/>
       <c r="O5" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="486" t="s">
+      <c r="Q5" s="488" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="486"/>
-      <c r="S5" s="486"/>
-      <c r="T5" s="486"/>
-      <c r="V5" s="473">
+      <c r="R5" s="488"/>
+      <c r="S5" s="488"/>
+      <c r="T5" s="488"/>
+      <c r="V5" s="475">
         <f>V4*9%</f>
         <v>109729.26</v>
       </c>
-      <c r="W5" s="474"/>
-      <c r="X5" s="473">
+      <c r="W5" s="476"/>
+      <c r="X5" s="475">
         <f>X4*9%</f>
         <v>110745.45</v>
       </c>
-      <c r="Y5" s="474"/>
-      <c r="Z5" s="473">
+      <c r="Y5" s="476"/>
+      <c r="Z5" s="475">
         <f>Z4*9%</f>
         <v>103934.34</v>
       </c>
-      <c r="AA5" s="474"/>
-      <c r="AB5" s="473">
+      <c r="AA5" s="476"/>
+      <c r="AB5" s="475">
         <f>AB4*9%</f>
         <v>324409.05</v>
       </c>
-      <c r="AC5" s="474"/>
-      <c r="AF5" s="475"/>
-      <c r="AG5" s="475"/>
-      <c r="AH5" s="475"/>
-      <c r="AI5" s="476"/>
+      <c r="AC5" s="476"/>
+      <c r="AF5" s="477"/>
+      <c r="AG5" s="477"/>
+      <c r="AH5" s="477"/>
+      <c r="AI5" s="478"/>
     </row>
     <row r="6" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="267"/>
       <c r="Q6" s="334" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="461">
+      <c r="V6" s="463">
         <f>V5/$K$4</f>
         <v>4220.3561538461536</v>
       </c>
-      <c r="W6" s="462"/>
-      <c r="X6" s="461">
+      <c r="W6" s="464"/>
+      <c r="X6" s="463">
         <f t="shared" ref="X6" si="0">X5/$K$4</f>
         <v>4259.4403846153846</v>
       </c>
-      <c r="Y6" s="462"/>
-      <c r="Z6" s="461">
+      <c r="Y6" s="464"/>
+      <c r="Z6" s="463">
         <f t="shared" ref="Z6" si="1">Z5/$K$4</f>
         <v>3997.4746153846154</v>
       </c>
-      <c r="AA6" s="462"/>
-      <c r="AB6" s="461">
+      <c r="AA6" s="464"/>
+      <c r="AB6" s="463">
         <f>SUM(V6:AA6)</f>
         <v>12477.271153846154</v>
       </c>
-      <c r="AC6" s="462"/>
+      <c r="AC6" s="464"/>
       <c r="AF6" s="332"/>
       <c r="AG6" s="332"/>
       <c r="AH6" s="332"/>
@@ -18066,25 +18084,25 @@
       <c r="AL20" s="290"/>
     </row>
     <row r="21" spans="1:376" s="294" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="463" t="s">
+      <c r="A21" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="464" t="s">
+      <c r="B21" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="465" t="s">
+      <c r="C21" s="467" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="466" t="s">
+      <c r="D21" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="466" t="s">
+      <c r="E21" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="466" t="s">
+      <c r="F21" s="468" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="466" t="s">
+      <c r="G21" s="468" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="202"/>
@@ -18458,13 +18476,13 @@
       <c r="NL21" s="334"/>
     </row>
     <row r="22" spans="1:376" s="294" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="463"/>
-      <c r="B22" s="464"/>
-      <c r="C22" s="465"/>
-      <c r="D22" s="466"/>
-      <c r="E22" s="466"/>
-      <c r="F22" s="466"/>
-      <c r="G22" s="466"/>
+      <c r="A22" s="465"/>
+      <c r="B22" s="466"/>
+      <c r="C22" s="467"/>
+      <c r="D22" s="468"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="468"/>
+      <c r="G22" s="468"/>
       <c r="H22" s="202"/>
       <c r="I22" s="322"/>
       <c r="J22" s="202"/>
@@ -19946,18 +19964,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="514" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="515"/>
+      <c r="C1" s="515"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
       <c r="K1" s="185"/>
       <c r="L1" s="185"/>
       <c r="M1" s="185"/>
@@ -19988,16 +20006,16 @@
       <c r="AL1" s="185"/>
     </row>
     <row r="2" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="514"/>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
-      <c r="D2" s="515"/>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="515"/>
-      <c r="H2" s="515"/>
-      <c r="I2" s="515"/>
-      <c r="J2" s="515"/>
+      <c r="A2" s="516"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
       <c r="Q2" s="47" t="s">
         <v>15</v>
       </c>
@@ -20029,20 +20047,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="205"/>
-      <c r="X3" s="505" t="str">
+      <c r="X3" s="507" t="str">
         <f>A19</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="505" t="str">
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="507" t="str">
         <f>A31</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="506"/>
-      <c r="AB3" s="499" t="s">
+      <c r="AA3" s="508"/>
+      <c r="AB3" s="501" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="500"/>
+      <c r="AC3" s="502"/>
     </row>
     <row r="4" spans="1:38" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="184" t="s">
@@ -20066,29 +20084,29 @@
       <c r="K4" s="191">
         <v>26</v>
       </c>
-      <c r="Q4" s="349" t="s">
+      <c r="Q4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="349"/>
-      <c r="S4" s="349"/>
-      <c r="T4" s="349"/>
-      <c r="V4" s="508">
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
+      <c r="V4" s="510">
         <v>1203650</v>
       </c>
-      <c r="W4" s="509"/>
-      <c r="X4" s="508">
+      <c r="W4" s="511"/>
+      <c r="X4" s="510">
         <v>1095926</v>
       </c>
-      <c r="Y4" s="509"/>
-      <c r="Z4" s="508">
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="510">
         <v>1232697</v>
       </c>
-      <c r="AA4" s="509"/>
-      <c r="AB4" s="501">
+      <c r="AA4" s="511"/>
+      <c r="AB4" s="503">
         <f>SUM(V4:AA4)</f>
         <v>3532273</v>
       </c>
-      <c r="AC4" s="502"/>
+      <c r="AC4" s="504"/>
       <c r="AH4" s="108"/>
       <c r="AI4" s="108"/>
       <c r="AK4" s="108"/>
@@ -20101,32 +20119,32 @@
       <c r="O5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="349" t="s">
+      <c r="Q5" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="V5" s="503">
+      <c r="R5" s="351"/>
+      <c r="S5" s="351"/>
+      <c r="T5" s="351"/>
+      <c r="V5" s="505">
         <f>V4*9%</f>
         <v>108328.5</v>
       </c>
-      <c r="W5" s="504"/>
-      <c r="X5" s="503">
+      <c r="W5" s="506"/>
+      <c r="X5" s="505">
         <f>X4*9%</f>
         <v>98633.34</v>
       </c>
-      <c r="Y5" s="504"/>
-      <c r="Z5" s="503">
+      <c r="Y5" s="506"/>
+      <c r="Z5" s="505">
         <f>Z4*9%</f>
         <v>110942.73</v>
       </c>
-      <c r="AA5" s="504"/>
-      <c r="AB5" s="503">
+      <c r="AA5" s="506"/>
+      <c r="AB5" s="505">
         <f>AB4*9%</f>
         <v>317904.57</v>
       </c>
-      <c r="AC5" s="504"/>
+      <c r="AC5" s="506"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="184" t="s">
@@ -20134,192 +20152,192 @@
       </c>
       <c r="E6" s="193"/>
       <c r="F6" s="199"/>
-      <c r="Q6" s="349" t="s">
+      <c r="Q6" s="351" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="349"/>
-      <c r="S6" s="349"/>
-      <c r="T6" s="349"/>
-      <c r="V6" s="503">
+      <c r="R6" s="351"/>
+      <c r="S6" s="351"/>
+      <c r="T6" s="351"/>
+      <c r="V6" s="505">
         <f>V5/$K$4</f>
         <v>4166.4807692307695</v>
       </c>
-      <c r="W6" s="504"/>
-      <c r="X6" s="503">
+      <c r="W6" s="506"/>
+      <c r="X6" s="505">
         <f>X5/$K$4</f>
         <v>3793.5899999999997</v>
       </c>
-      <c r="Y6" s="504"/>
-      <c r="Z6" s="503">
+      <c r="Y6" s="506"/>
+      <c r="Z6" s="505">
         <f>Z5/$K$4</f>
         <v>4267.0280769230767</v>
       </c>
-      <c r="AA6" s="504"/>
-      <c r="AB6" s="510">
+      <c r="AA6" s="506"/>
+      <c r="AB6" s="512">
         <f t="shared" ref="AB6" si="0">SUM(V6:AA6)</f>
         <v>12227.098846153847</v>
       </c>
-      <c r="AC6" s="511"/>
+      <c r="AC6" s="513"/>
       <c r="AE6" s="206"/>
     </row>
     <row r="7" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="184"/>
     </row>
     <row r="8" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="518" t="s">
+      <c r="A8" s="520" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="520" t="s">
+      <c r="B8" s="522" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="522" t="s">
+      <c r="C8" s="524" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="524" t="s">
+      <c r="D8" s="526" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="524" t="s">
+      <c r="E8" s="526" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="524" t="s">
+      <c r="F8" s="526" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="526" t="s">
+      <c r="G8" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="516">
+      <c r="H8" s="518">
         <v>1</v>
       </c>
-      <c r="I8" s="488">
+      <c r="I8" s="490">
         <v>2</v>
       </c>
-      <c r="J8" s="488">
+      <c r="J8" s="490">
         <v>3</v>
       </c>
-      <c r="K8" s="488">
+      <c r="K8" s="490">
         <v>4</v>
       </c>
-      <c r="L8" s="488">
+      <c r="L8" s="490">
         <v>5</v>
       </c>
-      <c r="M8" s="488">
+      <c r="M8" s="490">
         <v>6</v>
       </c>
-      <c r="N8" s="492">
+      <c r="N8" s="494">
         <v>7</v>
       </c>
-      <c r="O8" s="488">
+      <c r="O8" s="490">
         <v>8</v>
       </c>
-      <c r="P8" s="492">
+      <c r="P8" s="494">
         <v>9</v>
       </c>
-      <c r="Q8" s="488">
+      <c r="Q8" s="490">
         <v>10</v>
       </c>
-      <c r="R8" s="488">
+      <c r="R8" s="490">
         <v>11</v>
       </c>
-      <c r="S8" s="488">
+      <c r="S8" s="490">
         <v>12</v>
       </c>
-      <c r="T8" s="488">
+      <c r="T8" s="490">
         <v>13</v>
       </c>
-      <c r="U8" s="492">
+      <c r="U8" s="494">
         <v>14</v>
       </c>
-      <c r="V8" s="488">
+      <c r="V8" s="490">
         <v>15</v>
       </c>
-      <c r="W8" s="488">
+      <c r="W8" s="490">
         <v>16</v>
       </c>
-      <c r="X8" s="488">
+      <c r="X8" s="490">
         <v>17</v>
       </c>
-      <c r="Y8" s="488">
+      <c r="Y8" s="490">
         <v>18</v>
       </c>
-      <c r="Z8" s="488">
+      <c r="Z8" s="490">
         <v>19</v>
       </c>
-      <c r="AA8" s="488">
+      <c r="AA8" s="490">
         <v>20</v>
       </c>
-      <c r="AB8" s="492">
+      <c r="AB8" s="494">
         <v>21</v>
       </c>
-      <c r="AC8" s="488">
+      <c r="AC8" s="490">
         <v>22</v>
       </c>
-      <c r="AD8" s="488">
+      <c r="AD8" s="490">
         <v>23</v>
       </c>
-      <c r="AE8" s="488">
+      <c r="AE8" s="490">
         <v>24</v>
       </c>
-      <c r="AF8" s="488">
+      <c r="AF8" s="490">
         <v>25</v>
       </c>
-      <c r="AG8" s="488">
+      <c r="AG8" s="490">
         <v>26</v>
       </c>
-      <c r="AH8" s="488">
+      <c r="AH8" s="490">
         <v>27</v>
       </c>
-      <c r="AI8" s="492">
+      <c r="AI8" s="494">
         <v>28</v>
       </c>
-      <c r="AJ8" s="488">
+      <c r="AJ8" s="490">
         <v>29</v>
       </c>
-      <c r="AK8" s="488">
+      <c r="AK8" s="490">
         <v>30</v>
       </c>
-      <c r="AL8" s="488">
+      <c r="AL8" s="490">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="519"/>
-      <c r="B9" s="521"/>
-      <c r="C9" s="523"/>
-      <c r="D9" s="525"/>
-      <c r="E9" s="525"/>
-      <c r="F9" s="525"/>
-      <c r="G9" s="527"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="489"/>
-      <c r="J9" s="489"/>
-      <c r="K9" s="489"/>
-      <c r="L9" s="489"/>
-      <c r="M9" s="489"/>
-      <c r="N9" s="493"/>
-      <c r="O9" s="489"/>
-      <c r="P9" s="493"/>
-      <c r="Q9" s="489"/>
-      <c r="R9" s="489"/>
-      <c r="S9" s="489"/>
-      <c r="T9" s="489"/>
-      <c r="U9" s="493"/>
-      <c r="V9" s="489"/>
-      <c r="W9" s="489"/>
-      <c r="X9" s="489"/>
-      <c r="Y9" s="489"/>
-      <c r="Z9" s="489"/>
-      <c r="AA9" s="489"/>
-      <c r="AB9" s="493"/>
-      <c r="AC9" s="489"/>
-      <c r="AD9" s="489"/>
-      <c r="AE9" s="489"/>
-      <c r="AF9" s="489"/>
-      <c r="AG9" s="489"/>
-      <c r="AH9" s="489"/>
-      <c r="AI9" s="493"/>
-      <c r="AJ9" s="489"/>
-      <c r="AK9" s="489"/>
-      <c r="AL9" s="489"/>
+      <c r="A9" s="521"/>
+      <c r="B9" s="523"/>
+      <c r="C9" s="525"/>
+      <c r="D9" s="527"/>
+      <c r="E9" s="527"/>
+      <c r="F9" s="527"/>
+      <c r="G9" s="529"/>
+      <c r="H9" s="519"/>
+      <c r="I9" s="491"/>
+      <c r="J9" s="491"/>
+      <c r="K9" s="491"/>
+      <c r="L9" s="491"/>
+      <c r="M9" s="491"/>
+      <c r="N9" s="495"/>
+      <c r="O9" s="491"/>
+      <c r="P9" s="495"/>
+      <c r="Q9" s="491"/>
+      <c r="R9" s="491"/>
+      <c r="S9" s="491"/>
+      <c r="T9" s="491"/>
+      <c r="U9" s="495"/>
+      <c r="V9" s="491"/>
+      <c r="W9" s="491"/>
+      <c r="X9" s="491"/>
+      <c r="Y9" s="491"/>
+      <c r="Z9" s="491"/>
+      <c r="AA9" s="491"/>
+      <c r="AB9" s="495"/>
+      <c r="AC9" s="491"/>
+      <c r="AD9" s="491"/>
+      <c r="AE9" s="491"/>
+      <c r="AF9" s="491"/>
+      <c r="AG9" s="491"/>
+      <c r="AH9" s="491"/>
+      <c r="AI9" s="495"/>
+      <c r="AJ9" s="491"/>
+      <c r="AK9" s="491"/>
+      <c r="AL9" s="491"/>
     </row>
     <row r="10" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="213" t="s">
@@ -20910,98 +20928,98 @@
       <c r="AL19" s="228"/>
     </row>
     <row r="20" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="496" t="s">
+      <c r="A20" s="498" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="497" t="s">
+      <c r="B20" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="498" t="s">
+      <c r="C20" s="500" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="494" t="s">
+      <c r="D20" s="496" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="494" t="s">
+      <c r="E20" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="494" t="s">
+      <c r="F20" s="496" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="494" t="s">
+      <c r="G20" s="496" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="490"/>
-      <c r="I20" s="495"/>
-      <c r="J20" s="490"/>
-      <c r="K20" s="490"/>
-      <c r="L20" s="490"/>
-      <c r="M20" s="490"/>
-      <c r="N20" s="491"/>
-      <c r="O20" s="490"/>
-      <c r="P20" s="491"/>
-      <c r="Q20" s="490"/>
-      <c r="R20" s="490"/>
-      <c r="S20" s="490"/>
-      <c r="T20" s="490"/>
-      <c r="U20" s="491"/>
-      <c r="V20" s="490"/>
-      <c r="W20" s="490"/>
-      <c r="X20" s="490"/>
-      <c r="Y20" s="490"/>
-      <c r="Z20" s="490"/>
-      <c r="AA20" s="490"/>
-      <c r="AB20" s="491"/>
-      <c r="AC20" s="490"/>
-      <c r="AD20" s="490"/>
-      <c r="AE20" s="490"/>
-      <c r="AF20" s="490"/>
-      <c r="AG20" s="490"/>
-      <c r="AH20" s="490"/>
-      <c r="AI20" s="491"/>
-      <c r="AJ20" s="490"/>
-      <c r="AK20" s="490"/>
-      <c r="AL20" s="490"/>
+      <c r="H20" s="492"/>
+      <c r="I20" s="497"/>
+      <c r="J20" s="492"/>
+      <c r="K20" s="492"/>
+      <c r="L20" s="492"/>
+      <c r="M20" s="492"/>
+      <c r="N20" s="493"/>
+      <c r="O20" s="492"/>
+      <c r="P20" s="493"/>
+      <c r="Q20" s="492"/>
+      <c r="R20" s="492"/>
+      <c r="S20" s="492"/>
+      <c r="T20" s="492"/>
+      <c r="U20" s="493"/>
+      <c r="V20" s="492"/>
+      <c r="W20" s="492"/>
+      <c r="X20" s="492"/>
+      <c r="Y20" s="492"/>
+      <c r="Z20" s="492"/>
+      <c r="AA20" s="492"/>
+      <c r="AB20" s="493"/>
+      <c r="AC20" s="492"/>
+      <c r="AD20" s="492"/>
+      <c r="AE20" s="492"/>
+      <c r="AF20" s="492"/>
+      <c r="AG20" s="492"/>
+      <c r="AH20" s="492"/>
+      <c r="AI20" s="493"/>
+      <c r="AJ20" s="492"/>
+      <c r="AK20" s="492"/>
+      <c r="AL20" s="492"/>
     </row>
     <row r="21" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="496"/>
-      <c r="B21" s="497"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="494"/>
-      <c r="E21" s="494"/>
-      <c r="F21" s="494"/>
-      <c r="G21" s="494"/>
-      <c r="H21" s="490"/>
-      <c r="I21" s="495"/>
-      <c r="J21" s="490"/>
-      <c r="K21" s="490"/>
-      <c r="L21" s="490"/>
-      <c r="M21" s="490"/>
-      <c r="N21" s="491"/>
-      <c r="O21" s="490"/>
-      <c r="P21" s="491"/>
-      <c r="Q21" s="490"/>
-      <c r="R21" s="490"/>
-      <c r="S21" s="490"/>
-      <c r="T21" s="490"/>
-      <c r="U21" s="491"/>
-      <c r="V21" s="490"/>
-      <c r="W21" s="490"/>
-      <c r="X21" s="490"/>
-      <c r="Y21" s="490"/>
-      <c r="Z21" s="490"/>
-      <c r="AA21" s="490"/>
-      <c r="AB21" s="491"/>
-      <c r="AC21" s="490"/>
-      <c r="AD21" s="490"/>
-      <c r="AE21" s="490"/>
-      <c r="AF21" s="490"/>
-      <c r="AG21" s="490"/>
-      <c r="AH21" s="490"/>
-      <c r="AI21" s="491"/>
-      <c r="AJ21" s="490"/>
-      <c r="AK21" s="490"/>
-      <c r="AL21" s="490"/>
+      <c r="A21" s="498"/>
+      <c r="B21" s="499"/>
+      <c r="C21" s="500"/>
+      <c r="D21" s="496"/>
+      <c r="E21" s="496"/>
+      <c r="F21" s="496"/>
+      <c r="G21" s="496"/>
+      <c r="H21" s="492"/>
+      <c r="I21" s="497"/>
+      <c r="J21" s="492"/>
+      <c r="K21" s="492"/>
+      <c r="L21" s="492"/>
+      <c r="M21" s="492"/>
+      <c r="N21" s="493"/>
+      <c r="O21" s="492"/>
+      <c r="P21" s="493"/>
+      <c r="Q21" s="492"/>
+      <c r="R21" s="492"/>
+      <c r="S21" s="492"/>
+      <c r="T21" s="492"/>
+      <c r="U21" s="493"/>
+      <c r="V21" s="492"/>
+      <c r="W21" s="492"/>
+      <c r="X21" s="492"/>
+      <c r="Y21" s="492"/>
+      <c r="Z21" s="492"/>
+      <c r="AA21" s="492"/>
+      <c r="AB21" s="493"/>
+      <c r="AC21" s="492"/>
+      <c r="AD21" s="492"/>
+      <c r="AE21" s="492"/>
+      <c r="AF21" s="492"/>
+      <c r="AG21" s="492"/>
+      <c r="AH21" s="492"/>
+      <c r="AI21" s="493"/>
+      <c r="AJ21" s="492"/>
+      <c r="AK21" s="492"/>
+      <c r="AL21" s="492"/>
     </row>
     <row r="22" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="72">
@@ -22320,18 +22338,18 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:38" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="514" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="515"/>
+      <c r="C1" s="515"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
       <c r="K1" s="185"/>
       <c r="L1" s="185"/>
       <c r="M1" s="185"/>
@@ -22362,16 +22380,16 @@
       <c r="AL1" s="185"/>
     </row>
     <row r="2" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="514"/>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
-      <c r="D2" s="515"/>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="515"/>
-      <c r="H2" s="515"/>
-      <c r="I2" s="515"/>
-      <c r="J2" s="515"/>
+      <c r="A2" s="516"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
@@ -22444,20 +22462,20 @@
         <v>ZONE E</v>
       </c>
       <c r="W3" s="205"/>
-      <c r="X3" s="505" t="str">
+      <c r="X3" s="507" t="str">
         <f>A19</f>
         <v>ZONE F</v>
       </c>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="505" t="str">
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="507" t="str">
         <f>A31</f>
         <v>ZONE G</v>
       </c>
-      <c r="AA3" s="506"/>
-      <c r="AB3" s="499" t="s">
+      <c r="AA3" s="508"/>
+      <c r="AB3" s="501" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="500"/>
+      <c r="AC3" s="502"/>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47"/>
       <c r="AF3" s="47"/>
@@ -22499,30 +22517,30 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
-      <c r="Q4" s="349" t="s">
+      <c r="Q4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="349"/>
-      <c r="S4" s="349"/>
-      <c r="T4" s="349"/>
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
       <c r="U4" s="47"/>
-      <c r="V4" s="508">
+      <c r="V4" s="510">
         <v>1203650</v>
       </c>
-      <c r="W4" s="509"/>
-      <c r="X4" s="508">
+      <c r="W4" s="511"/>
+      <c r="X4" s="510">
         <v>1095926</v>
       </c>
-      <c r="Y4" s="509"/>
-      <c r="Z4" s="508">
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="510">
         <v>1232697</v>
       </c>
-      <c r="AA4" s="509"/>
-      <c r="AB4" s="501">
+      <c r="AA4" s="511"/>
+      <c r="AB4" s="503">
         <f>SUM(V4:AA4)</f>
         <v>3532273</v>
       </c>
-      <c r="AC4" s="502"/>
+      <c r="AC4" s="504"/>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
       <c r="AF4" s="47"/>
@@ -22554,33 +22572,33 @@
         <v>2</v>
       </c>
       <c r="P5" s="47"/>
-      <c r="Q5" s="349" t="s">
+      <c r="Q5" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
+      <c r="R5" s="351"/>
+      <c r="S5" s="351"/>
+      <c r="T5" s="351"/>
       <c r="U5" s="47"/>
-      <c r="V5" s="503">
+      <c r="V5" s="505">
         <f>V4*9%</f>
         <v>108328.5</v>
       </c>
-      <c r="W5" s="504"/>
-      <c r="X5" s="503">
+      <c r="W5" s="506"/>
+      <c r="X5" s="505">
         <f>X4*9%</f>
         <v>98633.34</v>
       </c>
-      <c r="Y5" s="504"/>
-      <c r="Z5" s="503">
+      <c r="Y5" s="506"/>
+      <c r="Z5" s="505">
         <f>Z4*9%</f>
         <v>110942.73</v>
       </c>
-      <c r="AA5" s="504"/>
-      <c r="AB5" s="503">
+      <c r="AA5" s="506"/>
+      <c r="AB5" s="505">
         <f>AB4*9%</f>
         <v>317904.57</v>
       </c>
-      <c r="AC5" s="504"/>
+      <c r="AC5" s="506"/>
       <c r="AD5" s="47"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="47"/>
@@ -22610,33 +22628,33 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
-      <c r="Q6" s="349" t="s">
+      <c r="Q6" s="351" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="349"/>
-      <c r="S6" s="349"/>
-      <c r="T6" s="349"/>
+      <c r="R6" s="351"/>
+      <c r="S6" s="351"/>
+      <c r="T6" s="351"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="503">
+      <c r="V6" s="505">
         <f>V5/$K$4</f>
         <v>4166.4807692307695</v>
       </c>
-      <c r="W6" s="504"/>
-      <c r="X6" s="503">
+      <c r="W6" s="506"/>
+      <c r="X6" s="505">
         <f>X5/$K$4</f>
         <v>3793.5899999999997</v>
       </c>
-      <c r="Y6" s="504"/>
-      <c r="Z6" s="503">
+      <c r="Y6" s="506"/>
+      <c r="Z6" s="505">
         <f>Z5/$K$4</f>
         <v>4267.0280769230767</v>
       </c>
-      <c r="AA6" s="504"/>
-      <c r="AB6" s="510">
+      <c r="AA6" s="506"/>
+      <c r="AB6" s="512">
         <f>SUM(V6:AA6)</f>
         <v>12227.098846153847</v>
       </c>
-      <c r="AC6" s="511"/>
+      <c r="AC6" s="513"/>
       <c r="AD6" s="47"/>
       <c r="AE6" s="206"/>
       <c r="AF6" s="47"/>
@@ -22688,160 +22706,160 @@
       <c r="AL7" s="47"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A8" s="518" t="s">
+      <c r="A8" s="520" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="520" t="s">
+      <c r="B8" s="522" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="522" t="s">
+      <c r="C8" s="524" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="524" t="s">
+      <c r="D8" s="526" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="524" t="s">
+      <c r="E8" s="526" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="524" t="s">
+      <c r="F8" s="526" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="526" t="s">
+      <c r="G8" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="516">
+      <c r="H8" s="518">
         <v>1</v>
       </c>
-      <c r="I8" s="488">
+      <c r="I8" s="490">
         <v>2</v>
       </c>
-      <c r="J8" s="488">
+      <c r="J8" s="490">
         <v>3</v>
       </c>
-      <c r="K8" s="488">
+      <c r="K8" s="490">
         <v>4</v>
       </c>
-      <c r="L8" s="488">
+      <c r="L8" s="490">
         <v>5</v>
       </c>
-      <c r="M8" s="488">
+      <c r="M8" s="490">
         <v>6</v>
       </c>
-      <c r="N8" s="492">
+      <c r="N8" s="494">
         <v>7</v>
       </c>
-      <c r="O8" s="488">
+      <c r="O8" s="490">
         <v>8</v>
       </c>
-      <c r="P8" s="492">
+      <c r="P8" s="494">
         <v>9</v>
       </c>
-      <c r="Q8" s="488">
+      <c r="Q8" s="490">
         <v>10</v>
       </c>
-      <c r="R8" s="488">
+      <c r="R8" s="490">
         <v>11</v>
       </c>
-      <c r="S8" s="488">
+      <c r="S8" s="490">
         <v>12</v>
       </c>
-      <c r="T8" s="488">
+      <c r="T8" s="490">
         <v>13</v>
       </c>
-      <c r="U8" s="492">
+      <c r="U8" s="494">
         <v>14</v>
       </c>
-      <c r="V8" s="488">
+      <c r="V8" s="490">
         <v>15</v>
       </c>
-      <c r="W8" s="488">
+      <c r="W8" s="490">
         <v>16</v>
       </c>
-      <c r="X8" s="488">
+      <c r="X8" s="490">
         <v>17</v>
       </c>
-      <c r="Y8" s="488">
+      <c r="Y8" s="490">
         <v>18</v>
       </c>
-      <c r="Z8" s="488">
+      <c r="Z8" s="490">
         <v>19</v>
       </c>
-      <c r="AA8" s="488">
+      <c r="AA8" s="490">
         <v>20</v>
       </c>
-      <c r="AB8" s="492">
+      <c r="AB8" s="494">
         <v>21</v>
       </c>
-      <c r="AC8" s="488">
+      <c r="AC8" s="490">
         <v>22</v>
       </c>
-      <c r="AD8" s="488">
+      <c r="AD8" s="490">
         <v>23</v>
       </c>
-      <c r="AE8" s="488">
+      <c r="AE8" s="490">
         <v>24</v>
       </c>
-      <c r="AF8" s="488">
+      <c r="AF8" s="490">
         <v>25</v>
       </c>
-      <c r="AG8" s="488">
+      <c r="AG8" s="490">
         <v>26</v>
       </c>
-      <c r="AH8" s="488">
+      <c r="AH8" s="490">
         <v>27</v>
       </c>
-      <c r="AI8" s="492">
+      <c r="AI8" s="494">
         <v>28</v>
       </c>
-      <c r="AJ8" s="488">
+      <c r="AJ8" s="490">
         <v>29</v>
       </c>
-      <c r="AK8" s="488">
+      <c r="AK8" s="490">
         <v>30</v>
       </c>
-      <c r="AL8" s="488">
+      <c r="AL8" s="490">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="519"/>
-      <c r="B9" s="521"/>
-      <c r="C9" s="523"/>
-      <c r="D9" s="525"/>
-      <c r="E9" s="525"/>
-      <c r="F9" s="525"/>
-      <c r="G9" s="527"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="489"/>
-      <c r="J9" s="489"/>
-      <c r="K9" s="489"/>
-      <c r="L9" s="489"/>
-      <c r="M9" s="489"/>
-      <c r="N9" s="493"/>
-      <c r="O9" s="489"/>
-      <c r="P9" s="493"/>
-      <c r="Q9" s="489"/>
-      <c r="R9" s="489"/>
-      <c r="S9" s="489"/>
-      <c r="T9" s="489"/>
-      <c r="U9" s="493"/>
-      <c r="V9" s="489"/>
-      <c r="W9" s="489"/>
-      <c r="X9" s="489"/>
-      <c r="Y9" s="489"/>
-      <c r="Z9" s="489"/>
-      <c r="AA9" s="489"/>
-      <c r="AB9" s="493"/>
-      <c r="AC9" s="489"/>
-      <c r="AD9" s="489"/>
-      <c r="AE9" s="489"/>
-      <c r="AF9" s="489"/>
-      <c r="AG9" s="489"/>
-      <c r="AH9" s="489"/>
-      <c r="AI9" s="493"/>
-      <c r="AJ9" s="489"/>
-      <c r="AK9" s="489"/>
-      <c r="AL9" s="489"/>
+      <c r="A9" s="521"/>
+      <c r="B9" s="523"/>
+      <c r="C9" s="525"/>
+      <c r="D9" s="527"/>
+      <c r="E9" s="527"/>
+      <c r="F9" s="527"/>
+      <c r="G9" s="529"/>
+      <c r="H9" s="519"/>
+      <c r="I9" s="491"/>
+      <c r="J9" s="491"/>
+      <c r="K9" s="491"/>
+      <c r="L9" s="491"/>
+      <c r="M9" s="491"/>
+      <c r="N9" s="495"/>
+      <c r="O9" s="491"/>
+      <c r="P9" s="495"/>
+      <c r="Q9" s="491"/>
+      <c r="R9" s="491"/>
+      <c r="S9" s="491"/>
+      <c r="T9" s="491"/>
+      <c r="U9" s="495"/>
+      <c r="V9" s="491"/>
+      <c r="W9" s="491"/>
+      <c r="X9" s="491"/>
+      <c r="Y9" s="491"/>
+      <c r="Z9" s="491"/>
+      <c r="AA9" s="491"/>
+      <c r="AB9" s="495"/>
+      <c r="AC9" s="491"/>
+      <c r="AD9" s="491"/>
+      <c r="AE9" s="491"/>
+      <c r="AF9" s="491"/>
+      <c r="AG9" s="491"/>
+      <c r="AH9" s="491"/>
+      <c r="AI9" s="495"/>
+      <c r="AJ9" s="491"/>
+      <c r="AK9" s="491"/>
+      <c r="AL9" s="491"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="213" t="s">
@@ -22896,14 +22914,14 @@
         <v>22.6</v>
       </c>
       <c r="D11" s="117">
-        <f>C11/$C$18</f>
+        <f t="shared" ref="D11:D16" si="0">C11/$C$18</f>
         <v>1.918505942275043</v>
       </c>
       <c r="E11" s="338">
         <v>4</v>
       </c>
       <c r="F11" s="54">
-        <f>IF(B11=$H$3,((C11*10000)/$I$3),((C11*10000)/$K$3))</f>
+        <f t="shared" ref="F11:F16" si="1">IF(B11=$H$3,((C11*10000)/$I$3),((C11*10000)/$K$3))</f>
         <v>322.85714285714283</v>
       </c>
       <c r="G11" s="98">
@@ -22968,14 +22986,14 @@
         <v>10.65</v>
       </c>
       <c r="D12" s="117">
-        <f>C12/$C$18</f>
+        <f t="shared" si="0"/>
         <v>0.90407470288624814</v>
       </c>
       <c r="E12" s="73">
         <v>0</v>
       </c>
       <c r="F12" s="54">
-        <f>IF(B12=$H$3,((C12*10000)/$I$3),((C12*10000)/$K$3))</f>
+        <f t="shared" si="1"/>
         <v>152.14285714285714</v>
       </c>
       <c r="G12" s="98">
@@ -23032,14 +23050,14 @@
         <v>13.02</v>
       </c>
       <c r="D13" s="117">
-        <f>C13/$C$18</f>
+        <f t="shared" si="0"/>
         <v>1.1052631578947369</v>
       </c>
       <c r="E13" s="73">
         <v>2</v>
       </c>
       <c r="F13" s="54">
-        <f>IF(B13=$H$3,((C13*10000)/$I$3),((C13*10000)/$K$3))</f>
+        <f t="shared" si="1"/>
         <v>144.66666666666666</v>
       </c>
       <c r="G13" s="98">
@@ -23104,14 +23122,14 @@
         <v>8.27</v>
       </c>
       <c r="D14" s="117">
-        <f>C14/$C$18</f>
+        <f t="shared" si="0"/>
         <v>0.70203735144312407</v>
       </c>
       <c r="E14" s="73">
         <v>2</v>
       </c>
       <c r="F14" s="54">
-        <f>IF(B14=$H$3,((C14*10000)/$I$3),((C14*10000)/$K$3))</f>
+        <f t="shared" si="1"/>
         <v>91.888888888888886</v>
       </c>
       <c r="G14" s="98">
@@ -23168,14 +23186,14 @@
         <v>14.99</v>
       </c>
       <c r="D15" s="117">
-        <f>C15/$C$18</f>
+        <f t="shared" si="0"/>
         <v>1.2724957555178271</v>
       </c>
       <c r="E15" s="73">
         <v>3</v>
       </c>
       <c r="F15" s="54">
-        <f>IF(B15=$H$3,((C15*10000)/$I$3),((C15*10000)/$K$3))</f>
+        <f t="shared" si="1"/>
         <v>166.55555555555554</v>
       </c>
       <c r="G15" s="192">
@@ -23238,14 +23256,14 @@
         <v>12.93</v>
       </c>
       <c r="D16" s="117">
-        <f>C16/$C$18</f>
+        <f t="shared" si="0"/>
         <v>1.0976230899830224</v>
       </c>
       <c r="E16" s="73">
         <v>2</v>
       </c>
       <c r="F16" s="54">
-        <f>IF(B16=$H$3,((C16*10000)/$I$3),((C16*10000)/$K$3))</f>
+        <f t="shared" si="1"/>
         <v>184.71428571428572</v>
       </c>
       <c r="G16" s="98">
@@ -23432,98 +23450,98 @@
       <c r="AL19" s="228"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A20" s="496" t="s">
+      <c r="A20" s="498" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="497" t="s">
+      <c r="B20" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="498" t="s">
+      <c r="C20" s="500" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="494" t="s">
+      <c r="D20" s="496" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="494" t="s">
+      <c r="E20" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="494" t="s">
+      <c r="F20" s="496" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="494" t="s">
+      <c r="G20" s="496" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="490"/>
-      <c r="I20" s="495"/>
-      <c r="J20" s="490"/>
-      <c r="K20" s="490"/>
-      <c r="L20" s="490"/>
-      <c r="M20" s="490"/>
-      <c r="N20" s="491"/>
-      <c r="O20" s="490"/>
-      <c r="P20" s="491"/>
-      <c r="Q20" s="490"/>
-      <c r="R20" s="490"/>
-      <c r="S20" s="490"/>
-      <c r="T20" s="490"/>
-      <c r="U20" s="491"/>
-      <c r="V20" s="490"/>
-      <c r="W20" s="490"/>
-      <c r="X20" s="490"/>
-      <c r="Y20" s="490"/>
-      <c r="Z20" s="490"/>
-      <c r="AA20" s="490"/>
-      <c r="AB20" s="491"/>
-      <c r="AC20" s="490"/>
-      <c r="AD20" s="490"/>
-      <c r="AE20" s="490"/>
-      <c r="AF20" s="490"/>
-      <c r="AG20" s="490"/>
-      <c r="AH20" s="490"/>
-      <c r="AI20" s="491"/>
-      <c r="AJ20" s="490"/>
-      <c r="AK20" s="490"/>
-      <c r="AL20" s="490"/>
+      <c r="H20" s="492"/>
+      <c r="I20" s="497"/>
+      <c r="J20" s="492"/>
+      <c r="K20" s="492"/>
+      <c r="L20" s="492"/>
+      <c r="M20" s="492"/>
+      <c r="N20" s="493"/>
+      <c r="O20" s="492"/>
+      <c r="P20" s="493"/>
+      <c r="Q20" s="492"/>
+      <c r="R20" s="492"/>
+      <c r="S20" s="492"/>
+      <c r="T20" s="492"/>
+      <c r="U20" s="493"/>
+      <c r="V20" s="492"/>
+      <c r="W20" s="492"/>
+      <c r="X20" s="492"/>
+      <c r="Y20" s="492"/>
+      <c r="Z20" s="492"/>
+      <c r="AA20" s="492"/>
+      <c r="AB20" s="493"/>
+      <c r="AC20" s="492"/>
+      <c r="AD20" s="492"/>
+      <c r="AE20" s="492"/>
+      <c r="AF20" s="492"/>
+      <c r="AG20" s="492"/>
+      <c r="AH20" s="492"/>
+      <c r="AI20" s="493"/>
+      <c r="AJ20" s="492"/>
+      <c r="AK20" s="492"/>
+      <c r="AL20" s="492"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A21" s="496"/>
-      <c r="B21" s="497"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="494"/>
-      <c r="E21" s="494"/>
-      <c r="F21" s="494"/>
-      <c r="G21" s="494"/>
-      <c r="H21" s="490"/>
-      <c r="I21" s="495"/>
-      <c r="J21" s="490"/>
-      <c r="K21" s="490"/>
-      <c r="L21" s="490"/>
-      <c r="M21" s="490"/>
-      <c r="N21" s="491"/>
-      <c r="O21" s="490"/>
-      <c r="P21" s="491"/>
-      <c r="Q21" s="490"/>
-      <c r="R21" s="490"/>
-      <c r="S21" s="490"/>
-      <c r="T21" s="490"/>
-      <c r="U21" s="491"/>
-      <c r="V21" s="490"/>
-      <c r="W21" s="490"/>
-      <c r="X21" s="490"/>
-      <c r="Y21" s="490"/>
-      <c r="Z21" s="490"/>
-      <c r="AA21" s="490"/>
-      <c r="AB21" s="491"/>
-      <c r="AC21" s="490"/>
-      <c r="AD21" s="490"/>
-      <c r="AE21" s="490"/>
-      <c r="AF21" s="490"/>
-      <c r="AG21" s="490"/>
-      <c r="AH21" s="490"/>
-      <c r="AI21" s="491"/>
-      <c r="AJ21" s="490"/>
-      <c r="AK21" s="490"/>
-      <c r="AL21" s="490"/>
+      <c r="A21" s="498"/>
+      <c r="B21" s="499"/>
+      <c r="C21" s="500"/>
+      <c r="D21" s="496"/>
+      <c r="E21" s="496"/>
+      <c r="F21" s="496"/>
+      <c r="G21" s="496"/>
+      <c r="H21" s="492"/>
+      <c r="I21" s="497"/>
+      <c r="J21" s="492"/>
+      <c r="K21" s="492"/>
+      <c r="L21" s="492"/>
+      <c r="M21" s="492"/>
+      <c r="N21" s="493"/>
+      <c r="O21" s="492"/>
+      <c r="P21" s="493"/>
+      <c r="Q21" s="492"/>
+      <c r="R21" s="492"/>
+      <c r="S21" s="492"/>
+      <c r="T21" s="492"/>
+      <c r="U21" s="493"/>
+      <c r="V21" s="492"/>
+      <c r="W21" s="492"/>
+      <c r="X21" s="492"/>
+      <c r="Y21" s="492"/>
+      <c r="Z21" s="492"/>
+      <c r="AA21" s="492"/>
+      <c r="AB21" s="493"/>
+      <c r="AC21" s="492"/>
+      <c r="AD21" s="492"/>
+      <c r="AE21" s="492"/>
+      <c r="AF21" s="492"/>
+      <c r="AG21" s="492"/>
+      <c r="AH21" s="492"/>
+      <c r="AI21" s="493"/>
+      <c r="AJ21" s="492"/>
+      <c r="AK21" s="492"/>
+      <c r="AL21" s="492"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="72">
@@ -23542,7 +23560,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="54">
-        <f>IF(B22=$H$3,((C22*10000)/$I$3),((C22*10000)/$K$3))</f>
+        <f t="shared" ref="F22:F27" si="2">IF(B22=$H$3,((C22*10000)/$I$3),((C22*10000)/$K$3))</f>
         <v>250.55555555555554</v>
       </c>
       <c r="G22" s="192">
@@ -23614,7 +23632,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="54">
-        <f>IF(B23=$H$3,((C23*10000)/$I$3),((C23*10000)/$K$3))</f>
+        <f t="shared" si="2"/>
         <v>107.28571428571429</v>
       </c>
       <c r="G23" s="98">
@@ -23678,7 +23696,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="54">
-        <f>IF(B24=$H$3,((C24*10000)/$I$3),((C24*10000)/$K$3))</f>
+        <f t="shared" si="2"/>
         <v>105.85714285714286</v>
       </c>
       <c r="G24" s="98">
@@ -23742,7 +23760,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="54">
-        <f>IF(B25=$H$3,((C25*10000)/$I$3),((C25*10000)/$K$3))</f>
+        <f t="shared" si="2"/>
         <v>188.88888888888889</v>
       </c>
       <c r="G25" s="98">
@@ -23813,7 +23831,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="54">
-        <f>IF(B26=$H$3,((C26*10000)/$I$3),((C26*10000)/$K$3))</f>
+        <f t="shared" si="2"/>
         <v>65.714285714285708</v>
       </c>
       <c r="G26" s="98">
@@ -23883,7 +23901,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="54">
-        <f>IF(B27=$H$3,((C27*10000)/$I$3),((C27*10000)/$K$3))</f>
+        <f t="shared" si="2"/>
         <v>177.88888888888891</v>
       </c>
       <c r="G27" s="192">
@@ -24718,35 +24736,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB25" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:AL41"/>
+    <sheetView tabSelected="1" topLeftCell="AH28" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AL43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.23046875" style="528"/>
-    <col min="16" max="16" width="9.23046875" style="528"/>
-    <col min="21" max="21" width="9.23046875" style="528"/>
-    <col min="28" max="28" width="9.23046875" style="528"/>
-    <col min="35" max="35" width="9.23046875" style="528"/>
+    <col min="14" max="14" width="9.23046875" style="346"/>
+    <col min="16" max="16" width="9.23046875" style="346"/>
+    <col min="21" max="21" width="9.23046875" style="346"/>
+    <col min="28" max="28" width="9.23046875" style="346"/>
+    <col min="35" max="35" width="9.23046875" style="346"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="514" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="515"/>
+      <c r="C1" s="515"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
       <c r="K1" s="185"/>
       <c r="L1" s="185"/>
       <c r="M1" s="185"/>
@@ -24777,16 +24795,16 @@
       <c r="AL1" s="185"/>
     </row>
     <row r="2" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="514"/>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
-      <c r="D2" s="515"/>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="515"/>
-      <c r="H2" s="515"/>
-      <c r="I2" s="515"/>
-      <c r="J2" s="515"/>
+      <c r="A2" s="516"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
@@ -24856,23 +24874,23 @@
       <c r="U3" s="47"/>
       <c r="V3" s="204" t="str">
         <f>A10</f>
-        <v>ZONE E</v>
+        <v>E</v>
       </c>
       <c r="W3" s="205"/>
-      <c r="X3" s="505" t="str">
-        <f>A19</f>
-        <v>ZONE F</v>
-      </c>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="505" t="str">
-        <f>A31</f>
-        <v>ZONE G</v>
-      </c>
-      <c r="AA3" s="506"/>
-      <c r="AB3" s="499" t="s">
+      <c r="X3" s="507" t="str">
+        <f>A21</f>
+        <v>F</v>
+      </c>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="507" t="str">
+        <f>A33</f>
+        <v>G</v>
+      </c>
+      <c r="AA3" s="508"/>
+      <c r="AB3" s="501" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="500"/>
+      <c r="AC3" s="502"/>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47"/>
       <c r="AF3" s="47"/>
@@ -24914,30 +24932,30 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
-      <c r="Q4" s="349" t="s">
+      <c r="Q4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="349"/>
-      <c r="S4" s="349"/>
-      <c r="T4" s="349"/>
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
       <c r="U4" s="47"/>
-      <c r="V4" s="508">
+      <c r="V4" s="510">
         <v>1203650</v>
       </c>
-      <c r="W4" s="509"/>
-      <c r="X4" s="508">
+      <c r="W4" s="511"/>
+      <c r="X4" s="510">
         <v>1095926</v>
       </c>
-      <c r="Y4" s="509"/>
-      <c r="Z4" s="508">
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="510">
         <v>1232697</v>
       </c>
-      <c r="AA4" s="509"/>
-      <c r="AB4" s="501">
+      <c r="AA4" s="511"/>
+      <c r="AB4" s="503">
         <f>SUM(V4:AA4)</f>
         <v>3532273</v>
       </c>
-      <c r="AC4" s="502"/>
+      <c r="AC4" s="504"/>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
       <c r="AF4" s="47"/>
@@ -24969,33 +24987,33 @@
         <v>2</v>
       </c>
       <c r="P5" s="47"/>
-      <c r="Q5" s="349" t="s">
+      <c r="Q5" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
+      <c r="R5" s="351"/>
+      <c r="S5" s="351"/>
+      <c r="T5" s="351"/>
       <c r="U5" s="47"/>
-      <c r="V5" s="503">
+      <c r="V5" s="505">
         <f>V4*9%</f>
         <v>108328.5</v>
       </c>
-      <c r="W5" s="504"/>
-      <c r="X5" s="503">
+      <c r="W5" s="506"/>
+      <c r="X5" s="505">
         <f>X4*9%</f>
         <v>98633.34</v>
       </c>
-      <c r="Y5" s="504"/>
-      <c r="Z5" s="503">
+      <c r="Y5" s="506"/>
+      <c r="Z5" s="505">
         <f>Z4*9%</f>
         <v>110942.73</v>
       </c>
-      <c r="AA5" s="504"/>
-      <c r="AB5" s="503">
+      <c r="AA5" s="506"/>
+      <c r="AB5" s="505">
         <f>AB4*9%</f>
         <v>317904.57</v>
       </c>
-      <c r="AC5" s="504"/>
+      <c r="AC5" s="506"/>
       <c r="AD5" s="47"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="47"/>
@@ -25025,33 +25043,33 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
-      <c r="Q6" s="349" t="s">
+      <c r="Q6" s="351" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="349"/>
-      <c r="S6" s="349"/>
-      <c r="T6" s="349"/>
+      <c r="R6" s="351"/>
+      <c r="S6" s="351"/>
+      <c r="T6" s="351"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="503">
+      <c r="V6" s="505">
         <f>V5/$K$4</f>
         <v>4166.4807692307695</v>
       </c>
-      <c r="W6" s="504"/>
-      <c r="X6" s="503">
+      <c r="W6" s="506"/>
+      <c r="X6" s="505">
         <f>X5/$K$4</f>
         <v>3793.5899999999997</v>
       </c>
-      <c r="Y6" s="504"/>
-      <c r="Z6" s="503">
+      <c r="Y6" s="506"/>
+      <c r="Z6" s="505">
         <f>Z5/$K$4</f>
         <v>4267.0280769230767</v>
       </c>
-      <c r="AA6" s="504"/>
-      <c r="AB6" s="510">
+      <c r="AA6" s="506"/>
+      <c r="AB6" s="512">
         <f t="shared" ref="AB6" si="0">SUM(V6:AA6)</f>
         <v>12227.098846153847</v>
       </c>
-      <c r="AC6" s="511"/>
+      <c r="AC6" s="513"/>
       <c r="AD6" s="47"/>
       <c r="AE6" s="206"/>
       <c r="AF6" s="47"/>
@@ -25103,164 +25121,164 @@
       <c r="AL7" s="47"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A8" s="518" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="520" t="s">
+      <c r="A8" s="520" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="522" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="522" t="s">
+      <c r="C8" s="524" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="524" t="s">
+      <c r="D8" s="526" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="524" t="s">
+      <c r="E8" s="526" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="524" t="s">
+      <c r="F8" s="526" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="526" t="s">
+      <c r="G8" s="528" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="518">
+        <v>1</v>
+      </c>
+      <c r="I8" s="490">
+        <v>2</v>
+      </c>
+      <c r="J8" s="490">
+        <v>3</v>
+      </c>
+      <c r="K8" s="490">
+        <v>4</v>
+      </c>
+      <c r="L8" s="490">
+        <v>5</v>
+      </c>
+      <c r="M8" s="490">
+        <v>6</v>
+      </c>
+      <c r="N8" s="490">
+        <v>7</v>
+      </c>
+      <c r="O8" s="490">
+        <v>8</v>
+      </c>
+      <c r="P8" s="490">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="490">
+        <v>10</v>
+      </c>
+      <c r="R8" s="490">
+        <v>11</v>
+      </c>
+      <c r="S8" s="490">
+        <v>12</v>
+      </c>
+      <c r="T8" s="490">
+        <v>13</v>
+      </c>
+      <c r="U8" s="490">
+        <v>14</v>
+      </c>
+      <c r="V8" s="490">
+        <v>15</v>
+      </c>
+      <c r="W8" s="490">
+        <v>16</v>
+      </c>
+      <c r="X8" s="490">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="490">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="490">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="490">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="490">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="490">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="490">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="490">
         <v>24</v>
       </c>
-      <c r="H8" s="516">
-        <v>1</v>
-      </c>
-      <c r="I8" s="488">
-        <v>2</v>
-      </c>
-      <c r="J8" s="488">
-        <v>3</v>
-      </c>
-      <c r="K8" s="488">
-        <v>4</v>
-      </c>
-      <c r="L8" s="488">
-        <v>5</v>
-      </c>
-      <c r="M8" s="488">
-        <v>6</v>
-      </c>
-      <c r="N8" s="488">
-        <v>7</v>
-      </c>
-      <c r="O8" s="488">
-        <v>8</v>
-      </c>
-      <c r="P8" s="488">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="488">
-        <v>10</v>
-      </c>
-      <c r="R8" s="488">
-        <v>11</v>
-      </c>
-      <c r="S8" s="488">
-        <v>12</v>
-      </c>
-      <c r="T8" s="488">
-        <v>13</v>
-      </c>
-      <c r="U8" s="488">
-        <v>14</v>
-      </c>
-      <c r="V8" s="488">
-        <v>15</v>
-      </c>
-      <c r="W8" s="488">
-        <v>16</v>
-      </c>
-      <c r="X8" s="488">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="488">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="488">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="488">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="488">
-        <v>21</v>
-      </c>
-      <c r="AC8" s="488">
-        <v>22</v>
-      </c>
-      <c r="AD8" s="488">
-        <v>23</v>
-      </c>
-      <c r="AE8" s="488">
-        <v>24</v>
-      </c>
-      <c r="AF8" s="488">
+      <c r="AF8" s="490">
         <v>25</v>
       </c>
-      <c r="AG8" s="488">
+      <c r="AG8" s="490">
         <v>26</v>
       </c>
-      <c r="AH8" s="488">
+      <c r="AH8" s="490">
         <v>27</v>
       </c>
-      <c r="AI8" s="488">
+      <c r="AI8" s="490">
         <v>28</v>
       </c>
-      <c r="AJ8" s="488">
+      <c r="AJ8" s="490">
         <v>29</v>
       </c>
-      <c r="AK8" s="488">
+      <c r="AK8" s="490">
         <v>30</v>
       </c>
-      <c r="AL8" s="488">
+      <c r="AL8" s="490">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="519"/>
-      <c r="B9" s="521"/>
-      <c r="C9" s="523"/>
-      <c r="D9" s="525"/>
-      <c r="E9" s="525"/>
-      <c r="F9" s="525"/>
-      <c r="G9" s="527"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="489"/>
-      <c r="J9" s="489"/>
-      <c r="K9" s="489"/>
-      <c r="L9" s="489"/>
-      <c r="M9" s="489"/>
-      <c r="N9" s="489"/>
-      <c r="O9" s="489"/>
-      <c r="P9" s="489"/>
-      <c r="Q9" s="489"/>
-      <c r="R9" s="489"/>
-      <c r="S9" s="489"/>
-      <c r="T9" s="489"/>
-      <c r="U9" s="489"/>
-      <c r="V9" s="489"/>
-      <c r="W9" s="489"/>
-      <c r="X9" s="489"/>
-      <c r="Y9" s="489"/>
-      <c r="Z9" s="489"/>
-      <c r="AA9" s="489"/>
-      <c r="AB9" s="489"/>
-      <c r="AC9" s="489"/>
-      <c r="AD9" s="489"/>
-      <c r="AE9" s="489"/>
-      <c r="AF9" s="489"/>
-      <c r="AG9" s="489"/>
-      <c r="AH9" s="489"/>
-      <c r="AI9" s="489"/>
-      <c r="AJ9" s="489"/>
-      <c r="AK9" s="489"/>
-      <c r="AL9" s="489"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A9" s="521"/>
+      <c r="B9" s="523"/>
+      <c r="C9" s="525"/>
+      <c r="D9" s="527"/>
+      <c r="E9" s="527"/>
+      <c r="F9" s="527"/>
+      <c r="G9" s="529"/>
+      <c r="H9" s="519"/>
+      <c r="I9" s="491"/>
+      <c r="J9" s="491"/>
+      <c r="K9" s="491"/>
+      <c r="L9" s="491"/>
+      <c r="M9" s="491"/>
+      <c r="N9" s="491"/>
+      <c r="O9" s="491"/>
+      <c r="P9" s="491"/>
+      <c r="Q9" s="491"/>
+      <c r="R9" s="491"/>
+      <c r="S9" s="491"/>
+      <c r="T9" s="491"/>
+      <c r="U9" s="491"/>
+      <c r="V9" s="491"/>
+      <c r="W9" s="491"/>
+      <c r="X9" s="491"/>
+      <c r="Y9" s="491"/>
+      <c r="Z9" s="491"/>
+      <c r="AA9" s="491"/>
+      <c r="AB9" s="491"/>
+      <c r="AC9" s="491"/>
+      <c r="AD9" s="491"/>
+      <c r="AE9" s="491"/>
+      <c r="AF9" s="491"/>
+      <c r="AG9" s="491"/>
+      <c r="AH9" s="491"/>
+      <c r="AI9" s="491"/>
+      <c r="AJ9" s="491"/>
+      <c r="AK9" s="491"/>
+      <c r="AL9" s="491"/>
+    </row>
+    <row r="10" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="213" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B10" s="214"/>
       <c r="C10" s="215"/>
@@ -25300,1932 +25318,2086 @@
       <c r="AK10" s="217"/>
       <c r="AL10" s="217"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A11" s="72">
+    <row r="11" spans="1:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="520" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="522" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="524" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="526" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="526" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="526" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="528" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="492"/>
+      <c r="I11" s="497"/>
+      <c r="J11" s="492"/>
+      <c r="K11" s="492"/>
+      <c r="L11" s="492"/>
+      <c r="M11" s="492"/>
+      <c r="N11" s="492"/>
+      <c r="O11" s="497"/>
+      <c r="P11" s="492"/>
+      <c r="Q11" s="492"/>
+      <c r="R11" s="492"/>
+      <c r="S11" s="492"/>
+      <c r="T11" s="492"/>
+      <c r="U11" s="497"/>
+      <c r="V11" s="492"/>
+      <c r="W11" s="492"/>
+      <c r="X11" s="492"/>
+      <c r="Y11" s="492"/>
+      <c r="Z11" s="492"/>
+      <c r="AA11" s="492"/>
+      <c r="AB11" s="497"/>
+      <c r="AC11" s="492"/>
+      <c r="AD11" s="492"/>
+      <c r="AE11" s="492"/>
+      <c r="AF11" s="492"/>
+      <c r="AG11" s="492"/>
+      <c r="AH11" s="492"/>
+      <c r="AI11" s="492"/>
+      <c r="AJ11" s="492"/>
+      <c r="AK11" s="497"/>
+      <c r="AL11" s="492"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" s="521"/>
+      <c r="B12" s="523"/>
+      <c r="C12" s="525"/>
+      <c r="D12" s="527"/>
+      <c r="E12" s="527"/>
+      <c r="F12" s="527"/>
+      <c r="G12" s="529"/>
+      <c r="H12" s="492"/>
+      <c r="I12" s="497"/>
+      <c r="J12" s="492"/>
+      <c r="K12" s="492"/>
+      <c r="L12" s="492"/>
+      <c r="M12" s="492"/>
+      <c r="N12" s="492"/>
+      <c r="O12" s="497"/>
+      <c r="P12" s="492"/>
+      <c r="Q12" s="492"/>
+      <c r="R12" s="492"/>
+      <c r="S12" s="492"/>
+      <c r="T12" s="492"/>
+      <c r="U12" s="497"/>
+      <c r="V12" s="492"/>
+      <c r="W12" s="492"/>
+      <c r="X12" s="492"/>
+      <c r="Y12" s="492"/>
+      <c r="Z12" s="492"/>
+      <c r="AA12" s="492"/>
+      <c r="AB12" s="497"/>
+      <c r="AC12" s="492"/>
+      <c r="AD12" s="492"/>
+      <c r="AE12" s="492"/>
+      <c r="AF12" s="492"/>
+      <c r="AG12" s="492"/>
+      <c r="AH12" s="492"/>
+      <c r="AI12" s="492"/>
+      <c r="AJ12" s="492"/>
+      <c r="AK12" s="497"/>
+      <c r="AL12" s="492"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A13" s="72">
         <v>14</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B13" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="222">
+      <c r="C13" s="222">
         <v>22.6</v>
       </c>
-      <c r="D11" s="117">
-        <f t="shared" ref="D11:D16" si="1">C11/$C$18</f>
+      <c r="D13" s="117">
+        <f t="shared" ref="D13:D18" si="1">C13/$C$20</f>
         <v>1.918505942275043</v>
       </c>
-      <c r="E11" s="338">
+      <c r="E13" s="338">
         <v>4</v>
       </c>
-      <c r="F11" s="54">
-        <f>IF(B11=$H$3,((C11*10000)/$I$3),((C11*10000)/$K$3))</f>
+      <c r="F13" s="54">
+        <f>IF(B13=$H$3,((C13*10000)/$I$3),((C13*10000)/$K$3))</f>
         <v>322.85714285714283</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G13" s="98">
         <v>8</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H13" s="26">
         <v>1</v>
       </c>
-      <c r="I11" s="153">
+      <c r="I13" s="153">
         <v>2</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26">
         <v>1</v>
       </c>
-      <c r="P11" s="153">
+      <c r="P13" s="153">
         <v>2</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26">
         <v>1</v>
       </c>
-      <c r="X11" s="153">
+      <c r="W13" s="153">
         <v>2</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26">
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26">
         <v>1</v>
       </c>
-      <c r="AE11" s="153">
+      <c r="AD13" s="153">
         <v>2</v>
       </c>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26">
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26">
         <v>1</v>
       </c>
-      <c r="AL11" s="153">
+      <c r="AK13" s="153">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A12" s="72">
+      <c r="AL13" s="26"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A14" s="72">
         <v>15</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B14" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="222">
+      <c r="C14" s="222">
         <v>10.65</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D14" s="117">
         <f t="shared" si="1"/>
         <v>0.90407470288624814</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E14" s="73">
         <v>0</v>
       </c>
-      <c r="F12" s="54">
-        <f>IF(B12=$H$3,((C12*10000)/$I$3),((C12*10000)/$K$3))</f>
+      <c r="F14" s="54">
+        <f>IF(B14=$H$3,((C14*10000)/$I$3),((C14*10000)/$K$3))</f>
         <v>152.14285714285714</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G14" s="98">
         <v>6</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98">
+      <c r="H14" s="98"/>
+      <c r="I14" s="98">
+        <v>2</v>
+      </c>
+      <c r="J14" s="98">
         <v>3</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98">
-        <v>3</v>
-      </c>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98">
-        <v>3</v>
-      </c>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="98"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A13" s="72">
-        <v>5</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="222">
-        <v>13.02</v>
-      </c>
-      <c r="D13" s="117">
-        <f t="shared" si="1"/>
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="E13" s="73">
-        <v>2</v>
-      </c>
-      <c r="F13" s="54">
-        <f t="shared" ref="F13:F16" si="2">IF(B13=$H$3,((C13*10000)/$I$3),((C13*10000)/$K$3))</f>
-        <v>144.66666666666666</v>
-      </c>
-      <c r="G13" s="98">
-        <v>4</v>
-      </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98">
-        <v>4</v>
-      </c>
-      <c r="L13" s="98">
-        <v>5</v>
-      </c>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98">
-        <v>4</v>
-      </c>
-      <c r="S13" s="98">
-        <v>5</v>
-      </c>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="98">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="98">
-        <v>4</v>
-      </c>
-      <c r="AH13" s="98">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="98"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A14" s="72">
-        <v>3</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="222">
-        <v>8.27</v>
-      </c>
-      <c r="D14" s="117">
-        <f t="shared" si="1"/>
-        <v>0.70203735144312407</v>
-      </c>
-      <c r="E14" s="73">
-        <v>2</v>
-      </c>
-      <c r="F14" s="54">
-        <f t="shared" si="2"/>
-        <v>91.888888888888886</v>
-      </c>
-      <c r="G14" s="98">
-        <v>3</v>
-      </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
       <c r="K14" s="98"/>
       <c r="L14" s="98"/>
-      <c r="M14" s="98">
-        <v>6</v>
-      </c>
+      <c r="M14" s="98"/>
       <c r="N14" s="98"/>
       <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
+      <c r="P14" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="98">
+        <v>3</v>
+      </c>
       <c r="R14" s="98"/>
       <c r="S14" s="98"/>
       <c r="T14" s="98"/>
-      <c r="U14" s="98">
-        <v>6</v>
-      </c>
+      <c r="U14" s="98"/>
       <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
+      <c r="W14" s="98">
+        <v>2</v>
+      </c>
+      <c r="X14" s="98">
+        <v>3</v>
+      </c>
       <c r="Y14" s="98"/>
       <c r="Z14" s="98"/>
       <c r="AA14" s="98"/>
-      <c r="AB14" s="98">
-        <v>6</v>
-      </c>
+      <c r="AB14" s="98"/>
       <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
+      <c r="AD14" s="98">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="98">
+        <v>3</v>
+      </c>
       <c r="AF14" s="98"/>
       <c r="AG14" s="98"/>
       <c r="AH14" s="98"/>
-      <c r="AI14" s="98">
-        <v>6</v>
-      </c>
+      <c r="AI14" s="98"/>
       <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="98"/>
+      <c r="AK14" s="98">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="98">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="73" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="222">
-        <v>14.99</v>
+        <v>13.02</v>
       </c>
       <c r="D15" s="117">
         <f t="shared" si="1"/>
-        <v>1.2724957555178271</v>
+        <v>1.1052631578947369</v>
       </c>
       <c r="E15" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="54">
-        <f t="shared" si="2"/>
-        <v>166.55555555555554</v>
-      </c>
-      <c r="G15" s="192">
-        <v>2</v>
-      </c>
-      <c r="H15" s="153"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26">
-        <v>6</v>
-      </c>
-      <c r="N15" s="26">
-        <v>7</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26">
-        <v>6</v>
-      </c>
-      <c r="V15" s="26">
-        <v>7</v>
-      </c>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="26">
-        <v>7</v>
-      </c>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153">
-        <v>6</v>
-      </c>
-      <c r="AJ15" s="26">
-        <v>7</v>
-      </c>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
+        <f t="shared" ref="F15:F18" si="2">IF(B15=$H$3,((C15*10000)/$I$3),((C15*10000)/$K$3))</f>
+        <v>144.66666666666666</v>
+      </c>
+      <c r="G15" s="98">
+        <v>4</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98">
+        <v>4</v>
+      </c>
+      <c r="L15" s="98">
+        <v>5</v>
+      </c>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98">
+        <v>4</v>
+      </c>
+      <c r="S15" s="98">
+        <v>5</v>
+      </c>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="98">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="98">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="98"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="72">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C16" s="222">
-        <v>12.93</v>
+        <v>8.27</v>
       </c>
       <c r="D16" s="117">
         <f t="shared" si="1"/>
-        <v>1.0976230899830224</v>
+        <v>0.70203735144312407</v>
       </c>
       <c r="E16" s="73">
         <v>2</v>
       </c>
       <c r="F16" s="54">
         <f t="shared" si="2"/>
-        <v>184.71428571428572</v>
+        <v>91.888888888888886</v>
       </c>
       <c r="G16" s="98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="98"/>
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98">
-        <v>7</v>
-      </c>
+      <c r="L16" s="98">
+        <v>5</v>
+      </c>
+      <c r="M16" s="98">
+        <v>6</v>
+      </c>
+      <c r="N16" s="98"/>
       <c r="O16" s="98"/>
       <c r="P16" s="98"/>
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
+      <c r="S16" s="98">
+        <v>5</v>
+      </c>
+      <c r="T16" s="98">
+        <v>6</v>
+      </c>
       <c r="U16" s="98"/>
-      <c r="V16" s="98">
-        <v>7</v>
-      </c>
+      <c r="V16" s="98"/>
       <c r="W16" s="98"/>
       <c r="X16" s="98"/>
       <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
+      <c r="Z16" s="98">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="98">
+        <v>6</v>
+      </c>
       <c r="AB16" s="98"/>
-      <c r="AC16" s="98">
-        <v>7</v>
-      </c>
+      <c r="AC16" s="98"/>
       <c r="AD16" s="98"/>
       <c r="AE16" s="98"/>
       <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
+      <c r="AG16" s="98">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="98">
+        <v>6</v>
+      </c>
       <c r="AI16" s="98"/>
-      <c r="AJ16" s="98">
-        <v>7</v>
-      </c>
+      <c r="AJ16" s="98"/>
       <c r="AK16" s="98"/>
       <c r="AL16" s="98"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A17" s="223"/>
-      <c r="B17" s="195" t="s">
+      <c r="A17" s="72">
+        <v>7</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="222">
+        <v>14.99</v>
+      </c>
+      <c r="D17" s="117">
+        <f t="shared" si="1"/>
+        <v>1.2724957555178271</v>
+      </c>
+      <c r="E17" s="73">
+        <v>3</v>
+      </c>
+      <c r="F17" s="54">
+        <f t="shared" si="2"/>
+        <v>166.55555555555554</v>
+      </c>
+      <c r="G17" s="192">
+        <v>2</v>
+      </c>
+      <c r="H17" s="153"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26">
+        <v>6</v>
+      </c>
+      <c r="N17" s="26">
+        <v>7</v>
+      </c>
+      <c r="O17" s="153"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26">
+        <v>6</v>
+      </c>
+      <c r="U17" s="26">
+        <v>7</v>
+      </c>
+      <c r="V17" s="153"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="153"/>
+      <c r="AF17" s="153"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26">
+        <v>6</v>
+      </c>
+      <c r="AI17" s="26">
+        <v>7</v>
+      </c>
+      <c r="AJ17" s="153"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="153"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A18" s="72">
+        <v>12</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="222">
+        <v>12.93</v>
+      </c>
+      <c r="D18" s="117">
+        <f t="shared" si="1"/>
+        <v>1.0976230899830224</v>
+      </c>
+      <c r="E18" s="73">
+        <v>2</v>
+      </c>
+      <c r="F18" s="54">
+        <f t="shared" si="2"/>
+        <v>184.71428571428572</v>
+      </c>
+      <c r="G18" s="98">
+        <v>1</v>
+      </c>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98">
+        <v>7</v>
+      </c>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98">
+        <v>7</v>
+      </c>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98">
+        <v>7</v>
+      </c>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A19" s="223"/>
+      <c r="B19" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="115">
-        <f>SUM(C11:C16)</f>
+      <c r="C19" s="115">
+        <f>SUM(C13:C18)</f>
         <v>82.45999999999998</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="116">
-        <f>SUM(F11:F16)</f>
+      <c r="D19" s="116"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="116">
+        <f>SUM(F13:F18)</f>
         <v>1062.8253968253969</v>
       </c>
-      <c r="G17" s="197"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-    </row>
-    <row r="18" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="224"/>
-      <c r="B18" s="225" t="s">
+      <c r="G19" s="197"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+    </row>
+    <row r="20" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="224"/>
+      <c r="B20" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="226">
-        <f>C17/F3</f>
+      <c r="C20" s="226">
+        <f>C19/F3</f>
         <v>11.779999999999998</v>
       </c>
-      <c r="D18" s="226"/>
-      <c r="E18" s="225" t="s">
+      <c r="D20" s="226"/>
+      <c r="E20" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="226">
-        <f>F17/$F$3</f>
+      <c r="F20" s="226">
+        <f>F19/$F$3</f>
         <v>151.83219954648527</v>
       </c>
-      <c r="G18" s="198" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-    </row>
-    <row r="19" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="213" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="320"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="221"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="221"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="228"/>
-      <c r="R19" s="228"/>
-      <c r="S19" s="228"/>
-      <c r="T19" s="228"/>
-      <c r="U19" s="228"/>
-      <c r="V19" s="228"/>
-      <c r="W19" s="228"/>
-      <c r="X19" s="228"/>
-      <c r="Y19" s="228"/>
-      <c r="Z19" s="228"/>
-      <c r="AA19" s="228"/>
-      <c r="AB19" s="228"/>
-      <c r="AC19" s="228"/>
-      <c r="AD19" s="228"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="228"/>
-      <c r="AG19" s="228"/>
-      <c r="AH19" s="228"/>
-      <c r="AI19" s="228"/>
-      <c r="AJ19" s="228"/>
-      <c r="AK19" s="228"/>
-      <c r="AL19" s="228"/>
-    </row>
-    <row r="20" spans="1:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="518" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="520" t="s">
+      <c r="G20" s="198"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+    </row>
+    <row r="21" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="213" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="320"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="221"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="221"/>
+      <c r="O21" s="221"/>
+      <c r="P21" s="221"/>
+      <c r="Q21" s="228"/>
+      <c r="R21" s="228"/>
+      <c r="S21" s="228"/>
+      <c r="T21" s="228"/>
+      <c r="U21" s="228"/>
+      <c r="V21" s="228"/>
+      <c r="W21" s="228"/>
+      <c r="X21" s="228"/>
+      <c r="Y21" s="228"/>
+      <c r="Z21" s="228"/>
+      <c r="AA21" s="228"/>
+      <c r="AB21" s="228"/>
+      <c r="AC21" s="228"/>
+      <c r="AD21" s="228"/>
+      <c r="AE21" s="228"/>
+      <c r="AF21" s="228"/>
+      <c r="AG21" s="228"/>
+      <c r="AH21" s="228"/>
+      <c r="AI21" s="228"/>
+      <c r="AJ21" s="228"/>
+      <c r="AK21" s="228"/>
+      <c r="AL21" s="228"/>
+    </row>
+    <row r="22" spans="1:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="520" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="522" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="522" t="s">
+      <c r="C22" s="524" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="524" t="s">
+      <c r="D22" s="526" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="524" t="s">
+      <c r="E22" s="526" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="524" t="s">
+      <c r="F22" s="526" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="526" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="490"/>
-      <c r="I20" s="495"/>
-      <c r="J20" s="490"/>
-      <c r="K20" s="490"/>
-      <c r="L20" s="490"/>
-      <c r="M20" s="490"/>
-      <c r="N20" s="490"/>
-      <c r="O20" s="495"/>
-      <c r="P20" s="490"/>
-      <c r="Q20" s="490"/>
-      <c r="R20" s="490"/>
-      <c r="S20" s="490"/>
-      <c r="T20" s="490"/>
-      <c r="U20" s="495"/>
-      <c r="V20" s="490"/>
-      <c r="W20" s="490"/>
-      <c r="X20" s="490"/>
-      <c r="Y20" s="490"/>
-      <c r="Z20" s="490"/>
-      <c r="AA20" s="490"/>
-      <c r="AB20" s="495"/>
-      <c r="AC20" s="490"/>
-      <c r="AD20" s="490"/>
-      <c r="AE20" s="490"/>
-      <c r="AF20" s="490"/>
-      <c r="AG20" s="490"/>
-      <c r="AH20" s="490"/>
-      <c r="AI20" s="490"/>
-      <c r="AJ20" s="490"/>
-      <c r="AK20" s="495"/>
-      <c r="AL20" s="490"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A21" s="519"/>
-      <c r="B21" s="521"/>
-      <c r="C21" s="523"/>
-      <c r="D21" s="525"/>
-      <c r="E21" s="525"/>
-      <c r="F21" s="525"/>
-      <c r="G21" s="527"/>
-      <c r="H21" s="490"/>
-      <c r="I21" s="495"/>
-      <c r="J21" s="490"/>
-      <c r="K21" s="490"/>
-      <c r="L21" s="490"/>
-      <c r="M21" s="490"/>
-      <c r="N21" s="490"/>
-      <c r="O21" s="495"/>
-      <c r="P21" s="490"/>
-      <c r="Q21" s="490"/>
-      <c r="R21" s="490"/>
-      <c r="S21" s="490"/>
-      <c r="T21" s="490"/>
-      <c r="U21" s="495"/>
-      <c r="V21" s="490"/>
-      <c r="W21" s="490"/>
-      <c r="X21" s="490"/>
-      <c r="Y21" s="490"/>
-      <c r="Z21" s="490"/>
-      <c r="AA21" s="490"/>
-      <c r="AB21" s="495"/>
-      <c r="AC21" s="490"/>
-      <c r="AD21" s="490"/>
-      <c r="AE21" s="490"/>
-      <c r="AF21" s="490"/>
-      <c r="AG21" s="490"/>
-      <c r="AH21" s="490"/>
-      <c r="AI21" s="490"/>
-      <c r="AJ21" s="490"/>
-      <c r="AK21" s="495"/>
-      <c r="AL21" s="490"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A22" s="72">
-        <v>10</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="222">
-        <v>22.55</v>
-      </c>
-      <c r="D22" s="54">
-        <v>2.5</v>
-      </c>
-      <c r="E22" s="73">
-        <v>1</v>
-      </c>
-      <c r="F22" s="54">
-        <f>IF(B22=$H$3,((C22*10000)/$I$3),((C22*10000)/$K$3))</f>
-        <v>250.55555555555554</v>
-      </c>
-      <c r="G22" s="192">
-        <v>8</v>
-      </c>
-      <c r="H22" s="192">
-        <v>1</v>
-      </c>
-      <c r="I22" s="54">
-        <v>2</v>
-      </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54">
-        <v>1</v>
-      </c>
-      <c r="P22" s="54">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54">
-        <v>1</v>
-      </c>
-      <c r="X22" s="54">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="54">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="54">
-        <v>2</v>
-      </c>
+      <c r="G22" s="528" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="492"/>
+      <c r="I22" s="497"/>
+      <c r="J22" s="492"/>
+      <c r="K22" s="492"/>
+      <c r="L22" s="492"/>
+      <c r="M22" s="492"/>
+      <c r="N22" s="492"/>
+      <c r="O22" s="497"/>
+      <c r="P22" s="492"/>
+      <c r="Q22" s="492"/>
+      <c r="R22" s="492"/>
+      <c r="S22" s="492"/>
+      <c r="T22" s="492"/>
+      <c r="U22" s="497"/>
+      <c r="V22" s="492"/>
+      <c r="W22" s="492"/>
+      <c r="X22" s="492"/>
+      <c r="Y22" s="492"/>
+      <c r="Z22" s="492"/>
+      <c r="AA22" s="492"/>
+      <c r="AB22" s="497"/>
+      <c r="AC22" s="492"/>
+      <c r="AD22" s="492"/>
+      <c r="AE22" s="492"/>
+      <c r="AF22" s="492"/>
+      <c r="AG22" s="492"/>
+      <c r="AH22" s="492"/>
+      <c r="AI22" s="492"/>
+      <c r="AJ22" s="492"/>
+      <c r="AK22" s="497"/>
+      <c r="AL22" s="492"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A23" s="72">
-        <v>42</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="222">
-        <v>7.51</v>
-      </c>
-      <c r="D23" s="54">
-        <f>C23/$C$29</f>
-        <v>0.70018646776771443</v>
-      </c>
-      <c r="E23" s="73">
-        <v>2</v>
-      </c>
-      <c r="F23" s="54">
-        <f>IF(B23=$H$3,((C23*10000)/$I$3),((C23*10000)/$K$3))</f>
-        <v>107.28571428571429</v>
-      </c>
-      <c r="G23" s="98">
-        <v>6</v>
-      </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98">
-        <v>3</v>
-      </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98">
-        <v>3</v>
-      </c>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98">
-        <v>3</v>
-      </c>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="98"/>
+      <c r="A23" s="521"/>
+      <c r="B23" s="523"/>
+      <c r="C23" s="525"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="527"/>
+      <c r="G23" s="529"/>
+      <c r="H23" s="492"/>
+      <c r="I23" s="497"/>
+      <c r="J23" s="492"/>
+      <c r="K23" s="492"/>
+      <c r="L23" s="492"/>
+      <c r="M23" s="492"/>
+      <c r="N23" s="492"/>
+      <c r="O23" s="497"/>
+      <c r="P23" s="492"/>
+      <c r="Q23" s="492"/>
+      <c r="R23" s="492"/>
+      <c r="S23" s="492"/>
+      <c r="T23" s="492"/>
+      <c r="U23" s="497"/>
+      <c r="V23" s="492"/>
+      <c r="W23" s="492"/>
+      <c r="X23" s="492"/>
+      <c r="Y23" s="492"/>
+      <c r="Z23" s="492"/>
+      <c r="AA23" s="492"/>
+      <c r="AB23" s="497"/>
+      <c r="AC23" s="492"/>
+      <c r="AD23" s="492"/>
+      <c r="AE23" s="492"/>
+      <c r="AF23" s="492"/>
+      <c r="AG23" s="492"/>
+      <c r="AH23" s="492"/>
+      <c r="AI23" s="492"/>
+      <c r="AJ23" s="492"/>
+      <c r="AK23" s="497"/>
+      <c r="AL23" s="492"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="72">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C24" s="222">
-        <v>7.41</v>
+        <v>22.55</v>
       </c>
       <c r="D24" s="54">
-        <f>C24/$C$29</f>
-        <v>0.69086307938199254</v>
+        <v>2.5</v>
       </c>
       <c r="E24" s="73">
         <v>1</v>
       </c>
       <c r="F24" s="54">
         <f>IF(B24=$H$3,((C24*10000)/$I$3),((C24*10000)/$K$3))</f>
-        <v>105.85714285714286</v>
-      </c>
-      <c r="G24" s="98">
-        <v>4</v>
-      </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98">
-        <v>4</v>
-      </c>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98">
-        <v>4</v>
-      </c>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98">
-        <v>4</v>
-      </c>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
+        <v>250.55555555555554</v>
+      </c>
+      <c r="G24" s="192">
+        <v>8</v>
+      </c>
+      <c r="H24" s="192">
+        <v>1</v>
+      </c>
+      <c r="I24" s="54">
+        <v>2</v>
+      </c>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="192">
+        <v>1</v>
+      </c>
+      <c r="P24" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="192">
+        <v>1</v>
+      </c>
+      <c r="W24" s="54">
+        <v>2</v>
+      </c>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="192">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="54">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="192">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="54">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="54"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="72">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="230">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C25" s="222">
+        <v>7.51</v>
       </c>
       <c r="D25" s="54">
-        <f>C25/$C$29</f>
-        <v>1.5849760255727223</v>
+        <f>C25/$C$31</f>
+        <v>0.70018646776771443</v>
       </c>
       <c r="E25" s="73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="54">
         <f>IF(B25=$H$3,((C25*10000)/$I$3),((C25*10000)/$K$3))</f>
-        <v>188.88888888888889</v>
+        <v>107.28571428571429</v>
       </c>
       <c r="G25" s="98">
+        <v>6</v>
+      </c>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98">
+        <v>2</v>
+      </c>
+      <c r="J25" s="98">
         <v>3</v>
       </c>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
       <c r="K25" s="98"/>
-      <c r="L25" s="98">
-        <v>5</v>
-      </c>
-      <c r="M25" s="98">
-        <v>6</v>
-      </c>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
+      <c r="P25" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="98">
+        <v>3</v>
+      </c>
       <c r="R25" s="98"/>
-      <c r="S25" s="98">
-        <v>5</v>
-      </c>
+      <c r="S25" s="98"/>
       <c r="T25" s="98"/>
-      <c r="U25" s="98">
-        <v>6</v>
-      </c>
+      <c r="U25" s="98"/>
       <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
+      <c r="W25" s="98">
+        <v>2</v>
+      </c>
+      <c r="X25" s="98">
+        <v>3</v>
+      </c>
       <c r="Y25" s="98"/>
       <c r="Z25" s="98"/>
-      <c r="AA25" s="98">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="98">
-        <v>6</v>
-      </c>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
       <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="98"/>
+      <c r="AD25" s="98">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="98">
+        <v>3</v>
+      </c>
       <c r="AF25" s="98"/>
       <c r="AG25" s="98"/>
-      <c r="AH25" s="98">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="98">
-        <v>6</v>
-      </c>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
       <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="98"/>
+      <c r="AK25" s="98">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="98">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="72">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="73">
-        <v>4.5999999999999996</v>
+      <c r="C26" s="222">
+        <v>7.41</v>
       </c>
       <c r="D26" s="54">
-        <v>0.5</v>
+        <f>C26/$C$31</f>
+        <v>0.69086307938199254</v>
       </c>
       <c r="E26" s="73">
         <v>1</v>
       </c>
       <c r="F26" s="54">
-        <f t="shared" ref="F26:F27" si="3">IF(B26=$H$3,((C26*10000)/$I$3),((C26*10000)/$K$3))</f>
-        <v>65.714285714285708</v>
+        <f>IF(B26=$H$3,((C26*10000)/$I$3),((C26*10000)/$K$3))</f>
+        <v>105.85714285714286</v>
       </c>
       <c r="G26" s="98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="98"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="331">
-        <v>6</v>
-      </c>
-      <c r="N26" s="200">
-        <v>7</v>
-      </c>
-      <c r="O26" s="200"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="200"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="331"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200">
-        <v>6</v>
-      </c>
-      <c r="V26" s="200">
-        <v>7</v>
-      </c>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
-      <c r="Z26" s="331"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="200">
-        <v>7</v>
-      </c>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="331"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="331"/>
-      <c r="AI26" s="331">
-        <v>6</v>
-      </c>
-      <c r="AJ26" s="200">
-        <v>7</v>
-      </c>
-      <c r="AK26" s="200"/>
-      <c r="AL26" s="200"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98">
+        <v>4</v>
+      </c>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98">
+        <v>4</v>
+      </c>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="72">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="222">
-        <v>16.010000000000002</v>
+      <c r="C27" s="230">
+        <v>17</v>
       </c>
       <c r="D27" s="54">
-        <f>C27/$C$29</f>
-        <v>1.4926744805540757</v>
+        <f>C27/$C$31</f>
+        <v>1.5849760255727223</v>
       </c>
       <c r="E27" s="73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="54">
-        <f t="shared" si="3"/>
-        <v>177.88888888888891</v>
-      </c>
-      <c r="G27" s="192">
-        <v>1</v>
-      </c>
-      <c r="H27" s="192"/>
+        <f>IF(B27=$H$3,((C27*10000)/$I$3),((C27*10000)/$K$3))</f>
+        <v>188.88888888888889</v>
+      </c>
+      <c r="G27" s="98">
+        <v>3</v>
+      </c>
+      <c r="H27" s="98"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
       <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98">
-        <v>7</v>
-      </c>
+      <c r="L27" s="98">
+        <v>5</v>
+      </c>
+      <c r="M27" s="98">
+        <v>6</v>
+      </c>
+      <c r="N27" s="98"/>
       <c r="O27" s="98"/>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
       <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
+      <c r="S27" s="98">
+        <v>5</v>
+      </c>
+      <c r="T27" s="98">
+        <v>6</v>
+      </c>
       <c r="U27" s="98"/>
-      <c r="V27" s="98">
-        <v>7</v>
-      </c>
+      <c r="V27" s="98"/>
       <c r="W27" s="98"/>
       <c r="X27" s="98"/>
       <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
+      <c r="Z27" s="98">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="98">
+        <v>6</v>
+      </c>
       <c r="AB27" s="98"/>
-      <c r="AC27" s="98">
-        <v>7</v>
-      </c>
+      <c r="AC27" s="98"/>
       <c r="AD27" s="98"/>
       <c r="AE27" s="98"/>
       <c r="AF27" s="98"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="98"/>
+      <c r="AG27" s="98">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="98">
+        <v>6</v>
+      </c>
       <c r="AI27" s="98"/>
-      <c r="AJ27" s="98">
-        <v>7</v>
-      </c>
+      <c r="AJ27" s="98"/>
       <c r="AK27" s="98"/>
       <c r="AL27" s="98"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="93" t="s">
+      <c r="A28" s="72">
+        <v>43</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="73">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D28" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="73">
+        <v>1</v>
+      </c>
+      <c r="F28" s="54">
+        <f t="shared" ref="F28:F29" si="3">IF(B28=$H$3,((C28*10000)/$I$3),((C28*10000)/$K$3))</f>
+        <v>65.714285714285708</v>
+      </c>
+      <c r="G28" s="98">
+        <v>2</v>
+      </c>
+      <c r="H28" s="98"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="331">
+        <v>6</v>
+      </c>
+      <c r="N28" s="200">
+        <v>7</v>
+      </c>
+      <c r="O28" s="98"/>
+      <c r="P28" s="200"/>
+      <c r="Q28" s="200"/>
+      <c r="R28" s="200"/>
+      <c r="S28" s="200"/>
+      <c r="T28" s="331">
+        <v>6</v>
+      </c>
+      <c r="U28" s="200">
+        <v>7</v>
+      </c>
+      <c r="V28" s="98"/>
+      <c r="W28" s="200"/>
+      <c r="X28" s="200"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="200"/>
+      <c r="AA28" s="331">
+        <v>6</v>
+      </c>
+      <c r="AB28" s="200">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="200"/>
+      <c r="AE28" s="200"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="331">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="200">
+        <v>7</v>
+      </c>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="200"/>
+      <c r="AL28" s="200"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A29" s="72">
+        <v>11</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="222">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D29" s="54">
+        <f>C29/$C$31</f>
+        <v>1.4926744805540757</v>
+      </c>
+      <c r="E29" s="73">
+        <v>2</v>
+      </c>
+      <c r="F29" s="54">
+        <f t="shared" si="3"/>
+        <v>177.88888888888891</v>
+      </c>
+      <c r="G29" s="192">
+        <v>1</v>
+      </c>
+      <c r="H29" s="192"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98">
+        <v>7</v>
+      </c>
+      <c r="O29" s="192"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98">
+        <v>7</v>
+      </c>
+      <c r="V29" s="192"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="192"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98">
+        <v>7</v>
+      </c>
+      <c r="AJ29" s="192"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A30" s="134"/>
+      <c r="B30" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="115">
-        <f>SUM(C22:C27)</f>
+      <c r="C30" s="115">
+        <f>SUM(C24:C29)</f>
         <v>75.08</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="116">
-        <f>SUM(F22:F27)</f>
+      <c r="D30" s="54"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="116">
+        <f>SUM(F24:F29)</f>
         <v>896.19047619047615</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-    </row>
-    <row r="29" spans="1:38" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="224"/>
-      <c r="B29" s="225" t="s">
+      <c r="G30" s="117"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+    </row>
+    <row r="31" spans="1:38" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="224"/>
+      <c r="B31" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="226">
-        <f>C28/F3</f>
+      <c r="C31" s="226">
+        <f>C30/F3</f>
         <v>10.725714285714286</v>
       </c>
-      <c r="D29" s="226"/>
-      <c r="E29" s="225" t="s">
+      <c r="D31" s="226"/>
+      <c r="E31" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="226">
-        <f>F28/$F$3</f>
+      <c r="F31" s="226">
+        <f>F30/$F$3</f>
         <v>128.02721088435374</v>
       </c>
-      <c r="G29" s="198" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="319"/>
-      <c r="J29" s="339"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A30" s="234"/>
-      <c r="B30" s="235"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="238"/>
-      <c r="I30" s="321"/>
-      <c r="J30" s="340"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="238"/>
-      <c r="M30" s="238"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="238"/>
-      <c r="P30" s="238"/>
-      <c r="Q30" s="238"/>
-      <c r="R30" s="238"/>
-      <c r="S30" s="238"/>
-      <c r="T30" s="238"/>
-      <c r="U30" s="238"/>
-      <c r="V30" s="238"/>
-      <c r="W30" s="238"/>
-      <c r="X30" s="238"/>
-      <c r="Y30" s="238"/>
-      <c r="Z30" s="238"/>
-      <c r="AA30" s="238"/>
-      <c r="AB30" s="238"/>
-      <c r="AC30" s="238"/>
-      <c r="AD30" s="238"/>
-      <c r="AE30" s="238"/>
-      <c r="AF30" s="238"/>
-      <c r="AG30" s="238"/>
-      <c r="AH30" s="238"/>
-      <c r="AI30" s="238"/>
-      <c r="AJ30" s="238"/>
-      <c r="AK30" s="238"/>
-      <c r="AL30" s="238"/>
-    </row>
-    <row r="31" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="240" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="336"/>
-      <c r="C31" s="337"/>
-      <c r="D31" s="338"/>
-      <c r="E31" s="338"/>
-      <c r="F31" s="338"/>
-      <c r="G31" s="338"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="319"/>
+      <c r="J31" s="339"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A32" s="518" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="520" t="s">
+      <c r="A32" s="234"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="236"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="236"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="321"/>
+      <c r="J32" s="340"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="238"/>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="238"/>
+      <c r="R32" s="238"/>
+      <c r="S32" s="238"/>
+      <c r="T32" s="238"/>
+      <c r="U32" s="238"/>
+      <c r="V32" s="238"/>
+      <c r="W32" s="238"/>
+      <c r="X32" s="238"/>
+      <c r="Y32" s="238"/>
+      <c r="Z32" s="238"/>
+      <c r="AA32" s="238"/>
+      <c r="AB32" s="238"/>
+      <c r="AC32" s="238"/>
+      <c r="AD32" s="238"/>
+      <c r="AE32" s="238"/>
+      <c r="AF32" s="238"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="238"/>
+      <c r="AJ32" s="238"/>
+      <c r="AK32" s="238"/>
+      <c r="AL32" s="238"/>
+    </row>
+    <row r="33" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="240" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="336"/>
+      <c r="C33" s="337"/>
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="338"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A34" s="520" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="522" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="522" t="s">
+      <c r="C34" s="524" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="524" t="s">
+      <c r="D34" s="526" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="524" t="s">
+      <c r="E34" s="526" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="524" t="s">
+      <c r="F34" s="526" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="526" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="490"/>
-      <c r="I32" s="495"/>
-      <c r="J32" s="490"/>
-      <c r="K32" s="490"/>
-      <c r="L32" s="490"/>
-      <c r="M32" s="490"/>
-      <c r="N32" s="490"/>
-      <c r="O32" s="495"/>
-      <c r="P32" s="490"/>
-      <c r="Q32" s="490"/>
-      <c r="R32" s="490"/>
-      <c r="S32" s="490"/>
-      <c r="T32" s="490"/>
-      <c r="U32" s="495"/>
-      <c r="V32" s="490"/>
-      <c r="W32" s="490"/>
-      <c r="X32" s="490"/>
-      <c r="Y32" s="490"/>
-      <c r="Z32" s="490"/>
-      <c r="AA32" s="490"/>
-      <c r="AB32" s="495"/>
-      <c r="AC32" s="490"/>
-      <c r="AD32" s="490"/>
-      <c r="AE32" s="490"/>
-      <c r="AF32" s="490"/>
-      <c r="AG32" s="490"/>
-      <c r="AH32" s="490"/>
-      <c r="AI32" s="490"/>
-      <c r="AJ32" s="490"/>
-      <c r="AK32" s="495"/>
-      <c r="AL32" s="490"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A33" s="519"/>
-      <c r="B33" s="521"/>
-      <c r="C33" s="523"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="525"/>
-      <c r="F33" s="525"/>
-      <c r="G33" s="527"/>
-      <c r="H33" s="490"/>
-      <c r="I33" s="495"/>
-      <c r="J33" s="490"/>
-      <c r="K33" s="490"/>
-      <c r="L33" s="490"/>
-      <c r="M33" s="490"/>
-      <c r="N33" s="490"/>
-      <c r="O33" s="495"/>
-      <c r="P33" s="490"/>
-      <c r="Q33" s="490"/>
-      <c r="R33" s="490"/>
-      <c r="S33" s="490"/>
-      <c r="T33" s="490"/>
-      <c r="U33" s="495"/>
-      <c r="V33" s="490"/>
-      <c r="W33" s="490"/>
-      <c r="X33" s="490"/>
-      <c r="Y33" s="490"/>
-      <c r="Z33" s="490"/>
-      <c r="AA33" s="490"/>
-      <c r="AB33" s="495"/>
-      <c r="AC33" s="490"/>
-      <c r="AD33" s="490"/>
-      <c r="AE33" s="490"/>
-      <c r="AF33" s="490"/>
-      <c r="AG33" s="490"/>
-      <c r="AH33" s="490"/>
-      <c r="AI33" s="490"/>
-      <c r="AJ33" s="490"/>
-      <c r="AK33" s="495"/>
-      <c r="AL33" s="490"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A34" s="72">
-        <v>44</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="230">
-        <v>7.19</v>
-      </c>
-      <c r="D34" s="54">
-        <f>C34/Sheet3!$C$40</f>
-        <v>0.65143670722236613</v>
-      </c>
-      <c r="E34" s="73">
-        <v>2</v>
-      </c>
-      <c r="F34" s="54">
-        <f>IF(B34=Sheet3!$H$3,((C34*10000)/Sheet3!$I$3),((C34*10000)/Sheet3!$K$3))</f>
-        <v>102.71428571428571</v>
-      </c>
-      <c r="G34" s="54">
-        <v>8</v>
-      </c>
-      <c r="H34" s="54">
-        <v>1</v>
-      </c>
-      <c r="I34" s="101"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54">
-        <v>1</v>
-      </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54">
-        <v>1</v>
-      </c>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="54"/>
+      <c r="G34" s="528" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="492"/>
+      <c r="I34" s="497"/>
+      <c r="J34" s="492"/>
+      <c r="K34" s="492"/>
+      <c r="L34" s="492"/>
+      <c r="M34" s="492"/>
+      <c r="N34" s="492"/>
+      <c r="O34" s="497"/>
+      <c r="P34" s="492"/>
+      <c r="Q34" s="492"/>
+      <c r="R34" s="492"/>
+      <c r="S34" s="492"/>
+      <c r="T34" s="492"/>
+      <c r="U34" s="497"/>
+      <c r="V34" s="492"/>
+      <c r="W34" s="492"/>
+      <c r="X34" s="492"/>
+      <c r="Y34" s="492"/>
+      <c r="Z34" s="492"/>
+      <c r="AA34" s="492"/>
+      <c r="AB34" s="497"/>
+      <c r="AC34" s="492"/>
+      <c r="AD34" s="492"/>
+      <c r="AE34" s="492"/>
+      <c r="AF34" s="492"/>
+      <c r="AG34" s="492"/>
+      <c r="AH34" s="492"/>
+      <c r="AI34" s="492"/>
+      <c r="AJ34" s="492"/>
+      <c r="AK34" s="497"/>
+      <c r="AL34" s="492"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A35" s="72">
-        <v>13</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="222">
-        <v>14.34</v>
-      </c>
-      <c r="D35" s="54">
-        <f>C35/$C$41</f>
-        <v>1.1886323268206038</v>
-      </c>
-      <c r="E35" s="73">
-        <v>1</v>
-      </c>
-      <c r="F35" s="54">
-        <f t="shared" ref="F35:F39" si="4">IF(B35=$H$3,((C35*10000)/$I$3),((C35*10000)/$K$3))</f>
-        <v>204.85714285714286</v>
-      </c>
-      <c r="G35" s="200">
-        <v>8</v>
-      </c>
-      <c r="H35" s="200">
-        <v>1</v>
-      </c>
-      <c r="I35" s="200"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="200"/>
-      <c r="L35" s="200"/>
-      <c r="M35" s="200"/>
-      <c r="N35" s="200"/>
-      <c r="O35" s="200">
-        <v>1</v>
-      </c>
-      <c r="P35" s="200"/>
-      <c r="Q35" s="200"/>
-      <c r="R35" s="200"/>
-      <c r="S35" s="200"/>
-      <c r="T35" s="200"/>
-      <c r="U35" s="200"/>
-      <c r="V35" s="200"/>
-      <c r="W35" s="200">
-        <v>1</v>
-      </c>
-      <c r="X35" s="200"/>
-      <c r="Y35" s="200"/>
-      <c r="Z35" s="200"/>
-      <c r="AA35" s="200"/>
-      <c r="AB35" s="200"/>
-      <c r="AC35" s="200"/>
-      <c r="AD35" s="200">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="200"/>
-      <c r="AF35" s="200"/>
-      <c r="AG35" s="200"/>
-      <c r="AH35" s="200"/>
-      <c r="AI35" s="200"/>
-      <c r="AJ35" s="200"/>
-      <c r="AK35" s="200">
-        <v>1</v>
-      </c>
-      <c r="AL35" s="200"/>
+      <c r="A35" s="521"/>
+      <c r="B35" s="523"/>
+      <c r="C35" s="525"/>
+      <c r="D35" s="527"/>
+      <c r="E35" s="527"/>
+      <c r="F35" s="527"/>
+      <c r="G35" s="529"/>
+      <c r="H35" s="492"/>
+      <c r="I35" s="497"/>
+      <c r="J35" s="492"/>
+      <c r="K35" s="492"/>
+      <c r="L35" s="492"/>
+      <c r="M35" s="492"/>
+      <c r="N35" s="492"/>
+      <c r="O35" s="497"/>
+      <c r="P35" s="492"/>
+      <c r="Q35" s="492"/>
+      <c r="R35" s="492"/>
+      <c r="S35" s="492"/>
+      <c r="T35" s="492"/>
+      <c r="U35" s="497"/>
+      <c r="V35" s="492"/>
+      <c r="W35" s="492"/>
+      <c r="X35" s="492"/>
+      <c r="Y35" s="492"/>
+      <c r="Z35" s="492"/>
+      <c r="AA35" s="492"/>
+      <c r="AB35" s="497"/>
+      <c r="AC35" s="492"/>
+      <c r="AD35" s="492"/>
+      <c r="AE35" s="492"/>
+      <c r="AF35" s="492"/>
+      <c r="AG35" s="492"/>
+      <c r="AH35" s="492"/>
+      <c r="AI35" s="492"/>
+      <c r="AJ35" s="492"/>
+      <c r="AK35" s="497"/>
+      <c r="AL35" s="492"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="72">
+        <v>44</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="230">
+        <v>7.19</v>
+      </c>
+      <c r="D36" s="54">
+        <f>C36/Sheet3!$C$40</f>
+        <v>0.65143670722236613</v>
+      </c>
+      <c r="E36" s="73">
+        <v>2</v>
+      </c>
+      <c r="F36" s="54">
+        <f>IF(B36=Sheet3!$H$3,((C36*10000)/Sheet3!$I$3),((C36*10000)/Sheet3!$K$3))</f>
+        <v>102.71428571428571</v>
+      </c>
+      <c r="G36" s="54">
+        <v>8</v>
+      </c>
+      <c r="H36" s="54">
+        <v>1</v>
+      </c>
+      <c r="I36" s="101"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54">
+        <v>1</v>
+      </c>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54">
+        <v>1</v>
+      </c>
+      <c r="W36" s="101"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="101"/>
+      <c r="AL36" s="54"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A37" s="72">
+        <v>13</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="222">
+        <v>14.34</v>
+      </c>
+      <c r="D37" s="54">
+        <f>C37/$C$43</f>
+        <v>1.1886323268206038</v>
+      </c>
+      <c r="E37" s="73">
+        <v>1</v>
+      </c>
+      <c r="F37" s="54">
+        <f t="shared" ref="F37:F41" si="4">IF(B37=$H$3,((C37*10000)/$I$3),((C37*10000)/$K$3))</f>
+        <v>204.85714285714286</v>
+      </c>
+      <c r="G37" s="200">
+        <v>8</v>
+      </c>
+      <c r="H37" s="200">
+        <v>1</v>
+      </c>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="200">
+        <v>1</v>
+      </c>
+      <c r="P37" s="200"/>
+      <c r="Q37" s="200"/>
+      <c r="R37" s="200"/>
+      <c r="S37" s="200"/>
+      <c r="T37" s="200"/>
+      <c r="U37" s="200"/>
+      <c r="V37" s="200">
+        <v>1</v>
+      </c>
+      <c r="W37" s="200"/>
+      <c r="X37" s="200"/>
+      <c r="Y37" s="200"/>
+      <c r="Z37" s="200"/>
+      <c r="AA37" s="200"/>
+      <c r="AB37" s="200"/>
+      <c r="AC37" s="200">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="200"/>
+      <c r="AE37" s="200"/>
+      <c r="AF37" s="200"/>
+      <c r="AG37" s="200"/>
+      <c r="AH37" s="200"/>
+      <c r="AI37" s="200"/>
+      <c r="AJ37" s="200">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="200"/>
+      <c r="AL37" s="200"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A38" s="72">
         <v>9</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B38" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="230">
+      <c r="C38" s="230">
         <v>20.43</v>
       </c>
-      <c r="D36" s="54">
-        <f>C36/$C$41</f>
+      <c r="D38" s="54">
+        <f>C38/$C$43</f>
         <v>1.6934280639431616</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E38" s="73">
         <v>3</v>
       </c>
-      <c r="F36" s="54">
+      <c r="F38" s="54">
         <f t="shared" si="4"/>
         <v>227</v>
       </c>
-      <c r="G36" s="98">
+      <c r="G38" s="98">
         <v>6</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="93">
+      <c r="H38" s="26"/>
+      <c r="I38" s="93">
         <v>2</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J38" s="26">
         <v>3</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26">
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="93">
         <v>2</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q38" s="26">
         <v>3</v>
       </c>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26">
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="93">
         <v>2</v>
       </c>
-      <c r="Y36" s="26">
+      <c r="X38" s="26">
         <v>3</v>
       </c>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26">
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="93">
         <v>2</v>
       </c>
-      <c r="AF36" s="26">
+      <c r="AE38" s="26">
         <v>3</v>
       </c>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26">
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="93">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A37" s="72">
+      <c r="AL38" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A39" s="72">
         <v>4</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B39" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="230">
+      <c r="C39" s="230">
         <v>16.36</v>
       </c>
-      <c r="D37" s="54">
-        <f>C37/$C$41</f>
+      <c r="D39" s="54">
+        <f>C39/$C$43</f>
         <v>1.3560686796921253</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E39" s="73">
         <v>3</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F39" s="54">
         <f t="shared" si="4"/>
         <v>233.71428571428572</v>
       </c>
-      <c r="G37" s="192">
+      <c r="G39" s="192">
         <v>4</v>
       </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98">
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98">
         <v>4</v>
       </c>
-      <c r="L37" s="98">
+      <c r="L39" s="98">
         <v>5</v>
       </c>
-      <c r="M37" s="98"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="98">
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="98">
         <v>4</v>
       </c>
-      <c r="S37" s="98">
+      <c r="S39" s="98">
         <v>5</v>
       </c>
-      <c r="T37" s="98"/>
-      <c r="U37" s="98"/>
-      <c r="V37" s="98"/>
-      <c r="W37" s="98"/>
-      <c r="X37" s="98"/>
-      <c r="Y37" s="98"/>
-      <c r="Z37" s="98">
+      <c r="T39" s="98"/>
+      <c r="U39" s="98"/>
+      <c r="V39" s="98"/>
+      <c r="W39" s="98"/>
+      <c r="X39" s="98"/>
+      <c r="Y39" s="98">
         <v>4</v>
       </c>
-      <c r="AA37" s="98">
+      <c r="Z39" s="98">
         <v>5</v>
       </c>
-      <c r="AB37" s="98"/>
-      <c r="AC37" s="98"/>
-      <c r="AD37" s="98"/>
-      <c r="AE37" s="98"/>
-      <c r="AF37" s="98"/>
-      <c r="AG37" s="98">
+      <c r="AA39" s="98"/>
+      <c r="AB39" s="98"/>
+      <c r="AC39" s="98"/>
+      <c r="AD39" s="98"/>
+      <c r="AE39" s="98"/>
+      <c r="AF39" s="98">
         <v>4</v>
       </c>
-      <c r="AH37" s="98">
+      <c r="AG39" s="98">
         <v>5</v>
       </c>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="98"/>
-      <c r="AL37" s="98"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A38" s="72">
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AL39" s="98"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A40" s="72">
         <v>8</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B40" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="230">
+      <c r="C40" s="230">
         <v>9.07</v>
       </c>
-      <c r="D38" s="54">
-        <f>C38/$C$41</f>
+      <c r="D40" s="54">
+        <f>C40/$C$43</f>
         <v>0.75180580224985194</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E40" s="73">
         <v>3</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F40" s="54">
         <f t="shared" si="4"/>
         <v>129.57142857142858</v>
       </c>
-      <c r="G38" s="98">
+      <c r="G40" s="98">
         <v>2</v>
       </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98">
-        <v>5</v>
-      </c>
-      <c r="M38" s="98">
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98">
         <v>6</v>
       </c>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98">
-        <v>5</v>
-      </c>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98">
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="98"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98">
         <v>6</v>
       </c>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98">
-        <v>5</v>
-      </c>
-      <c r="AB38" s="98">
+      <c r="U40" s="98"/>
+      <c r="V40" s="98"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="98">
         <v>6</v>
       </c>
-      <c r="AC38" s="98"/>
-      <c r="AD38" s="98"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98">
-        <v>5</v>
-      </c>
-      <c r="AI38" s="98">
+      <c r="AB40" s="98"/>
+      <c r="AC40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="98"/>
+      <c r="AG40" s="98"/>
+      <c r="AH40" s="98">
         <v>6</v>
       </c>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A39" s="72">
+      <c r="AI40" s="98"/>
+      <c r="AJ40" s="98"/>
+      <c r="AK40" s="98"/>
+      <c r="AL40" s="98"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A41" s="72">
         <v>1</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B41" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="222">
+      <c r="C41" s="222">
         <v>17.059999999999999</v>
       </c>
-      <c r="D39" s="54">
-        <f>C39/$C$41</f>
+      <c r="D41" s="54">
+        <f>C41/$C$43</f>
         <v>1.4140911782119596</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E41" s="73">
         <v>1</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F41" s="54">
         <f t="shared" si="4"/>
         <v>189.55555555555554</v>
       </c>
-      <c r="G39" s="200">
+      <c r="G41" s="200">
         <v>1</v>
       </c>
-      <c r="H39" s="200"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="200"/>
-      <c r="L39" s="200"/>
-      <c r="M39" s="200"/>
-      <c r="N39" s="200">
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="200">
         <v>7</v>
       </c>
-      <c r="O39" s="200"/>
-      <c r="P39" s="200"/>
-      <c r="Q39" s="200"/>
-      <c r="R39" s="200"/>
-      <c r="S39" s="200"/>
-      <c r="T39" s="200"/>
-      <c r="U39" s="200"/>
-      <c r="V39" s="200">
+      <c r="O41" s="200"/>
+      <c r="P41" s="200"/>
+      <c r="Q41" s="200"/>
+      <c r="R41" s="200"/>
+      <c r="S41" s="200"/>
+      <c r="T41" s="200"/>
+      <c r="U41" s="200">
         <v>7</v>
       </c>
-      <c r="W39" s="200"/>
-      <c r="X39" s="200"/>
-      <c r="Y39" s="200"/>
-      <c r="Z39" s="200"/>
-      <c r="AA39" s="200"/>
-      <c r="AB39" s="200"/>
-      <c r="AC39" s="200">
+      <c r="V41" s="200"/>
+      <c r="W41" s="200"/>
+      <c r="X41" s="200"/>
+      <c r="Y41" s="200"/>
+      <c r="Z41" s="200"/>
+      <c r="AA41" s="200"/>
+      <c r="AB41" s="200">
         <v>7</v>
       </c>
-      <c r="AD39" s="200"/>
-      <c r="AE39" s="200"/>
-      <c r="AF39" s="200"/>
-      <c r="AI39" s="200"/>
-      <c r="AJ39" s="200">
+      <c r="AC41" s="200"/>
+      <c r="AD41" s="200"/>
+      <c r="AE41" s="200"/>
+      <c r="AF41" s="200"/>
+      <c r="AG41" s="200"/>
+      <c r="AH41" s="200"/>
+      <c r="AI41" s="200">
         <v>7</v>
       </c>
-      <c r="AK39" s="200"/>
-      <c r="AL39" s="200"/>
-    </row>
-    <row r="40" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="246"/>
-      <c r="B40" s="194" t="s">
+      <c r="AJ41" s="200"/>
+      <c r="AK41" s="200"/>
+      <c r="AL41" s="200"/>
+    </row>
+    <row r="42" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="246"/>
+      <c r="B42" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="247">
-        <f>SUM(C33:C39)</f>
+      <c r="C42" s="247">
+        <f>SUM(C35:C41)</f>
         <v>84.45</v>
       </c>
-      <c r="D40" s="330"/>
-      <c r="E40" s="233"/>
-      <c r="F40" s="226">
-        <f>SUM(F33:F39)</f>
+      <c r="D42" s="330"/>
+      <c r="E42" s="233"/>
+      <c r="F42" s="226">
+        <f>SUM(F35:F41)</f>
         <v>1087.4126984126983</v>
       </c>
-      <c r="G40" s="233"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-    </row>
-    <row r="41" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="224"/>
-      <c r="B41" s="225" t="s">
+      <c r="G42" s="233"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+    </row>
+    <row r="43" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="224"/>
+      <c r="B43" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="226">
-        <f>C40/F3</f>
+      <c r="C43" s="226">
+        <f>C42/F3</f>
         <v>12.064285714285715</v>
       </c>
-      <c r="D41" s="226"/>
-      <c r="E41" s="225" t="s">
+      <c r="D43" s="226"/>
+      <c r="E43" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="226">
-        <f>F40/$F$3</f>
+      <c r="F43" s="226">
+        <f>F42/$F$3</f>
         <v>155.34467120181404</v>
       </c>
-      <c r="G41" s="198" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="252"/>
-      <c r="I41" s="252"/>
-      <c r="J41" s="252"/>
-      <c r="K41" s="252"/>
-      <c r="L41" s="252"/>
-      <c r="M41" s="252"/>
-      <c r="N41" s="252"/>
-      <c r="O41" s="252"/>
-      <c r="P41" s="252"/>
-      <c r="Q41" s="252"/>
-      <c r="R41" s="252"/>
-      <c r="S41" s="252"/>
-      <c r="T41" s="252"/>
-      <c r="U41" s="252"/>
-      <c r="V41" s="252"/>
-      <c r="W41" s="252"/>
-      <c r="X41" s="252"/>
-      <c r="Y41" s="252"/>
-      <c r="Z41" s="252"/>
-      <c r="AA41" s="252"/>
-      <c r="AB41" s="252"/>
-      <c r="AC41" s="252"/>
-      <c r="AD41" s="252"/>
-      <c r="AE41" s="252"/>
-      <c r="AF41" s="252"/>
-      <c r="AG41" s="252"/>
-      <c r="AH41" s="252"/>
-      <c r="AI41" s="529"/>
-      <c r="AJ41" s="252"/>
-      <c r="AK41" s="252"/>
-      <c r="AL41" s="252"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="252"/>
+      <c r="I43" s="252"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="252"/>
+      <c r="L43" s="252"/>
+      <c r="M43" s="252"/>
+      <c r="N43" s="252"/>
+      <c r="O43" s="252"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="252"/>
+      <c r="R43" s="252"/>
+      <c r="S43" s="252"/>
+      <c r="T43" s="252"/>
+      <c r="U43" s="252"/>
+      <c r="V43" s="252"/>
+      <c r="W43" s="252"/>
+      <c r="X43" s="252"/>
+      <c r="Y43" s="252"/>
+      <c r="Z43" s="252"/>
+      <c r="AA43" s="252"/>
+      <c r="AB43" s="252"/>
+      <c r="AC43" s="252"/>
+      <c r="AD43" s="252"/>
+      <c r="AE43" s="252"/>
+      <c r="AF43" s="252"/>
+      <c r="AG43" s="252"/>
+      <c r="AH43" s="252"/>
+      <c r="AI43" s="347"/>
+      <c r="AJ43" s="252"/>
+      <c r="AK43" s="252"/>
+      <c r="AL43" s="252"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
+  <mergeCells count="172">
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="AK8:AK9"/>
     <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="AE8:AE9"/>
     <mergeCell ref="AF8:AF9"/>
     <mergeCell ref="AG8:AG9"/>
